--- a/VLANs/VLSM-tablazat.xlsx
+++ b/VLANs/VLSM-tablazat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\aromas-cubanos\VLANs\IPv6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\aromas-cubanos\VLANs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A078BB9-9AFA-409B-8F29-475E85819D8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2DDDCC-331E-4B0D-99B6-C88B6D500D2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="124">
   <si>
     <t>/30</t>
   </si>
@@ -384,6 +384,21 @@
   </si>
   <si>
     <t>/32</t>
+  </si>
+  <si>
+    <t>RV-2 Gig0/2</t>
+  </si>
+  <si>
+    <t>10.200.1.</t>
+  </si>
+  <si>
+    <t>10.200.2.</t>
+  </si>
+  <si>
+    <t>10.200.3.</t>
+  </si>
+  <si>
+    <t>10.200.4.</t>
   </si>
 </sst>
 </file>
@@ -848,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1003,6 +1018,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,15 +1048,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1063,6 +1079,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1076,6 +1098,9 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,19 +1145,21 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Jó" xfId="1" builtinId="26"/>
@@ -1499,12 +1526,12 @@
       <c r="B2" s="26">
         <v>0</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1514,12 +1541,12 @@
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1529,12 +1556,12 @@
       <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1544,12 +1571,12 @@
       <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1559,12 +1586,12 @@
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1574,12 +1601,12 @@
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1589,12 +1616,12 @@
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1604,12 +1631,12 @@
       <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1619,12 +1646,12 @@
       <c r="B10" s="26">
         <v>8</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1634,12 +1661,12 @@
       <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1649,12 +1676,12 @@
       <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1664,12 +1691,12 @@
       <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1679,12 +1706,12 @@
       <c r="B14" s="26">
         <v>12</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1694,12 +1721,12 @@
       <c r="B15" s="26">
         <v>13</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1709,12 +1736,12 @@
       <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1724,12 +1751,12 @@
       <c r="B17" s="26">
         <v>15</v>
       </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1739,12 +1766,12 @@
       <c r="B18" s="26">
         <v>16</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1754,12 +1781,12 @@
       <c r="B19" s="26">
         <v>17</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1769,12 +1796,12 @@
       <c r="B20" s="26">
         <v>18</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1784,12 +1811,12 @@
       <c r="B21" s="26">
         <v>19</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1799,12 +1826,12 @@
       <c r="B22" s="26">
         <v>20</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1814,12 +1841,12 @@
       <c r="B23" s="26">
         <v>21</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1829,12 +1856,12 @@
       <c r="B24" s="26">
         <v>22</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1844,12 +1871,12 @@
       <c r="B25" s="26">
         <v>23</v>
       </c>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1859,12 +1886,12 @@
       <c r="B26" s="26">
         <v>24</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1874,12 +1901,12 @@
       <c r="B27" s="26">
         <v>25</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1889,12 +1916,12 @@
       <c r="B28" s="26">
         <v>26</v>
       </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1904,12 +1931,12 @@
       <c r="B29" s="26">
         <v>27</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1919,12 +1946,12 @@
       <c r="B30" s="26">
         <v>28</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1934,12 +1961,12 @@
       <c r="B31" s="26">
         <v>29</v>
       </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1949,12 +1976,12 @@
       <c r="B32" s="26">
         <v>30</v>
       </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1964,12 +1991,12 @@
       <c r="B33" s="26">
         <v>31</v>
       </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1979,12 +2006,12 @@
       <c r="B34" s="26">
         <v>32</v>
       </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1994,12 +2021,12 @@
       <c r="B35" s="26">
         <v>33</v>
       </c>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2009,12 +2036,12 @@
       <c r="B36" s="26">
         <v>34</v>
       </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2024,12 +2051,12 @@
       <c r="B37" s="26">
         <v>35</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2039,12 +2066,12 @@
       <c r="B38" s="26">
         <v>36</v>
       </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2054,12 +2081,12 @@
       <c r="B39" s="26">
         <v>37</v>
       </c>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2069,12 +2096,12 @@
       <c r="B40" s="26">
         <v>38</v>
       </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2084,12 +2111,12 @@
       <c r="B41" s="26">
         <v>39</v>
       </c>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2099,12 +2126,12 @@
       <c r="B42" s="26">
         <v>40</v>
       </c>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2114,12 +2141,12 @@
       <c r="B43" s="26">
         <v>41</v>
       </c>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2129,12 +2156,12 @@
       <c r="B44" s="26">
         <v>42</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2144,12 +2171,12 @@
       <c r="B45" s="26">
         <v>43</v>
       </c>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2159,12 +2186,12 @@
       <c r="B46" s="26">
         <v>44</v>
       </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2174,12 +2201,12 @@
       <c r="B47" s="26">
         <v>45</v>
       </c>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2189,12 +2216,12 @@
       <c r="B48" s="26">
         <v>46</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2204,12 +2231,12 @@
       <c r="B49" s="26">
         <v>47</v>
       </c>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="86"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2219,12 +2246,12 @@
       <c r="B50" s="26">
         <v>48</v>
       </c>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2234,12 +2261,12 @@
       <c r="B51" s="26">
         <v>49</v>
       </c>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2249,12 +2276,12 @@
       <c r="B52" s="26">
         <v>50</v>
       </c>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2264,12 +2291,12 @@
       <c r="B53" s="26">
         <v>51</v>
       </c>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2279,12 +2306,12 @@
       <c r="B54" s="26">
         <v>52</v>
       </c>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="86"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2294,12 +2321,12 @@
       <c r="B55" s="26">
         <v>53</v>
       </c>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2309,12 +2336,12 @@
       <c r="B56" s="26">
         <v>54</v>
       </c>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2324,12 +2351,12 @@
       <c r="B57" s="26">
         <v>55</v>
       </c>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="86"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2339,12 +2366,12 @@
       <c r="B58" s="26">
         <v>56</v>
       </c>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2354,12 +2381,12 @@
       <c r="B59" s="26">
         <v>57</v>
       </c>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="86"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2369,12 +2396,12 @@
       <c r="B60" s="26">
         <v>58</v>
       </c>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="86"/>
+      <c r="H60" s="86"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2384,12 +2411,12 @@
       <c r="B61" s="26">
         <v>59</v>
       </c>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2399,12 +2426,12 @@
       <c r="B62" s="26">
         <v>60</v>
       </c>
-      <c r="C62" s="78"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="78"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2414,12 +2441,12 @@
       <c r="B63" s="26">
         <v>61</v>
       </c>
-      <c r="C63" s="78"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="78"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="H63" s="86"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2429,12 +2456,12 @@
       <c r="B64" s="26">
         <v>62</v>
       </c>
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="78"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86"/>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2444,12 +2471,12 @@
       <c r="B65" s="26">
         <v>63</v>
       </c>
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="H65" s="86"/>
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2459,12 +2486,12 @@
       <c r="B66" s="26">
         <v>64</v>
       </c>
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2474,12 +2501,12 @@
       <c r="B67" s="26">
         <v>65</v>
       </c>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="86"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2489,12 +2516,12 @@
       <c r="B68" s="26">
         <v>66</v>
       </c>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2504,12 +2531,12 @@
       <c r="B69" s="26">
         <v>67</v>
       </c>
-      <c r="C69" s="78"/>
-      <c r="D69" s="78"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="78"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="86"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2519,12 +2546,12 @@
       <c r="B70" s="26">
         <v>68</v>
       </c>
-      <c r="C70" s="78"/>
-      <c r="D70" s="78"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="78"/>
-      <c r="H70" s="78"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="86"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2534,12 +2561,12 @@
       <c r="B71" s="26">
         <v>69</v>
       </c>
-      <c r="C71" s="78"/>
-      <c r="D71" s="78"/>
-      <c r="E71" s="78"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="78"/>
-      <c r="H71" s="78"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2549,12 +2576,12 @@
       <c r="B72" s="26">
         <v>70</v>
       </c>
-      <c r="C72" s="78"/>
-      <c r="D72" s="78"/>
-      <c r="E72" s="78"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="78"/>
-      <c r="H72" s="78"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="86"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2564,12 +2591,12 @@
       <c r="B73" s="26">
         <v>71</v>
       </c>
-      <c r="C73" s="78"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="78"/>
-      <c r="H73" s="78"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="86"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2579,12 +2606,12 @@
       <c r="B74" s="26">
         <v>72</v>
       </c>
-      <c r="C74" s="78"/>
-      <c r="D74" s="78"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="78"/>
-      <c r="H74" s="78"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="86"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2594,12 +2621,12 @@
       <c r="B75" s="26">
         <v>73</v>
       </c>
-      <c r="C75" s="78"/>
-      <c r="D75" s="78"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="78"/>
-      <c r="H75" s="78"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="86"/>
+      <c r="G75" s="86"/>
+      <c r="H75" s="86"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2609,12 +2636,12 @@
       <c r="B76" s="26">
         <v>74</v>
       </c>
-      <c r="C76" s="78"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="78"/>
-      <c r="F76" s="78"/>
-      <c r="G76" s="78"/>
-      <c r="H76" s="78"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="86"/>
+      <c r="G76" s="86"/>
+      <c r="H76" s="86"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2624,12 +2651,12 @@
       <c r="B77" s="26">
         <v>75</v>
       </c>
-      <c r="C77" s="78"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="78"/>
-      <c r="F77" s="78"/>
-      <c r="G77" s="78"/>
-      <c r="H77" s="78"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="86"/>
+      <c r="G77" s="86"/>
+      <c r="H77" s="86"/>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2639,12 +2666,12 @@
       <c r="B78" s="26">
         <v>76</v>
       </c>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="78"/>
-      <c r="G78" s="78"/>
-      <c r="H78" s="78"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="86"/>
+      <c r="E78" s="86"/>
+      <c r="F78" s="86"/>
+      <c r="G78" s="86"/>
+      <c r="H78" s="86"/>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2654,12 +2681,12 @@
       <c r="B79" s="26">
         <v>77</v>
       </c>
-      <c r="C79" s="78"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="78"/>
-      <c r="F79" s="78"/>
-      <c r="G79" s="78"/>
-      <c r="H79" s="78"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="86"/>
+      <c r="G79" s="86"/>
+      <c r="H79" s="86"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2669,12 +2696,12 @@
       <c r="B80" s="26">
         <v>78</v>
       </c>
-      <c r="C80" s="78"/>
-      <c r="D80" s="78"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="78"/>
-      <c r="H80" s="78"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="86"/>
+      <c r="E80" s="86"/>
+      <c r="F80" s="86"/>
+      <c r="G80" s="86"/>
+      <c r="H80" s="86"/>
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2684,12 +2711,12 @@
       <c r="B81" s="26">
         <v>79</v>
       </c>
-      <c r="C81" s="78"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="78"/>
-      <c r="F81" s="78"/>
-      <c r="G81" s="78"/>
-      <c r="H81" s="78"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="86"/>
+      <c r="E81" s="86"/>
+      <c r="F81" s="86"/>
+      <c r="G81" s="86"/>
+      <c r="H81" s="86"/>
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2699,12 +2726,12 @@
       <c r="B82" s="26">
         <v>80</v>
       </c>
-      <c r="C82" s="78"/>
-      <c r="D82" s="78"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="78"/>
-      <c r="H82" s="78"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="86"/>
+      <c r="E82" s="86"/>
+      <c r="F82" s="86"/>
+      <c r="G82" s="86"/>
+      <c r="H82" s="86"/>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2714,12 +2741,12 @@
       <c r="B83" s="26">
         <v>81</v>
       </c>
-      <c r="C83" s="78"/>
-      <c r="D83" s="78"/>
-      <c r="E83" s="78"/>
-      <c r="F83" s="78"/>
-      <c r="G83" s="78"/>
-      <c r="H83" s="78"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="86"/>
+      <c r="E83" s="86"/>
+      <c r="F83" s="86"/>
+      <c r="G83" s="86"/>
+      <c r="H83" s="86"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2729,12 +2756,12 @@
       <c r="B84" s="26">
         <v>82</v>
       </c>
-      <c r="C84" s="78"/>
-      <c r="D84" s="78"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="78"/>
-      <c r="G84" s="78"/>
-      <c r="H84" s="78"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="86"/>
+      <c r="E84" s="86"/>
+      <c r="F84" s="86"/>
+      <c r="G84" s="86"/>
+      <c r="H84" s="86"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2744,12 +2771,12 @@
       <c r="B85" s="26">
         <v>83</v>
       </c>
-      <c r="C85" s="78"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="78"/>
-      <c r="H85" s="78"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="86"/>
+      <c r="E85" s="86"/>
+      <c r="F85" s="86"/>
+      <c r="G85" s="86"/>
+      <c r="H85" s="86"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2759,12 +2786,12 @@
       <c r="B86" s="26">
         <v>84</v>
       </c>
-      <c r="C86" s="78"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="78"/>
-      <c r="H86" s="78"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="86"/>
+      <c r="E86" s="86"/>
+      <c r="F86" s="86"/>
+      <c r="G86" s="86"/>
+      <c r="H86" s="86"/>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -2774,12 +2801,12 @@
       <c r="B87" s="26">
         <v>85</v>
       </c>
-      <c r="C87" s="78"/>
-      <c r="D87" s="78"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="78"/>
-      <c r="G87" s="78"/>
-      <c r="H87" s="78"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="86"/>
+      <c r="H87" s="86"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -2789,12 +2816,12 @@
       <c r="B88" s="26">
         <v>86</v>
       </c>
-      <c r="C88" s="78"/>
-      <c r="D88" s="78"/>
-      <c r="E88" s="78"/>
-      <c r="F88" s="78"/>
-      <c r="G88" s="78"/>
-      <c r="H88" s="78"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="86"/>
+      <c r="F88" s="86"/>
+      <c r="G88" s="86"/>
+      <c r="H88" s="86"/>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -2804,12 +2831,12 @@
       <c r="B89" s="26">
         <v>87</v>
       </c>
-      <c r="C89" s="78"/>
-      <c r="D89" s="78"/>
-      <c r="E89" s="78"/>
-      <c r="F89" s="78"/>
-      <c r="G89" s="78"/>
-      <c r="H89" s="78"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="86"/>
+      <c r="E89" s="86"/>
+      <c r="F89" s="86"/>
+      <c r="G89" s="86"/>
+      <c r="H89" s="86"/>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -2819,12 +2846,12 @@
       <c r="B90" s="26">
         <v>88</v>
       </c>
-      <c r="C90" s="78"/>
-      <c r="D90" s="78"/>
-      <c r="E90" s="78"/>
-      <c r="F90" s="78"/>
-      <c r="G90" s="78"/>
-      <c r="H90" s="78"/>
+      <c r="C90" s="86"/>
+      <c r="D90" s="86"/>
+      <c r="E90" s="86"/>
+      <c r="F90" s="86"/>
+      <c r="G90" s="86"/>
+      <c r="H90" s="86"/>
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -2834,12 +2861,12 @@
       <c r="B91" s="26">
         <v>89</v>
       </c>
-      <c r="C91" s="78"/>
-      <c r="D91" s="78"/>
-      <c r="E91" s="78"/>
-      <c r="F91" s="78"/>
-      <c r="G91" s="78"/>
-      <c r="H91" s="78"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="86"/>
+      <c r="G91" s="86"/>
+      <c r="H91" s="86"/>
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -2849,12 +2876,12 @@
       <c r="B92" s="26">
         <v>90</v>
       </c>
-      <c r="C92" s="78"/>
-      <c r="D92" s="78"/>
-      <c r="E92" s="78"/>
-      <c r="F92" s="78"/>
-      <c r="G92" s="78"/>
-      <c r="H92" s="78"/>
+      <c r="C92" s="86"/>
+      <c r="D92" s="86"/>
+      <c r="E92" s="86"/>
+      <c r="F92" s="86"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="86"/>
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -2864,12 +2891,12 @@
       <c r="B93" s="26">
         <v>91</v>
       </c>
-      <c r="C93" s="78"/>
-      <c r="D93" s="78"/>
-      <c r="E93" s="78"/>
-      <c r="F93" s="78"/>
-      <c r="G93" s="78"/>
-      <c r="H93" s="78"/>
+      <c r="C93" s="86"/>
+      <c r="D93" s="86"/>
+      <c r="E93" s="86"/>
+      <c r="F93" s="86"/>
+      <c r="G93" s="86"/>
+      <c r="H93" s="86"/>
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -2879,12 +2906,12 @@
       <c r="B94" s="26">
         <v>92</v>
       </c>
-      <c r="C94" s="78"/>
-      <c r="D94" s="78"/>
-      <c r="E94" s="78"/>
-      <c r="F94" s="78"/>
-      <c r="G94" s="78"/>
-      <c r="H94" s="78"/>
+      <c r="C94" s="86"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="86"/>
+      <c r="F94" s="86"/>
+      <c r="G94" s="86"/>
+      <c r="H94" s="86"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -2894,12 +2921,12 @@
       <c r="B95" s="26">
         <v>93</v>
       </c>
-      <c r="C95" s="78"/>
-      <c r="D95" s="78"/>
-      <c r="E95" s="78"/>
-      <c r="F95" s="78"/>
-      <c r="G95" s="78"/>
-      <c r="H95" s="78"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="86"/>
+      <c r="G95" s="86"/>
+      <c r="H95" s="86"/>
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -2909,12 +2936,12 @@
       <c r="B96" s="26">
         <v>94</v>
       </c>
-      <c r="C96" s="78"/>
-      <c r="D96" s="78"/>
-      <c r="E96" s="78"/>
-      <c r="F96" s="78"/>
-      <c r="G96" s="78"/>
-      <c r="H96" s="78"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="86"/>
+      <c r="F96" s="86"/>
+      <c r="G96" s="86"/>
+      <c r="H96" s="86"/>
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -2924,12 +2951,12 @@
       <c r="B97" s="26">
         <v>95</v>
       </c>
-      <c r="C97" s="78"/>
-      <c r="D97" s="78"/>
-      <c r="E97" s="78"/>
-      <c r="F97" s="78"/>
-      <c r="G97" s="78"/>
-      <c r="H97" s="78"/>
+      <c r="C97" s="86"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="86"/>
+      <c r="F97" s="86"/>
+      <c r="G97" s="86"/>
+      <c r="H97" s="86"/>
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -2939,12 +2966,12 @@
       <c r="B98" s="26">
         <v>96</v>
       </c>
-      <c r="C98" s="78"/>
-      <c r="D98" s="78"/>
-      <c r="E98" s="78"/>
-      <c r="F98" s="78"/>
-      <c r="G98" s="78"/>
-      <c r="H98" s="78"/>
+      <c r="C98" s="86"/>
+      <c r="D98" s="86"/>
+      <c r="E98" s="86"/>
+      <c r="F98" s="86"/>
+      <c r="G98" s="86"/>
+      <c r="H98" s="86"/>
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -2954,12 +2981,12 @@
       <c r="B99" s="26">
         <v>97</v>
       </c>
-      <c r="C99" s="78"/>
-      <c r="D99" s="78"/>
-      <c r="E99" s="78"/>
-      <c r="F99" s="78"/>
-      <c r="G99" s="78"/>
-      <c r="H99" s="78"/>
+      <c r="C99" s="86"/>
+      <c r="D99" s="86"/>
+      <c r="E99" s="86"/>
+      <c r="F99" s="86"/>
+      <c r="G99" s="86"/>
+      <c r="H99" s="86"/>
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -2969,12 +2996,12 @@
       <c r="B100" s="26">
         <v>98</v>
       </c>
-      <c r="C100" s="78"/>
-      <c r="D100" s="78"/>
-      <c r="E100" s="78"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="78"/>
-      <c r="H100" s="78"/>
+      <c r="C100" s="86"/>
+      <c r="D100" s="86"/>
+      <c r="E100" s="86"/>
+      <c r="F100" s="86"/>
+      <c r="G100" s="86"/>
+      <c r="H100" s="86"/>
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -2984,12 +3011,12 @@
       <c r="B101" s="26">
         <v>99</v>
       </c>
-      <c r="C101" s="78"/>
-      <c r="D101" s="78"/>
-      <c r="E101" s="78"/>
-      <c r="F101" s="78"/>
-      <c r="G101" s="78"/>
-      <c r="H101" s="78"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="86"/>
+      <c r="F101" s="86"/>
+      <c r="G101" s="86"/>
+      <c r="H101" s="86"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -2999,12 +3026,12 @@
       <c r="B102" s="26">
         <v>100</v>
       </c>
-      <c r="C102" s="78"/>
-      <c r="D102" s="78"/>
-      <c r="E102" s="78"/>
-      <c r="F102" s="78"/>
-      <c r="G102" s="78"/>
-      <c r="H102" s="78"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="86"/>
+      <c r="E102" s="86"/>
+      <c r="F102" s="86"/>
+      <c r="G102" s="86"/>
+      <c r="H102" s="86"/>
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3014,12 +3041,12 @@
       <c r="B103" s="26">
         <v>101</v>
       </c>
-      <c r="C103" s="78"/>
-      <c r="D103" s="78"/>
-      <c r="E103" s="78"/>
-      <c r="F103" s="78"/>
-      <c r="G103" s="78"/>
-      <c r="H103" s="78"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="86"/>
+      <c r="E103" s="86"/>
+      <c r="F103" s="86"/>
+      <c r="G103" s="86"/>
+      <c r="H103" s="86"/>
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3029,12 +3056,12 @@
       <c r="B104" s="26">
         <v>102</v>
       </c>
-      <c r="C104" s="78"/>
-      <c r="D104" s="78"/>
-      <c r="E104" s="78"/>
-      <c r="F104" s="78"/>
-      <c r="G104" s="78"/>
-      <c r="H104" s="78"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="86"/>
+      <c r="E104" s="86"/>
+      <c r="F104" s="86"/>
+      <c r="G104" s="86"/>
+      <c r="H104" s="86"/>
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3044,12 +3071,12 @@
       <c r="B105" s="26">
         <v>103</v>
       </c>
-      <c r="C105" s="78"/>
-      <c r="D105" s="78"/>
-      <c r="E105" s="78"/>
-      <c r="F105" s="78"/>
-      <c r="G105" s="78"/>
-      <c r="H105" s="78"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="86"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="86"/>
+      <c r="H105" s="86"/>
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3059,12 +3086,12 @@
       <c r="B106" s="26">
         <v>104</v>
       </c>
-      <c r="C106" s="78"/>
-      <c r="D106" s="78"/>
-      <c r="E106" s="78"/>
-      <c r="F106" s="78"/>
-      <c r="G106" s="78"/>
-      <c r="H106" s="78"/>
+      <c r="C106" s="86"/>
+      <c r="D106" s="86"/>
+      <c r="E106" s="86"/>
+      <c r="F106" s="86"/>
+      <c r="G106" s="86"/>
+      <c r="H106" s="86"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3074,12 +3101,12 @@
       <c r="B107" s="26">
         <v>105</v>
       </c>
-      <c r="C107" s="78"/>
-      <c r="D107" s="78"/>
-      <c r="E107" s="78"/>
-      <c r="F107" s="78"/>
-      <c r="G107" s="78"/>
-      <c r="H107" s="78"/>
+      <c r="C107" s="86"/>
+      <c r="D107" s="86"/>
+      <c r="E107" s="86"/>
+      <c r="F107" s="86"/>
+      <c r="G107" s="86"/>
+      <c r="H107" s="86"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3089,12 +3116,12 @@
       <c r="B108" s="26">
         <v>106</v>
       </c>
-      <c r="C108" s="78"/>
-      <c r="D108" s="78"/>
-      <c r="E108" s="78"/>
-      <c r="F108" s="78"/>
-      <c r="G108" s="78"/>
-      <c r="H108" s="78"/>
+      <c r="C108" s="86"/>
+      <c r="D108" s="86"/>
+      <c r="E108" s="86"/>
+      <c r="F108" s="86"/>
+      <c r="G108" s="86"/>
+      <c r="H108" s="86"/>
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3104,12 +3131,12 @@
       <c r="B109" s="26">
         <v>107</v>
       </c>
-      <c r="C109" s="78"/>
-      <c r="D109" s="78"/>
-      <c r="E109" s="78"/>
-      <c r="F109" s="78"/>
-      <c r="G109" s="78"/>
-      <c r="H109" s="78"/>
+      <c r="C109" s="86"/>
+      <c r="D109" s="86"/>
+      <c r="E109" s="86"/>
+      <c r="F109" s="86"/>
+      <c r="G109" s="86"/>
+      <c r="H109" s="86"/>
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3119,12 +3146,12 @@
       <c r="B110" s="26">
         <v>108</v>
       </c>
-      <c r="C110" s="78"/>
-      <c r="D110" s="78"/>
-      <c r="E110" s="78"/>
-      <c r="F110" s="78"/>
-      <c r="G110" s="78"/>
-      <c r="H110" s="78"/>
+      <c r="C110" s="86"/>
+      <c r="D110" s="86"/>
+      <c r="E110" s="86"/>
+      <c r="F110" s="86"/>
+      <c r="G110" s="86"/>
+      <c r="H110" s="86"/>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3134,12 +3161,12 @@
       <c r="B111" s="26">
         <v>109</v>
       </c>
-      <c r="C111" s="78"/>
-      <c r="D111" s="78"/>
-      <c r="E111" s="78"/>
-      <c r="F111" s="78"/>
-      <c r="G111" s="78"/>
-      <c r="H111" s="78"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="86"/>
+      <c r="E111" s="86"/>
+      <c r="F111" s="86"/>
+      <c r="G111" s="86"/>
+      <c r="H111" s="86"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3149,12 +3176,12 @@
       <c r="B112" s="26">
         <v>110</v>
       </c>
-      <c r="C112" s="78"/>
-      <c r="D112" s="78"/>
-      <c r="E112" s="78"/>
-      <c r="F112" s="78"/>
-      <c r="G112" s="78"/>
-      <c r="H112" s="78"/>
+      <c r="C112" s="86"/>
+      <c r="D112" s="86"/>
+      <c r="E112" s="86"/>
+      <c r="F112" s="86"/>
+      <c r="G112" s="86"/>
+      <c r="H112" s="86"/>
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3164,12 +3191,12 @@
       <c r="B113" s="26">
         <v>111</v>
       </c>
-      <c r="C113" s="78"/>
-      <c r="D113" s="78"/>
-      <c r="E113" s="78"/>
-      <c r="F113" s="78"/>
-      <c r="G113" s="78"/>
-      <c r="H113" s="78"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="86"/>
+      <c r="E113" s="86"/>
+      <c r="F113" s="86"/>
+      <c r="G113" s="86"/>
+      <c r="H113" s="86"/>
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3179,12 +3206,12 @@
       <c r="B114" s="26">
         <v>112</v>
       </c>
-      <c r="C114" s="78"/>
-      <c r="D114" s="78"/>
-      <c r="E114" s="78"/>
-      <c r="F114" s="78"/>
-      <c r="G114" s="78"/>
-      <c r="H114" s="78"/>
+      <c r="C114" s="86"/>
+      <c r="D114" s="86"/>
+      <c r="E114" s="86"/>
+      <c r="F114" s="86"/>
+      <c r="G114" s="86"/>
+      <c r="H114" s="86"/>
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3194,12 +3221,12 @@
       <c r="B115" s="26">
         <v>113</v>
       </c>
-      <c r="C115" s="78"/>
-      <c r="D115" s="78"/>
-      <c r="E115" s="78"/>
-      <c r="F115" s="78"/>
-      <c r="G115" s="78"/>
-      <c r="H115" s="78"/>
+      <c r="C115" s="86"/>
+      <c r="D115" s="86"/>
+      <c r="E115" s="86"/>
+      <c r="F115" s="86"/>
+      <c r="G115" s="86"/>
+      <c r="H115" s="86"/>
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3209,12 +3236,12 @@
       <c r="B116" s="26">
         <v>114</v>
       </c>
-      <c r="C116" s="78"/>
-      <c r="D116" s="78"/>
-      <c r="E116" s="78"/>
-      <c r="F116" s="78"/>
-      <c r="G116" s="78"/>
-      <c r="H116" s="78"/>
+      <c r="C116" s="86"/>
+      <c r="D116" s="86"/>
+      <c r="E116" s="86"/>
+      <c r="F116" s="86"/>
+      <c r="G116" s="86"/>
+      <c r="H116" s="86"/>
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3224,12 +3251,12 @@
       <c r="B117" s="26">
         <v>115</v>
       </c>
-      <c r="C117" s="78"/>
-      <c r="D117" s="78"/>
-      <c r="E117" s="78"/>
-      <c r="F117" s="78"/>
-      <c r="G117" s="78"/>
-      <c r="H117" s="78"/>
+      <c r="C117" s="86"/>
+      <c r="D117" s="86"/>
+      <c r="E117" s="86"/>
+      <c r="F117" s="86"/>
+      <c r="G117" s="86"/>
+      <c r="H117" s="86"/>
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3239,12 +3266,12 @@
       <c r="B118" s="26">
         <v>116</v>
       </c>
-      <c r="C118" s="78"/>
-      <c r="D118" s="78"/>
-      <c r="E118" s="78"/>
-      <c r="F118" s="78"/>
-      <c r="G118" s="78"/>
-      <c r="H118" s="78"/>
+      <c r="C118" s="86"/>
+      <c r="D118" s="86"/>
+      <c r="E118" s="86"/>
+      <c r="F118" s="86"/>
+      <c r="G118" s="86"/>
+      <c r="H118" s="86"/>
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3254,12 +3281,12 @@
       <c r="B119" s="26">
         <v>117</v>
       </c>
-      <c r="C119" s="78"/>
-      <c r="D119" s="78"/>
-      <c r="E119" s="78"/>
-      <c r="F119" s="78"/>
-      <c r="G119" s="78"/>
-      <c r="H119" s="78"/>
+      <c r="C119" s="86"/>
+      <c r="D119" s="86"/>
+      <c r="E119" s="86"/>
+      <c r="F119" s="86"/>
+      <c r="G119" s="86"/>
+      <c r="H119" s="86"/>
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3269,12 +3296,12 @@
       <c r="B120" s="26">
         <v>118</v>
       </c>
-      <c r="C120" s="78"/>
-      <c r="D120" s="78"/>
-      <c r="E120" s="78"/>
-      <c r="F120" s="78"/>
-      <c r="G120" s="78"/>
-      <c r="H120" s="78"/>
+      <c r="C120" s="86"/>
+      <c r="D120" s="86"/>
+      <c r="E120" s="86"/>
+      <c r="F120" s="86"/>
+      <c r="G120" s="86"/>
+      <c r="H120" s="86"/>
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3284,12 +3311,12 @@
       <c r="B121" s="26">
         <v>119</v>
       </c>
-      <c r="C121" s="78"/>
-      <c r="D121" s="78"/>
-      <c r="E121" s="78"/>
-      <c r="F121" s="78"/>
-      <c r="G121" s="78"/>
-      <c r="H121" s="78"/>
+      <c r="C121" s="86"/>
+      <c r="D121" s="86"/>
+      <c r="E121" s="86"/>
+      <c r="F121" s="86"/>
+      <c r="G121" s="86"/>
+      <c r="H121" s="86"/>
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3299,12 +3326,12 @@
       <c r="B122" s="26">
         <v>120</v>
       </c>
-      <c r="C122" s="78"/>
-      <c r="D122" s="78"/>
-      <c r="E122" s="78"/>
-      <c r="F122" s="78"/>
-      <c r="G122" s="78"/>
-      <c r="H122" s="78"/>
+      <c r="C122" s="86"/>
+      <c r="D122" s="86"/>
+      <c r="E122" s="86"/>
+      <c r="F122" s="86"/>
+      <c r="G122" s="86"/>
+      <c r="H122" s="86"/>
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -3314,12 +3341,12 @@
       <c r="B123" s="26">
         <v>121</v>
       </c>
-      <c r="C123" s="78"/>
-      <c r="D123" s="78"/>
-      <c r="E123" s="78"/>
-      <c r="F123" s="78"/>
-      <c r="G123" s="78"/>
-      <c r="H123" s="78"/>
+      <c r="C123" s="86"/>
+      <c r="D123" s="86"/>
+      <c r="E123" s="86"/>
+      <c r="F123" s="86"/>
+      <c r="G123" s="86"/>
+      <c r="H123" s="86"/>
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3329,12 +3356,12 @@
       <c r="B124" s="26">
         <v>122</v>
       </c>
-      <c r="C124" s="78"/>
-      <c r="D124" s="78"/>
-      <c r="E124" s="78"/>
-      <c r="F124" s="78"/>
-      <c r="G124" s="78"/>
-      <c r="H124" s="78"/>
+      <c r="C124" s="86"/>
+      <c r="D124" s="86"/>
+      <c r="E124" s="86"/>
+      <c r="F124" s="86"/>
+      <c r="G124" s="86"/>
+      <c r="H124" s="86"/>
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -3344,12 +3371,12 @@
       <c r="B125" s="26">
         <v>123</v>
       </c>
-      <c r="C125" s="78"/>
-      <c r="D125" s="78"/>
-      <c r="E125" s="78"/>
-      <c r="F125" s="78"/>
-      <c r="G125" s="78"/>
-      <c r="H125" s="78"/>
+      <c r="C125" s="86"/>
+      <c r="D125" s="86"/>
+      <c r="E125" s="86"/>
+      <c r="F125" s="86"/>
+      <c r="G125" s="86"/>
+      <c r="H125" s="86"/>
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -3359,12 +3386,12 @@
       <c r="B126" s="26">
         <v>124</v>
       </c>
-      <c r="C126" s="78"/>
-      <c r="D126" s="78"/>
-      <c r="E126" s="78"/>
-      <c r="F126" s="78"/>
-      <c r="G126" s="78"/>
-      <c r="H126" s="78"/>
+      <c r="C126" s="86"/>
+      <c r="D126" s="86"/>
+      <c r="E126" s="86"/>
+      <c r="F126" s="86"/>
+      <c r="G126" s="86"/>
+      <c r="H126" s="86"/>
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -3374,12 +3401,12 @@
       <c r="B127" s="26">
         <v>125</v>
       </c>
-      <c r="C127" s="78"/>
-      <c r="D127" s="78"/>
-      <c r="E127" s="78"/>
-      <c r="F127" s="78"/>
-      <c r="G127" s="78"/>
-      <c r="H127" s="78"/>
+      <c r="C127" s="86"/>
+      <c r="D127" s="86"/>
+      <c r="E127" s="86"/>
+      <c r="F127" s="86"/>
+      <c r="G127" s="86"/>
+      <c r="H127" s="86"/>
       <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3389,12 +3416,12 @@
       <c r="B128" s="26">
         <v>126</v>
       </c>
-      <c r="C128" s="78"/>
-      <c r="D128" s="78"/>
-      <c r="E128" s="78"/>
-      <c r="F128" s="78"/>
-      <c r="G128" s="78"/>
-      <c r="H128" s="78"/>
+      <c r="C128" s="86"/>
+      <c r="D128" s="86"/>
+      <c r="E128" s="86"/>
+      <c r="F128" s="86"/>
+      <c r="G128" s="86"/>
+      <c r="H128" s="86"/>
       <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -3404,12 +3431,12 @@
       <c r="B129" s="26">
         <v>127</v>
       </c>
-      <c r="C129" s="78"/>
-      <c r="D129" s="78"/>
-      <c r="E129" s="78"/>
-      <c r="F129" s="78"/>
-      <c r="G129" s="78"/>
-      <c r="H129" s="78"/>
+      <c r="C129" s="86"/>
+      <c r="D129" s="86"/>
+      <c r="E129" s="86"/>
+      <c r="F129" s="86"/>
+      <c r="G129" s="86"/>
+      <c r="H129" s="86"/>
       <c r="I129" s="1"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -3419,12 +3446,12 @@
       <c r="B130" s="26">
         <v>1</v>
       </c>
-      <c r="C130" s="78"/>
-      <c r="D130" s="78"/>
-      <c r="E130" s="78"/>
-      <c r="F130" s="78"/>
-      <c r="G130" s="78"/>
-      <c r="H130" s="78"/>
+      <c r="C130" s="86"/>
+      <c r="D130" s="86"/>
+      <c r="E130" s="86"/>
+      <c r="F130" s="86"/>
+      <c r="G130" s="86"/>
+      <c r="H130" s="86"/>
       <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -3434,12 +3461,12 @@
       <c r="B131" s="26">
         <v>2</v>
       </c>
-      <c r="C131" s="78"/>
-      <c r="D131" s="78"/>
-      <c r="E131" s="78"/>
-      <c r="F131" s="78"/>
-      <c r="G131" s="78"/>
-      <c r="H131" s="78"/>
+      <c r="C131" s="86"/>
+      <c r="D131" s="86"/>
+      <c r="E131" s="86"/>
+      <c r="F131" s="86"/>
+      <c r="G131" s="86"/>
+      <c r="H131" s="86"/>
       <c r="I131" s="1"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -3449,12 +3476,12 @@
       <c r="B132" s="26">
         <v>3</v>
       </c>
-      <c r="C132" s="78"/>
-      <c r="D132" s="78"/>
-      <c r="E132" s="78"/>
-      <c r="F132" s="78"/>
-      <c r="G132" s="78"/>
-      <c r="H132" s="78"/>
+      <c r="C132" s="86"/>
+      <c r="D132" s="86"/>
+      <c r="E132" s="86"/>
+      <c r="F132" s="86"/>
+      <c r="G132" s="86"/>
+      <c r="H132" s="86"/>
       <c r="I132" s="1"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -3464,12 +3491,12 @@
       <c r="B133" s="26">
         <v>4</v>
       </c>
-      <c r="C133" s="78"/>
-      <c r="D133" s="78"/>
-      <c r="E133" s="78"/>
-      <c r="F133" s="78"/>
-      <c r="G133" s="78"/>
-      <c r="H133" s="78"/>
+      <c r="C133" s="86"/>
+      <c r="D133" s="86"/>
+      <c r="E133" s="86"/>
+      <c r="F133" s="86"/>
+      <c r="G133" s="86"/>
+      <c r="H133" s="86"/>
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -3479,12 +3506,12 @@
       <c r="B134" s="26">
         <v>5</v>
       </c>
-      <c r="C134" s="78"/>
-      <c r="D134" s="78"/>
-      <c r="E134" s="78"/>
-      <c r="F134" s="78"/>
-      <c r="G134" s="78"/>
-      <c r="H134" s="78"/>
+      <c r="C134" s="86"/>
+      <c r="D134" s="86"/>
+      <c r="E134" s="86"/>
+      <c r="F134" s="86"/>
+      <c r="G134" s="86"/>
+      <c r="H134" s="86"/>
       <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -3494,12 +3521,12 @@
       <c r="B135" s="26">
         <v>6</v>
       </c>
-      <c r="C135" s="78"/>
-      <c r="D135" s="78"/>
-      <c r="E135" s="78"/>
-      <c r="F135" s="78"/>
-      <c r="G135" s="78"/>
-      <c r="H135" s="78"/>
+      <c r="C135" s="86"/>
+      <c r="D135" s="86"/>
+      <c r="E135" s="86"/>
+      <c r="F135" s="86"/>
+      <c r="G135" s="86"/>
+      <c r="H135" s="86"/>
       <c r="I135" s="1"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -3509,12 +3536,12 @@
       <c r="B136" s="26">
         <v>7</v>
       </c>
-      <c r="C136" s="78"/>
-      <c r="D136" s="78"/>
-      <c r="E136" s="78"/>
-      <c r="F136" s="78"/>
-      <c r="G136" s="78"/>
-      <c r="H136" s="78"/>
+      <c r="C136" s="86"/>
+      <c r="D136" s="86"/>
+      <c r="E136" s="86"/>
+      <c r="F136" s="86"/>
+      <c r="G136" s="86"/>
+      <c r="H136" s="86"/>
       <c r="I136" s="1"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -3524,12 +3551,12 @@
       <c r="B137" s="26">
         <v>8</v>
       </c>
-      <c r="C137" s="78"/>
-      <c r="D137" s="78"/>
-      <c r="E137" s="78"/>
-      <c r="F137" s="78"/>
-      <c r="G137" s="78"/>
-      <c r="H137" s="78"/>
+      <c r="C137" s="86"/>
+      <c r="D137" s="86"/>
+      <c r="E137" s="86"/>
+      <c r="F137" s="86"/>
+      <c r="G137" s="86"/>
+      <c r="H137" s="86"/>
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -3539,12 +3566,12 @@
       <c r="B138" s="26">
         <v>9</v>
       </c>
-      <c r="C138" s="78"/>
-      <c r="D138" s="78"/>
-      <c r="E138" s="78"/>
-      <c r="F138" s="78"/>
-      <c r="G138" s="78"/>
-      <c r="H138" s="78"/>
+      <c r="C138" s="86"/>
+      <c r="D138" s="86"/>
+      <c r="E138" s="86"/>
+      <c r="F138" s="86"/>
+      <c r="G138" s="86"/>
+      <c r="H138" s="86"/>
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -3554,12 +3581,12 @@
       <c r="B139" s="26">
         <v>10</v>
       </c>
-      <c r="C139" s="78"/>
-      <c r="D139" s="78"/>
-      <c r="E139" s="78"/>
-      <c r="F139" s="78"/>
-      <c r="G139" s="78"/>
-      <c r="H139" s="78"/>
+      <c r="C139" s="86"/>
+      <c r="D139" s="86"/>
+      <c r="E139" s="86"/>
+      <c r="F139" s="86"/>
+      <c r="G139" s="86"/>
+      <c r="H139" s="86"/>
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -3569,12 +3596,12 @@
       <c r="B140" s="26">
         <v>11</v>
       </c>
-      <c r="C140" s="78"/>
-      <c r="D140" s="78"/>
-      <c r="E140" s="78"/>
-      <c r="F140" s="78"/>
-      <c r="G140" s="78"/>
-      <c r="H140" s="78"/>
+      <c r="C140" s="86"/>
+      <c r="D140" s="86"/>
+      <c r="E140" s="86"/>
+      <c r="F140" s="86"/>
+      <c r="G140" s="86"/>
+      <c r="H140" s="86"/>
       <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -3584,12 +3611,12 @@
       <c r="B141" s="26">
         <v>12</v>
       </c>
-      <c r="C141" s="78"/>
-      <c r="D141" s="78"/>
-      <c r="E141" s="78"/>
-      <c r="F141" s="78"/>
-      <c r="G141" s="78"/>
-      <c r="H141" s="78"/>
+      <c r="C141" s="86"/>
+      <c r="D141" s="86"/>
+      <c r="E141" s="86"/>
+      <c r="F141" s="86"/>
+      <c r="G141" s="86"/>
+      <c r="H141" s="86"/>
       <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -3599,12 +3626,12 @@
       <c r="B142" s="26">
         <v>13</v>
       </c>
-      <c r="C142" s="78"/>
-      <c r="D142" s="78"/>
-      <c r="E142" s="78"/>
-      <c r="F142" s="78"/>
-      <c r="G142" s="78"/>
-      <c r="H142" s="78"/>
+      <c r="C142" s="86"/>
+      <c r="D142" s="86"/>
+      <c r="E142" s="86"/>
+      <c r="F142" s="86"/>
+      <c r="G142" s="86"/>
+      <c r="H142" s="86"/>
       <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -3614,12 +3641,12 @@
       <c r="B143" s="26">
         <v>14</v>
       </c>
-      <c r="C143" s="78"/>
-      <c r="D143" s="78"/>
-      <c r="E143" s="78"/>
-      <c r="F143" s="78"/>
-      <c r="G143" s="78"/>
-      <c r="H143" s="78"/>
+      <c r="C143" s="86"/>
+      <c r="D143" s="86"/>
+      <c r="E143" s="86"/>
+      <c r="F143" s="86"/>
+      <c r="G143" s="86"/>
+      <c r="H143" s="86"/>
       <c r="I143" s="1"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -3629,12 +3656,12 @@
       <c r="B144" s="26">
         <v>15</v>
       </c>
-      <c r="C144" s="78"/>
-      <c r="D144" s="78"/>
-      <c r="E144" s="78"/>
-      <c r="F144" s="78"/>
-      <c r="G144" s="78"/>
-      <c r="H144" s="78"/>
+      <c r="C144" s="86"/>
+      <c r="D144" s="86"/>
+      <c r="E144" s="86"/>
+      <c r="F144" s="86"/>
+      <c r="G144" s="86"/>
+      <c r="H144" s="86"/>
       <c r="I144" s="1"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -3644,12 +3671,12 @@
       <c r="B145" s="26">
         <v>16</v>
       </c>
-      <c r="C145" s="78"/>
-      <c r="D145" s="78"/>
-      <c r="E145" s="78"/>
-      <c r="F145" s="78"/>
-      <c r="G145" s="78"/>
-      <c r="H145" s="78"/>
+      <c r="C145" s="86"/>
+      <c r="D145" s="86"/>
+      <c r="E145" s="86"/>
+      <c r="F145" s="86"/>
+      <c r="G145" s="86"/>
+      <c r="H145" s="86"/>
       <c r="I145" s="1"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -3659,12 +3686,12 @@
       <c r="B146" s="26">
         <v>17</v>
       </c>
-      <c r="C146" s="78"/>
-      <c r="D146" s="78"/>
-      <c r="E146" s="78"/>
-      <c r="F146" s="78"/>
-      <c r="G146" s="78"/>
-      <c r="H146" s="78"/>
+      <c r="C146" s="86"/>
+      <c r="D146" s="86"/>
+      <c r="E146" s="86"/>
+      <c r="F146" s="86"/>
+      <c r="G146" s="86"/>
+      <c r="H146" s="86"/>
       <c r="I146" s="1"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -3674,12 +3701,12 @@
       <c r="B147" s="26">
         <v>18</v>
       </c>
-      <c r="C147" s="78"/>
-      <c r="D147" s="78"/>
-      <c r="E147" s="78"/>
-      <c r="F147" s="78"/>
-      <c r="G147" s="78"/>
-      <c r="H147" s="78"/>
+      <c r="C147" s="86"/>
+      <c r="D147" s="86"/>
+      <c r="E147" s="86"/>
+      <c r="F147" s="86"/>
+      <c r="G147" s="86"/>
+      <c r="H147" s="86"/>
       <c r="I147" s="1"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -3689,12 +3716,12 @@
       <c r="B148" s="26">
         <v>19</v>
       </c>
-      <c r="C148" s="78"/>
-      <c r="D148" s="78"/>
-      <c r="E148" s="78"/>
-      <c r="F148" s="78"/>
-      <c r="G148" s="78"/>
-      <c r="H148" s="78"/>
+      <c r="C148" s="86"/>
+      <c r="D148" s="86"/>
+      <c r="E148" s="86"/>
+      <c r="F148" s="86"/>
+      <c r="G148" s="86"/>
+      <c r="H148" s="86"/>
       <c r="I148" s="1"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -3704,12 +3731,12 @@
       <c r="B149" s="26">
         <v>20</v>
       </c>
-      <c r="C149" s="78"/>
-      <c r="D149" s="78"/>
-      <c r="E149" s="78"/>
-      <c r="F149" s="78"/>
-      <c r="G149" s="78"/>
-      <c r="H149" s="78"/>
+      <c r="C149" s="86"/>
+      <c r="D149" s="86"/>
+      <c r="E149" s="86"/>
+      <c r="F149" s="86"/>
+      <c r="G149" s="86"/>
+      <c r="H149" s="86"/>
       <c r="I149" s="1"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -3719,12 +3746,12 @@
       <c r="B150" s="26">
         <v>21</v>
       </c>
-      <c r="C150" s="78"/>
-      <c r="D150" s="78"/>
-      <c r="E150" s="78"/>
-      <c r="F150" s="78"/>
-      <c r="G150" s="78"/>
-      <c r="H150" s="78"/>
+      <c r="C150" s="86"/>
+      <c r="D150" s="86"/>
+      <c r="E150" s="86"/>
+      <c r="F150" s="86"/>
+      <c r="G150" s="86"/>
+      <c r="H150" s="86"/>
       <c r="I150" s="1"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -3734,12 +3761,12 @@
       <c r="B151" s="26">
         <v>22</v>
       </c>
-      <c r="C151" s="78"/>
-      <c r="D151" s="78"/>
-      <c r="E151" s="78"/>
-      <c r="F151" s="78"/>
-      <c r="G151" s="78"/>
-      <c r="H151" s="78"/>
+      <c r="C151" s="86"/>
+      <c r="D151" s="86"/>
+      <c r="E151" s="86"/>
+      <c r="F151" s="86"/>
+      <c r="G151" s="86"/>
+      <c r="H151" s="86"/>
       <c r="I151" s="1"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -3749,12 +3776,12 @@
       <c r="B152" s="26">
         <v>23</v>
       </c>
-      <c r="C152" s="78"/>
-      <c r="D152" s="78"/>
-      <c r="E152" s="78"/>
-      <c r="F152" s="78"/>
-      <c r="G152" s="78"/>
-      <c r="H152" s="78"/>
+      <c r="C152" s="86"/>
+      <c r="D152" s="86"/>
+      <c r="E152" s="86"/>
+      <c r="F152" s="86"/>
+      <c r="G152" s="86"/>
+      <c r="H152" s="86"/>
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -3764,12 +3791,12 @@
       <c r="B153" s="26">
         <v>24</v>
       </c>
-      <c r="C153" s="78"/>
-      <c r="D153" s="78"/>
-      <c r="E153" s="78"/>
-      <c r="F153" s="78"/>
-      <c r="G153" s="78"/>
-      <c r="H153" s="78"/>
+      <c r="C153" s="86"/>
+      <c r="D153" s="86"/>
+      <c r="E153" s="86"/>
+      <c r="F153" s="86"/>
+      <c r="G153" s="86"/>
+      <c r="H153" s="86"/>
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -3779,12 +3806,12 @@
       <c r="B154" s="26">
         <v>25</v>
       </c>
-      <c r="C154" s="78"/>
-      <c r="D154" s="78"/>
-      <c r="E154" s="78"/>
-      <c r="F154" s="78"/>
-      <c r="G154" s="78"/>
-      <c r="H154" s="78"/>
+      <c r="C154" s="86"/>
+      <c r="D154" s="86"/>
+      <c r="E154" s="86"/>
+      <c r="F154" s="86"/>
+      <c r="G154" s="86"/>
+      <c r="H154" s="86"/>
       <c r="I154" s="1"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -3794,12 +3821,12 @@
       <c r="B155" s="26">
         <v>26</v>
       </c>
-      <c r="C155" s="78"/>
-      <c r="D155" s="78"/>
-      <c r="E155" s="78"/>
-      <c r="F155" s="78"/>
-      <c r="G155" s="78"/>
-      <c r="H155" s="78"/>
+      <c r="C155" s="86"/>
+      <c r="D155" s="86"/>
+      <c r="E155" s="86"/>
+      <c r="F155" s="86"/>
+      <c r="G155" s="86"/>
+      <c r="H155" s="86"/>
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -3809,12 +3836,12 @@
       <c r="B156" s="26">
         <v>27</v>
       </c>
-      <c r="C156" s="78"/>
-      <c r="D156" s="78"/>
-      <c r="E156" s="78"/>
-      <c r="F156" s="78"/>
-      <c r="G156" s="78"/>
-      <c r="H156" s="78"/>
+      <c r="C156" s="86"/>
+      <c r="D156" s="86"/>
+      <c r="E156" s="86"/>
+      <c r="F156" s="86"/>
+      <c r="G156" s="86"/>
+      <c r="H156" s="86"/>
       <c r="I156" s="1"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -3824,12 +3851,12 @@
       <c r="B157" s="26">
         <v>28</v>
       </c>
-      <c r="C157" s="78"/>
-      <c r="D157" s="78"/>
-      <c r="E157" s="78"/>
-      <c r="F157" s="78"/>
-      <c r="G157" s="78"/>
-      <c r="H157" s="78"/>
+      <c r="C157" s="86"/>
+      <c r="D157" s="86"/>
+      <c r="E157" s="86"/>
+      <c r="F157" s="86"/>
+      <c r="G157" s="86"/>
+      <c r="H157" s="86"/>
       <c r="I157" s="1"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -3839,12 +3866,12 @@
       <c r="B158" s="26">
         <v>29</v>
       </c>
-      <c r="C158" s="78"/>
-      <c r="D158" s="78"/>
-      <c r="E158" s="78"/>
-      <c r="F158" s="78"/>
-      <c r="G158" s="78"/>
-      <c r="H158" s="78"/>
+      <c r="C158" s="86"/>
+      <c r="D158" s="86"/>
+      <c r="E158" s="86"/>
+      <c r="F158" s="86"/>
+      <c r="G158" s="86"/>
+      <c r="H158" s="86"/>
       <c r="I158" s="1"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -3854,12 +3881,12 @@
       <c r="B159" s="26">
         <v>30</v>
       </c>
-      <c r="C159" s="78"/>
-      <c r="D159" s="78"/>
-      <c r="E159" s="78"/>
-      <c r="F159" s="78"/>
-      <c r="G159" s="78"/>
-      <c r="H159" s="78"/>
+      <c r="C159" s="86"/>
+      <c r="D159" s="86"/>
+      <c r="E159" s="86"/>
+      <c r="F159" s="86"/>
+      <c r="G159" s="86"/>
+      <c r="H159" s="86"/>
       <c r="I159" s="1"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -3869,12 +3896,12 @@
       <c r="B160" s="26">
         <v>31</v>
       </c>
-      <c r="C160" s="78"/>
-      <c r="D160" s="78"/>
-      <c r="E160" s="78"/>
-      <c r="F160" s="78"/>
-      <c r="G160" s="78"/>
-      <c r="H160" s="78"/>
+      <c r="C160" s="86"/>
+      <c r="D160" s="86"/>
+      <c r="E160" s="86"/>
+      <c r="F160" s="86"/>
+      <c r="G160" s="86"/>
+      <c r="H160" s="86"/>
       <c r="I160" s="1"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -3884,12 +3911,12 @@
       <c r="B161" s="26">
         <v>32</v>
       </c>
-      <c r="C161" s="78"/>
-      <c r="D161" s="78"/>
-      <c r="E161" s="78"/>
-      <c r="F161" s="78"/>
-      <c r="G161" s="78"/>
-      <c r="H161" s="78"/>
+      <c r="C161" s="86"/>
+      <c r="D161" s="86"/>
+      <c r="E161" s="86"/>
+      <c r="F161" s="86"/>
+      <c r="G161" s="86"/>
+      <c r="H161" s="86"/>
       <c r="I161" s="1"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -3899,12 +3926,12 @@
       <c r="B162" s="26">
         <v>1</v>
       </c>
-      <c r="C162" s="78"/>
-      <c r="D162" s="78"/>
-      <c r="E162" s="78"/>
-      <c r="F162" s="78"/>
-      <c r="G162" s="78"/>
-      <c r="H162" s="78"/>
+      <c r="C162" s="86"/>
+      <c r="D162" s="86"/>
+      <c r="E162" s="86"/>
+      <c r="F162" s="86"/>
+      <c r="G162" s="86"/>
+      <c r="H162" s="86"/>
       <c r="I162" s="1"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -3914,12 +3941,12 @@
       <c r="B163" s="26">
         <v>2</v>
       </c>
-      <c r="C163" s="78"/>
-      <c r="D163" s="78"/>
-      <c r="E163" s="78"/>
-      <c r="F163" s="78"/>
-      <c r="G163" s="78"/>
-      <c r="H163" s="78"/>
+      <c r="C163" s="86"/>
+      <c r="D163" s="86"/>
+      <c r="E163" s="86"/>
+      <c r="F163" s="86"/>
+      <c r="G163" s="86"/>
+      <c r="H163" s="86"/>
       <c r="I163" s="1"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -3929,12 +3956,12 @@
       <c r="B164" s="26">
         <v>3</v>
       </c>
-      <c r="C164" s="78"/>
-      <c r="D164" s="78"/>
-      <c r="E164" s="78"/>
-      <c r="F164" s="78"/>
-      <c r="G164" s="78"/>
-      <c r="H164" s="78"/>
+      <c r="C164" s="86"/>
+      <c r="D164" s="86"/>
+      <c r="E164" s="86"/>
+      <c r="F164" s="86"/>
+      <c r="G164" s="86"/>
+      <c r="H164" s="86"/>
       <c r="I164" s="1"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -3944,12 +3971,12 @@
       <c r="B165" s="26">
         <v>4</v>
       </c>
-      <c r="C165" s="78"/>
-      <c r="D165" s="78"/>
-      <c r="E165" s="78"/>
-      <c r="F165" s="78"/>
-      <c r="G165" s="78"/>
-      <c r="H165" s="78"/>
+      <c r="C165" s="86"/>
+      <c r="D165" s="86"/>
+      <c r="E165" s="86"/>
+      <c r="F165" s="86"/>
+      <c r="G165" s="86"/>
+      <c r="H165" s="86"/>
       <c r="I165" s="1"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -3959,12 +3986,12 @@
       <c r="B166" s="26">
         <v>5</v>
       </c>
-      <c r="C166" s="78"/>
-      <c r="D166" s="78"/>
-      <c r="E166" s="78"/>
-      <c r="F166" s="78"/>
-      <c r="G166" s="78"/>
-      <c r="H166" s="78"/>
+      <c r="C166" s="86"/>
+      <c r="D166" s="86"/>
+      <c r="E166" s="86"/>
+      <c r="F166" s="86"/>
+      <c r="G166" s="86"/>
+      <c r="H166" s="86"/>
       <c r="I166" s="1"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -3974,12 +4001,12 @@
       <c r="B167" s="26">
         <v>6</v>
       </c>
-      <c r="C167" s="78"/>
-      <c r="D167" s="78"/>
-      <c r="E167" s="78"/>
-      <c r="F167" s="78"/>
-      <c r="G167" s="78"/>
-      <c r="H167" s="78"/>
+      <c r="C167" s="86"/>
+      <c r="D167" s="86"/>
+      <c r="E167" s="86"/>
+      <c r="F167" s="86"/>
+      <c r="G167" s="86"/>
+      <c r="H167" s="86"/>
       <c r="I167" s="1"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -3989,12 +4016,12 @@
       <c r="B168" s="26">
         <v>7</v>
       </c>
-      <c r="C168" s="78"/>
-      <c r="D168" s="78"/>
-      <c r="E168" s="78"/>
-      <c r="F168" s="78"/>
-      <c r="G168" s="78"/>
-      <c r="H168" s="78"/>
+      <c r="C168" s="86"/>
+      <c r="D168" s="86"/>
+      <c r="E168" s="86"/>
+      <c r="F168" s="86"/>
+      <c r="G168" s="86"/>
+      <c r="H168" s="86"/>
       <c r="I168" s="1"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -4004,12 +4031,12 @@
       <c r="B169" s="26">
         <v>8</v>
       </c>
-      <c r="C169" s="78"/>
-      <c r="D169" s="78"/>
-      <c r="E169" s="78"/>
-      <c r="F169" s="78"/>
-      <c r="G169" s="78"/>
-      <c r="H169" s="78"/>
+      <c r="C169" s="86"/>
+      <c r="D169" s="86"/>
+      <c r="E169" s="86"/>
+      <c r="F169" s="86"/>
+      <c r="G169" s="86"/>
+      <c r="H169" s="86"/>
       <c r="I169" s="1"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -4019,12 +4046,12 @@
       <c r="B170" s="26">
         <v>9</v>
       </c>
-      <c r="C170" s="78"/>
-      <c r="D170" s="78"/>
-      <c r="E170" s="78"/>
-      <c r="F170" s="78"/>
-      <c r="G170" s="78"/>
-      <c r="H170" s="78"/>
+      <c r="C170" s="86"/>
+      <c r="D170" s="86"/>
+      <c r="E170" s="86"/>
+      <c r="F170" s="86"/>
+      <c r="G170" s="86"/>
+      <c r="H170" s="86"/>
       <c r="I170" s="1"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -4034,12 +4061,12 @@
       <c r="B171" s="26">
         <v>10</v>
       </c>
-      <c r="C171" s="78"/>
-      <c r="D171" s="78"/>
-      <c r="E171" s="78"/>
-      <c r="F171" s="78"/>
-      <c r="G171" s="78"/>
-      <c r="H171" s="78"/>
+      <c r="C171" s="86"/>
+      <c r="D171" s="86"/>
+      <c r="E171" s="86"/>
+      <c r="F171" s="86"/>
+      <c r="G171" s="86"/>
+      <c r="H171" s="86"/>
       <c r="I171" s="1"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -4049,12 +4076,12 @@
       <c r="B172" s="26">
         <v>11</v>
       </c>
-      <c r="C172" s="78"/>
-      <c r="D172" s="78"/>
-      <c r="E172" s="78"/>
-      <c r="F172" s="78"/>
-      <c r="G172" s="78"/>
-      <c r="H172" s="78"/>
+      <c r="C172" s="86"/>
+      <c r="D172" s="86"/>
+      <c r="E172" s="86"/>
+      <c r="F172" s="86"/>
+      <c r="G172" s="86"/>
+      <c r="H172" s="86"/>
       <c r="I172" s="1"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -4064,12 +4091,12 @@
       <c r="B173" s="26">
         <v>12</v>
       </c>
-      <c r="C173" s="78"/>
-      <c r="D173" s="78"/>
-      <c r="E173" s="78"/>
-      <c r="F173" s="78"/>
-      <c r="G173" s="78"/>
-      <c r="H173" s="78"/>
+      <c r="C173" s="86"/>
+      <c r="D173" s="86"/>
+      <c r="E173" s="86"/>
+      <c r="F173" s="86"/>
+      <c r="G173" s="86"/>
+      <c r="H173" s="86"/>
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -4079,12 +4106,12 @@
       <c r="B174" s="26">
         <v>13</v>
       </c>
-      <c r="C174" s="78"/>
-      <c r="D174" s="78"/>
-      <c r="E174" s="78"/>
-      <c r="F174" s="78"/>
-      <c r="G174" s="78"/>
-      <c r="H174" s="78"/>
+      <c r="C174" s="86"/>
+      <c r="D174" s="86"/>
+      <c r="E174" s="86"/>
+      <c r="F174" s="86"/>
+      <c r="G174" s="86"/>
+      <c r="H174" s="86"/>
       <c r="I174" s="1"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -4094,12 +4121,12 @@
       <c r="B175" s="26">
         <v>14</v>
       </c>
-      <c r="C175" s="78"/>
-      <c r="D175" s="78"/>
-      <c r="E175" s="78"/>
-      <c r="F175" s="78"/>
-      <c r="G175" s="78"/>
-      <c r="H175" s="78"/>
+      <c r="C175" s="86"/>
+      <c r="D175" s="86"/>
+      <c r="E175" s="86"/>
+      <c r="F175" s="86"/>
+      <c r="G175" s="86"/>
+      <c r="H175" s="86"/>
       <c r="I175" s="1"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -4109,12 +4136,12 @@
       <c r="B176" s="26">
         <v>15</v>
       </c>
-      <c r="C176" s="78"/>
-      <c r="D176" s="78"/>
-      <c r="E176" s="78"/>
-      <c r="F176" s="78"/>
-      <c r="G176" s="78"/>
-      <c r="H176" s="78"/>
+      <c r="C176" s="86"/>
+      <c r="D176" s="86"/>
+      <c r="E176" s="86"/>
+      <c r="F176" s="86"/>
+      <c r="G176" s="86"/>
+      <c r="H176" s="86"/>
       <c r="I176" s="1"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -4124,12 +4151,12 @@
       <c r="B177" s="26">
         <v>16</v>
       </c>
-      <c r="C177" s="78"/>
-      <c r="D177" s="78"/>
-      <c r="E177" s="78"/>
-      <c r="F177" s="78"/>
-      <c r="G177" s="78"/>
-      <c r="H177" s="78"/>
+      <c r="C177" s="86"/>
+      <c r="D177" s="86"/>
+      <c r="E177" s="86"/>
+      <c r="F177" s="86"/>
+      <c r="G177" s="86"/>
+      <c r="H177" s="86"/>
       <c r="I177" s="1"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -4139,12 +4166,12 @@
       <c r="B178" s="26">
         <v>1</v>
       </c>
-      <c r="C178" s="78"/>
-      <c r="D178" s="78"/>
-      <c r="E178" s="78"/>
-      <c r="F178" s="78"/>
-      <c r="G178" s="78"/>
-      <c r="H178" s="78"/>
+      <c r="C178" s="86"/>
+      <c r="D178" s="86"/>
+      <c r="E178" s="86"/>
+      <c r="F178" s="86"/>
+      <c r="G178" s="86"/>
+      <c r="H178" s="86"/>
       <c r="I178" s="1"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -4154,12 +4181,12 @@
       <c r="B179" s="26">
         <v>2</v>
       </c>
-      <c r="C179" s="78"/>
-      <c r="D179" s="78"/>
-      <c r="E179" s="78"/>
-      <c r="F179" s="78"/>
-      <c r="G179" s="78"/>
-      <c r="H179" s="78"/>
+      <c r="C179" s="86"/>
+      <c r="D179" s="86"/>
+      <c r="E179" s="86"/>
+      <c r="F179" s="86"/>
+      <c r="G179" s="86"/>
+      <c r="H179" s="86"/>
       <c r="I179" s="1"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -4169,12 +4196,12 @@
       <c r="B180" s="26">
         <v>3</v>
       </c>
-      <c r="C180" s="78"/>
-      <c r="D180" s="78"/>
-      <c r="E180" s="78"/>
-      <c r="F180" s="78"/>
-      <c r="G180" s="78"/>
-      <c r="H180" s="78"/>
+      <c r="C180" s="86"/>
+      <c r="D180" s="86"/>
+      <c r="E180" s="86"/>
+      <c r="F180" s="86"/>
+      <c r="G180" s="86"/>
+      <c r="H180" s="86"/>
       <c r="I180" s="1"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -4184,12 +4211,12 @@
       <c r="B181" s="26">
         <v>4</v>
       </c>
-      <c r="C181" s="78"/>
-      <c r="D181" s="78"/>
-      <c r="E181" s="78"/>
-      <c r="F181" s="78"/>
-      <c r="G181" s="78"/>
-      <c r="H181" s="78"/>
+      <c r="C181" s="86"/>
+      <c r="D181" s="86"/>
+      <c r="E181" s="86"/>
+      <c r="F181" s="86"/>
+      <c r="G181" s="86"/>
+      <c r="H181" s="86"/>
       <c r="I181" s="1"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -4199,12 +4226,12 @@
       <c r="B182" s="26">
         <v>5</v>
       </c>
-      <c r="C182" s="78"/>
-      <c r="D182" s="78"/>
-      <c r="E182" s="78"/>
-      <c r="F182" s="78"/>
-      <c r="G182" s="78"/>
-      <c r="H182" s="78"/>
+      <c r="C182" s="86"/>
+      <c r="D182" s="86"/>
+      <c r="E182" s="86"/>
+      <c r="F182" s="86"/>
+      <c r="G182" s="86"/>
+      <c r="H182" s="86"/>
       <c r="I182" s="1"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -4214,12 +4241,12 @@
       <c r="B183" s="26">
         <v>6</v>
       </c>
-      <c r="C183" s="78"/>
-      <c r="D183" s="78"/>
-      <c r="E183" s="78"/>
-      <c r="F183" s="78"/>
-      <c r="G183" s="78"/>
-      <c r="H183" s="78"/>
+      <c r="C183" s="86"/>
+      <c r="D183" s="86"/>
+      <c r="E183" s="86"/>
+      <c r="F183" s="86"/>
+      <c r="G183" s="86"/>
+      <c r="H183" s="86"/>
       <c r="I183" s="1"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -4229,12 +4256,12 @@
       <c r="B184" s="26">
         <v>7</v>
       </c>
-      <c r="C184" s="78"/>
-      <c r="D184" s="78"/>
-      <c r="E184" s="78"/>
-      <c r="F184" s="78"/>
-      <c r="G184" s="78"/>
-      <c r="H184" s="78"/>
+      <c r="C184" s="86"/>
+      <c r="D184" s="86"/>
+      <c r="E184" s="86"/>
+      <c r="F184" s="86"/>
+      <c r="G184" s="86"/>
+      <c r="H184" s="86"/>
       <c r="I184" s="1"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -4244,12 +4271,12 @@
       <c r="B185" s="26">
         <v>8</v>
       </c>
-      <c r="C185" s="78"/>
-      <c r="D185" s="78"/>
-      <c r="E185" s="78"/>
-      <c r="F185" s="78"/>
-      <c r="G185" s="78"/>
-      <c r="H185" s="78"/>
+      <c r="C185" s="86"/>
+      <c r="D185" s="86"/>
+      <c r="E185" s="86"/>
+      <c r="F185" s="86"/>
+      <c r="G185" s="86"/>
+      <c r="H185" s="86"/>
       <c r="I185" s="1"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -4259,12 +4286,12 @@
       <c r="B186" s="26">
         <v>1</v>
       </c>
-      <c r="C186" s="78"/>
-      <c r="D186" s="78"/>
-      <c r="E186" s="78"/>
-      <c r="F186" s="78"/>
-      <c r="G186" s="78"/>
-      <c r="H186" s="78"/>
+      <c r="C186" s="86"/>
+      <c r="D186" s="86"/>
+      <c r="E186" s="86"/>
+      <c r="F186" s="86"/>
+      <c r="G186" s="86"/>
+      <c r="H186" s="86"/>
       <c r="I186" s="1"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -4274,12 +4301,12 @@
       <c r="B187" s="26">
         <v>2</v>
       </c>
-      <c r="C187" s="78"/>
-      <c r="D187" s="78"/>
-      <c r="E187" s="78"/>
-      <c r="F187" s="78"/>
-      <c r="G187" s="78"/>
-      <c r="H187" s="78"/>
+      <c r="C187" s="86"/>
+      <c r="D187" s="86"/>
+      <c r="E187" s="86"/>
+      <c r="F187" s="86"/>
+      <c r="G187" s="86"/>
+      <c r="H187" s="86"/>
       <c r="I187" s="1"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -4289,12 +4316,12 @@
       <c r="B188" s="26">
         <v>3</v>
       </c>
-      <c r="C188" s="78"/>
-      <c r="D188" s="78"/>
-      <c r="E188" s="78"/>
-      <c r="F188" s="78"/>
-      <c r="G188" s="78"/>
-      <c r="H188" s="78"/>
+      <c r="C188" s="86"/>
+      <c r="D188" s="86"/>
+      <c r="E188" s="86"/>
+      <c r="F188" s="86"/>
+      <c r="G188" s="86"/>
+      <c r="H188" s="86"/>
       <c r="I188" s="1"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -4304,12 +4331,12 @@
       <c r="B189" s="26">
         <v>4</v>
       </c>
-      <c r="C189" s="78"/>
-      <c r="D189" s="78"/>
-      <c r="E189" s="78"/>
-      <c r="F189" s="78"/>
-      <c r="G189" s="78"/>
-      <c r="H189" s="78"/>
+      <c r="C189" s="86"/>
+      <c r="D189" s="86"/>
+      <c r="E189" s="86"/>
+      <c r="F189" s="86"/>
+      <c r="G189" s="86"/>
+      <c r="H189" s="86"/>
       <c r="I189" s="1"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -4319,12 +4346,12 @@
       <c r="B190" s="26">
         <v>5</v>
       </c>
-      <c r="C190" s="78"/>
-      <c r="D190" s="78"/>
-      <c r="E190" s="78"/>
-      <c r="F190" s="78"/>
-      <c r="G190" s="78"/>
-      <c r="H190" s="78"/>
+      <c r="C190" s="86"/>
+      <c r="D190" s="86"/>
+      <c r="E190" s="86"/>
+      <c r="F190" s="86"/>
+      <c r="G190" s="86"/>
+      <c r="H190" s="86"/>
       <c r="I190" s="1"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -4334,12 +4361,12 @@
       <c r="B191" s="26">
         <v>6</v>
       </c>
-      <c r="C191" s="78"/>
-      <c r="D191" s="78"/>
-      <c r="E191" s="78"/>
-      <c r="F191" s="78"/>
-      <c r="G191" s="78"/>
-      <c r="H191" s="78"/>
+      <c r="C191" s="86"/>
+      <c r="D191" s="86"/>
+      <c r="E191" s="86"/>
+      <c r="F191" s="86"/>
+      <c r="G191" s="86"/>
+      <c r="H191" s="86"/>
       <c r="I191" s="1"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -4349,12 +4376,12 @@
       <c r="B192" s="26">
         <v>7</v>
       </c>
-      <c r="C192" s="78"/>
-      <c r="D192" s="78"/>
-      <c r="E192" s="78"/>
-      <c r="F192" s="78"/>
-      <c r="G192" s="78"/>
-      <c r="H192" s="78"/>
+      <c r="C192" s="86"/>
+      <c r="D192" s="86"/>
+      <c r="E192" s="86"/>
+      <c r="F192" s="86"/>
+      <c r="G192" s="86"/>
+      <c r="H192" s="86"/>
       <c r="I192" s="1"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -4364,12 +4391,12 @@
       <c r="B193" s="26">
         <v>8</v>
       </c>
-      <c r="C193" s="78"/>
-      <c r="D193" s="78"/>
-      <c r="E193" s="78"/>
-      <c r="F193" s="78"/>
-      <c r="G193" s="78"/>
-      <c r="H193" s="78"/>
+      <c r="C193" s="86"/>
+      <c r="D193" s="86"/>
+      <c r="E193" s="86"/>
+      <c r="F193" s="86"/>
+      <c r="G193" s="86"/>
+      <c r="H193" s="86"/>
       <c r="I193" s="1"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -4379,12 +4406,12 @@
       <c r="B194" s="26">
         <v>1</v>
       </c>
-      <c r="C194" s="78"/>
-      <c r="D194" s="78"/>
-      <c r="E194" s="78"/>
-      <c r="F194" s="78"/>
-      <c r="G194" s="78"/>
-      <c r="H194" s="78"/>
+      <c r="C194" s="86"/>
+      <c r="D194" s="86"/>
+      <c r="E194" s="86"/>
+      <c r="F194" s="86"/>
+      <c r="G194" s="86"/>
+      <c r="H194" s="86"/>
       <c r="I194" s="1"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -4394,12 +4421,12 @@
       <c r="B195" s="26">
         <v>2</v>
       </c>
-      <c r="C195" s="78"/>
-      <c r="D195" s="78"/>
-      <c r="E195" s="78"/>
-      <c r="F195" s="78"/>
-      <c r="G195" s="78"/>
-      <c r="H195" s="78"/>
+      <c r="C195" s="86"/>
+      <c r="D195" s="86"/>
+      <c r="E195" s="86"/>
+      <c r="F195" s="86"/>
+      <c r="G195" s="86"/>
+      <c r="H195" s="86"/>
       <c r="I195" s="1"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -4409,12 +4436,12 @@
       <c r="B196" s="26">
         <v>3</v>
       </c>
-      <c r="C196" s="78"/>
-      <c r="D196" s="78"/>
-      <c r="E196" s="78"/>
-      <c r="F196" s="78"/>
-      <c r="G196" s="78"/>
-      <c r="H196" s="78"/>
+      <c r="C196" s="86"/>
+      <c r="D196" s="86"/>
+      <c r="E196" s="86"/>
+      <c r="F196" s="86"/>
+      <c r="G196" s="86"/>
+      <c r="H196" s="86"/>
       <c r="I196" s="1"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -4424,12 +4451,12 @@
       <c r="B197" s="26">
         <v>4</v>
       </c>
-      <c r="C197" s="78"/>
-      <c r="D197" s="78"/>
-      <c r="E197" s="78"/>
-      <c r="F197" s="78"/>
-      <c r="G197" s="78"/>
-      <c r="H197" s="78"/>
+      <c r="C197" s="86"/>
+      <c r="D197" s="86"/>
+      <c r="E197" s="86"/>
+      <c r="F197" s="86"/>
+      <c r="G197" s="86"/>
+      <c r="H197" s="86"/>
       <c r="I197" s="1"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -4439,12 +4466,12 @@
       <c r="B198" s="26">
         <v>5</v>
       </c>
-      <c r="C198" s="78"/>
-      <c r="D198" s="78"/>
-      <c r="E198" s="78"/>
-      <c r="F198" s="78"/>
-      <c r="G198" s="78"/>
-      <c r="H198" s="78"/>
+      <c r="C198" s="86"/>
+      <c r="D198" s="86"/>
+      <c r="E198" s="86"/>
+      <c r="F198" s="86"/>
+      <c r="G198" s="86"/>
+      <c r="H198" s="86"/>
       <c r="I198" s="1"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -4454,12 +4481,12 @@
       <c r="B199" s="26">
         <v>6</v>
       </c>
-      <c r="C199" s="78"/>
-      <c r="D199" s="78"/>
-      <c r="E199" s="78"/>
-      <c r="F199" s="78"/>
-      <c r="G199" s="78"/>
-      <c r="H199" s="78"/>
+      <c r="C199" s="86"/>
+      <c r="D199" s="86"/>
+      <c r="E199" s="86"/>
+      <c r="F199" s="86"/>
+      <c r="G199" s="86"/>
+      <c r="H199" s="86"/>
       <c r="I199" s="1"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -4469,12 +4496,12 @@
       <c r="B200" s="26">
         <v>7</v>
       </c>
-      <c r="C200" s="78"/>
-      <c r="D200" s="78"/>
-      <c r="E200" s="78"/>
-      <c r="F200" s="78"/>
-      <c r="G200" s="78"/>
-      <c r="H200" s="78"/>
+      <c r="C200" s="86"/>
+      <c r="D200" s="86"/>
+      <c r="E200" s="86"/>
+      <c r="F200" s="86"/>
+      <c r="G200" s="86"/>
+      <c r="H200" s="86"/>
       <c r="I200" s="1"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -4484,12 +4511,12 @@
       <c r="B201" s="26">
         <v>8</v>
       </c>
-      <c r="C201" s="78"/>
-      <c r="D201" s="78"/>
-      <c r="E201" s="78"/>
-      <c r="F201" s="78"/>
-      <c r="G201" s="78"/>
-      <c r="H201" s="78"/>
+      <c r="C201" s="86"/>
+      <c r="D201" s="86"/>
+      <c r="E201" s="86"/>
+      <c r="F201" s="86"/>
+      <c r="G201" s="86"/>
+      <c r="H201" s="86"/>
       <c r="I201" s="1"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -4499,12 +4526,12 @@
       <c r="B202" s="26">
         <v>1</v>
       </c>
-      <c r="C202" s="78"/>
-      <c r="D202" s="78"/>
-      <c r="E202" s="78"/>
-      <c r="F202" s="78"/>
-      <c r="G202" s="78"/>
-      <c r="H202" s="78"/>
+      <c r="C202" s="86"/>
+      <c r="D202" s="86"/>
+      <c r="E202" s="86"/>
+      <c r="F202" s="86"/>
+      <c r="G202" s="86"/>
+      <c r="H202" s="86"/>
       <c r="I202" s="1"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -4514,12 +4541,12 @@
       <c r="B203" s="26">
         <v>2</v>
       </c>
-      <c r="C203" s="78"/>
-      <c r="D203" s="78"/>
-      <c r="E203" s="78"/>
-      <c r="F203" s="78"/>
-      <c r="G203" s="78"/>
-      <c r="H203" s="78"/>
+      <c r="C203" s="86"/>
+      <c r="D203" s="86"/>
+      <c r="E203" s="86"/>
+      <c r="F203" s="86"/>
+      <c r="G203" s="86"/>
+      <c r="H203" s="86"/>
       <c r="I203" s="1"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -4529,12 +4556,12 @@
       <c r="B204" s="26">
         <v>3</v>
       </c>
-      <c r="C204" s="78"/>
-      <c r="D204" s="78"/>
-      <c r="E204" s="78"/>
-      <c r="F204" s="78"/>
-      <c r="G204" s="78"/>
-      <c r="H204" s="78"/>
+      <c r="C204" s="86"/>
+      <c r="D204" s="86"/>
+      <c r="E204" s="86"/>
+      <c r="F204" s="86"/>
+      <c r="G204" s="86"/>
+      <c r="H204" s="86"/>
       <c r="I204" s="1"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -4544,634 +4571,643 @@
       <c r="B205" s="26">
         <v>4</v>
       </c>
-      <c r="C205" s="78"/>
-      <c r="D205" s="78"/>
-      <c r="E205" s="78"/>
-      <c r="F205" s="78"/>
-      <c r="G205" s="78"/>
-      <c r="H205" s="78"/>
+      <c r="C205" s="86"/>
+      <c r="D205" s="86"/>
+      <c r="E205" s="86"/>
+      <c r="F205" s="86"/>
+      <c r="G205" s="86"/>
+      <c r="H205" s="86"/>
       <c r="I205" s="1"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="26"/>
       <c r="B206" s="26"/>
       <c r="C206" s="28"/>
-      <c r="D206" s="78"/>
-      <c r="E206" s="78"/>
-      <c r="F206" s="78"/>
-      <c r="G206" s="78"/>
-      <c r="H206" s="78"/>
+      <c r="D206" s="86"/>
+      <c r="E206" s="86"/>
+      <c r="F206" s="86"/>
+      <c r="G206" s="86"/>
+      <c r="H206" s="86"/>
       <c r="I206" s="1"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="26"/>
       <c r="B207" s="26"/>
       <c r="C207" s="28"/>
-      <c r="D207" s="78"/>
-      <c r="E207" s="78"/>
-      <c r="F207" s="78"/>
-      <c r="G207" s="78"/>
-      <c r="H207" s="78"/>
+      <c r="D207" s="86"/>
+      <c r="E207" s="86"/>
+      <c r="F207" s="86"/>
+      <c r="G207" s="86"/>
+      <c r="H207" s="86"/>
       <c r="I207" s="1"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="26"/>
       <c r="B208" s="26"/>
       <c r="C208" s="28"/>
-      <c r="D208" s="78"/>
-      <c r="E208" s="78"/>
-      <c r="F208" s="78"/>
-      <c r="G208" s="78"/>
-      <c r="H208" s="78"/>
+      <c r="D208" s="86"/>
+      <c r="E208" s="86"/>
+      <c r="F208" s="86"/>
+      <c r="G208" s="86"/>
+      <c r="H208" s="86"/>
       <c r="I208" s="1"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="26"/>
       <c r="B209" s="26"/>
       <c r="C209" s="28"/>
-      <c r="D209" s="78"/>
-      <c r="E209" s="78"/>
-      <c r="F209" s="78"/>
-      <c r="G209" s="78"/>
-      <c r="H209" s="78"/>
+      <c r="D209" s="86"/>
+      <c r="E209" s="86"/>
+      <c r="F209" s="86"/>
+      <c r="G209" s="86"/>
+      <c r="H209" s="86"/>
       <c r="I209" s="1"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="26"/>
       <c r="B210" s="26"/>
-      <c r="C210" s="78"/>
-      <c r="D210" s="78"/>
-      <c r="E210" s="78"/>
-      <c r="F210" s="78"/>
-      <c r="G210" s="78"/>
-      <c r="H210" s="78"/>
+      <c r="C210" s="86"/>
+      <c r="D210" s="86"/>
+      <c r="E210" s="86"/>
+      <c r="F210" s="86"/>
+      <c r="G210" s="86"/>
+      <c r="H210" s="86"/>
       <c r="I210" s="1"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="26"/>
       <c r="B211" s="26"/>
-      <c r="C211" s="78"/>
-      <c r="D211" s="78"/>
-      <c r="E211" s="78"/>
-      <c r="F211" s="78"/>
-      <c r="G211" s="78"/>
-      <c r="H211" s="78"/>
+      <c r="C211" s="86"/>
+      <c r="D211" s="86"/>
+      <c r="E211" s="86"/>
+      <c r="F211" s="86"/>
+      <c r="G211" s="86"/>
+      <c r="H211" s="86"/>
       <c r="I211" s="1"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="26"/>
       <c r="B212" s="26"/>
-      <c r="C212" s="78"/>
-      <c r="D212" s="78"/>
-      <c r="E212" s="78"/>
-      <c r="F212" s="78"/>
-      <c r="G212" s="78"/>
-      <c r="H212" s="78"/>
+      <c r="C212" s="86"/>
+      <c r="D212" s="86"/>
+      <c r="E212" s="86"/>
+      <c r="F212" s="86"/>
+      <c r="G212" s="86"/>
+      <c r="H212" s="86"/>
       <c r="I212" s="1"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="26"/>
       <c r="B213" s="26"/>
-      <c r="C213" s="78"/>
-      <c r="D213" s="78"/>
-      <c r="E213" s="78"/>
-      <c r="F213" s="78"/>
-      <c r="G213" s="78"/>
-      <c r="H213" s="78"/>
+      <c r="C213" s="86"/>
+      <c r="D213" s="86"/>
+      <c r="E213" s="86"/>
+      <c r="F213" s="86"/>
+      <c r="G213" s="86"/>
+      <c r="H213" s="86"/>
       <c r="I213" s="1"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="26"/>
       <c r="B214" s="26"/>
-      <c r="C214" s="78"/>
-      <c r="D214" s="78"/>
-      <c r="E214" s="78"/>
-      <c r="F214" s="78"/>
-      <c r="G214" s="78"/>
-      <c r="H214" s="78"/>
+      <c r="C214" s="86"/>
+      <c r="D214" s="86"/>
+      <c r="E214" s="86"/>
+      <c r="F214" s="86"/>
+      <c r="G214" s="86"/>
+      <c r="H214" s="86"/>
       <c r="I214" s="1"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="26"/>
       <c r="B215" s="26"/>
-      <c r="C215" s="78"/>
-      <c r="D215" s="78"/>
-      <c r="E215" s="78"/>
-      <c r="F215" s="78"/>
-      <c r="G215" s="78"/>
-      <c r="H215" s="78"/>
+      <c r="C215" s="86"/>
+      <c r="D215" s="86"/>
+      <c r="E215" s="86"/>
+      <c r="F215" s="86"/>
+      <c r="G215" s="86"/>
+      <c r="H215" s="86"/>
       <c r="I215" s="1"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="26"/>
       <c r="B216" s="26"/>
-      <c r="C216" s="78"/>
-      <c r="D216" s="78"/>
-      <c r="E216" s="78"/>
-      <c r="F216" s="78"/>
-      <c r="G216" s="78"/>
-      <c r="H216" s="78"/>
+      <c r="C216" s="86"/>
+      <c r="D216" s="86"/>
+      <c r="E216" s="86"/>
+      <c r="F216" s="86"/>
+      <c r="G216" s="86"/>
+      <c r="H216" s="86"/>
       <c r="I216" s="1"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="26"/>
       <c r="B217" s="26"/>
-      <c r="C217" s="78"/>
-      <c r="D217" s="78"/>
-      <c r="E217" s="78"/>
-      <c r="F217" s="78"/>
-      <c r="G217" s="78"/>
-      <c r="H217" s="78"/>
+      <c r="C217" s="86"/>
+      <c r="D217" s="86"/>
+      <c r="E217" s="86"/>
+      <c r="F217" s="86"/>
+      <c r="G217" s="86"/>
+      <c r="H217" s="86"/>
       <c r="I217" s="1"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="26"/>
       <c r="B218" s="26"/>
-      <c r="C218" s="78"/>
-      <c r="D218" s="78"/>
-      <c r="E218" s="78"/>
-      <c r="F218" s="78"/>
-      <c r="G218" s="78"/>
-      <c r="H218" s="78"/>
+      <c r="C218" s="86"/>
+      <c r="D218" s="86"/>
+      <c r="E218" s="86"/>
+      <c r="F218" s="86"/>
+      <c r="G218" s="86"/>
+      <c r="H218" s="86"/>
       <c r="I218" s="1"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="26"/>
       <c r="B219" s="26"/>
-      <c r="C219" s="78"/>
-      <c r="D219" s="78"/>
-      <c r="E219" s="78"/>
-      <c r="F219" s="78"/>
-      <c r="G219" s="78"/>
-      <c r="H219" s="78"/>
+      <c r="C219" s="86"/>
+      <c r="D219" s="86"/>
+      <c r="E219" s="86"/>
+      <c r="F219" s="86"/>
+      <c r="G219" s="86"/>
+      <c r="H219" s="86"/>
       <c r="I219" s="1"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="26"/>
       <c r="B220" s="26"/>
-      <c r="C220" s="78"/>
-      <c r="D220" s="78"/>
-      <c r="E220" s="78"/>
-      <c r="F220" s="78"/>
-      <c r="G220" s="78"/>
-      <c r="H220" s="78"/>
+      <c r="C220" s="86"/>
+      <c r="D220" s="86"/>
+      <c r="E220" s="86"/>
+      <c r="F220" s="86"/>
+      <c r="G220" s="86"/>
+      <c r="H220" s="86"/>
       <c r="I220" s="1"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="26"/>
       <c r="B221" s="26"/>
-      <c r="C221" s="78"/>
-      <c r="D221" s="78"/>
-      <c r="E221" s="78"/>
-      <c r="F221" s="78"/>
-      <c r="G221" s="78"/>
-      <c r="H221" s="78"/>
+      <c r="C221" s="86"/>
+      <c r="D221" s="86"/>
+      <c r="E221" s="86"/>
+      <c r="F221" s="86"/>
+      <c r="G221" s="86"/>
+      <c r="H221" s="86"/>
       <c r="I221" s="1"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="26"/>
       <c r="B222" s="26"/>
-      <c r="C222" s="78"/>
-      <c r="D222" s="78"/>
-      <c r="E222" s="78"/>
-      <c r="F222" s="78"/>
-      <c r="G222" s="78"/>
-      <c r="H222" s="78"/>
+      <c r="C222" s="86"/>
+      <c r="D222" s="86"/>
+      <c r="E222" s="86"/>
+      <c r="F222" s="86"/>
+      <c r="G222" s="86"/>
+      <c r="H222" s="86"/>
       <c r="I222" s="1"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="26"/>
       <c r="B223" s="26"/>
-      <c r="C223" s="78"/>
-      <c r="D223" s="78"/>
-      <c r="E223" s="78"/>
-      <c r="F223" s="78"/>
-      <c r="G223" s="78"/>
-      <c r="H223" s="78"/>
+      <c r="C223" s="86"/>
+      <c r="D223" s="86"/>
+      <c r="E223" s="86"/>
+      <c r="F223" s="86"/>
+      <c r="G223" s="86"/>
+      <c r="H223" s="86"/>
       <c r="I223" s="1"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="26"/>
       <c r="B224" s="26"/>
-      <c r="C224" s="78"/>
-      <c r="D224" s="78"/>
-      <c r="E224" s="78"/>
-      <c r="F224" s="78"/>
-      <c r="G224" s="78"/>
-      <c r="H224" s="78"/>
+      <c r="C224" s="86"/>
+      <c r="D224" s="86"/>
+      <c r="E224" s="86"/>
+      <c r="F224" s="86"/>
+      <c r="G224" s="86"/>
+      <c r="H224" s="86"/>
       <c r="I224" s="1"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="26"/>
       <c r="B225" s="26"/>
-      <c r="C225" s="78"/>
-      <c r="D225" s="78"/>
-      <c r="E225" s="78"/>
-      <c r="F225" s="78"/>
-      <c r="G225" s="78"/>
-      <c r="H225" s="78"/>
+      <c r="C225" s="86"/>
+      <c r="D225" s="86"/>
+      <c r="E225" s="86"/>
+      <c r="F225" s="86"/>
+      <c r="G225" s="86"/>
+      <c r="H225" s="86"/>
       <c r="I225" s="1"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="26"/>
       <c r="B226" s="26"/>
-      <c r="C226" s="78"/>
-      <c r="D226" s="78"/>
-      <c r="E226" s="78"/>
-      <c r="F226" s="78"/>
-      <c r="G226" s="78"/>
-      <c r="H226" s="78"/>
+      <c r="C226" s="86"/>
+      <c r="D226" s="86"/>
+      <c r="E226" s="86"/>
+      <c r="F226" s="86"/>
+      <c r="G226" s="86"/>
+      <c r="H226" s="86"/>
       <c r="I226" s="1"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="26"/>
       <c r="B227" s="26"/>
-      <c r="C227" s="78"/>
-      <c r="D227" s="78"/>
-      <c r="E227" s="78"/>
-      <c r="F227" s="78"/>
-      <c r="G227" s="78"/>
-      <c r="H227" s="78"/>
+      <c r="C227" s="86"/>
+      <c r="D227" s="86"/>
+      <c r="E227" s="86"/>
+      <c r="F227" s="86"/>
+      <c r="G227" s="86"/>
+      <c r="H227" s="86"/>
       <c r="I227" s="1"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="26"/>
       <c r="B228" s="26"/>
-      <c r="C228" s="78"/>
-      <c r="D228" s="78"/>
-      <c r="E228" s="78"/>
-      <c r="F228" s="78"/>
-      <c r="G228" s="78"/>
-      <c r="H228" s="78"/>
+      <c r="C228" s="86"/>
+      <c r="D228" s="86"/>
+      <c r="E228" s="86"/>
+      <c r="F228" s="86"/>
+      <c r="G228" s="86"/>
+      <c r="H228" s="86"/>
       <c r="I228" s="1"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="26"/>
       <c r="B229" s="26"/>
-      <c r="C229" s="78"/>
-      <c r="D229" s="78"/>
-      <c r="E229" s="78"/>
-      <c r="F229" s="78"/>
-      <c r="G229" s="78"/>
-      <c r="H229" s="78"/>
+      <c r="C229" s="86"/>
+      <c r="D229" s="86"/>
+      <c r="E229" s="86"/>
+      <c r="F229" s="86"/>
+      <c r="G229" s="86"/>
+      <c r="H229" s="86"/>
       <c r="I229" s="1"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="26"/>
       <c r="B230" s="26"/>
-      <c r="C230" s="78"/>
-      <c r="D230" s="78"/>
-      <c r="E230" s="78"/>
-      <c r="F230" s="78"/>
-      <c r="G230" s="78"/>
-      <c r="H230" s="78"/>
+      <c r="C230" s="86"/>
+      <c r="D230" s="86"/>
+      <c r="E230" s="86"/>
+      <c r="F230" s="86"/>
+      <c r="G230" s="86"/>
+      <c r="H230" s="86"/>
       <c r="I230" s="1"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="26"/>
       <c r="B231" s="26"/>
-      <c r="C231" s="78"/>
-      <c r="D231" s="78"/>
-      <c r="E231" s="78"/>
-      <c r="F231" s="78"/>
-      <c r="G231" s="78"/>
-      <c r="H231" s="78"/>
+      <c r="C231" s="86"/>
+      <c r="D231" s="86"/>
+      <c r="E231" s="86"/>
+      <c r="F231" s="86"/>
+      <c r="G231" s="86"/>
+      <c r="H231" s="86"/>
       <c r="I231" s="1"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="26"/>
       <c r="B232" s="26"/>
-      <c r="C232" s="78"/>
-      <c r="D232" s="78"/>
-      <c r="E232" s="78"/>
-      <c r="F232" s="78"/>
-      <c r="G232" s="78"/>
-      <c r="H232" s="78"/>
+      <c r="C232" s="86"/>
+      <c r="D232" s="86"/>
+      <c r="E232" s="86"/>
+      <c r="F232" s="86"/>
+      <c r="G232" s="86"/>
+      <c r="H232" s="86"/>
       <c r="I232" s="1"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="26"/>
       <c r="B233" s="26"/>
-      <c r="C233" s="78"/>
-      <c r="D233" s="78"/>
-      <c r="E233" s="78"/>
-      <c r="F233" s="78"/>
-      <c r="G233" s="78"/>
-      <c r="H233" s="78"/>
+      <c r="C233" s="86"/>
+      <c r="D233" s="86"/>
+      <c r="E233" s="86"/>
+      <c r="F233" s="86"/>
+      <c r="G233" s="86"/>
+      <c r="H233" s="86"/>
       <c r="I233" s="1"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="26"/>
       <c r="B234" s="26"/>
-      <c r="C234" s="78"/>
-      <c r="D234" s="78"/>
-      <c r="E234" s="78"/>
-      <c r="F234" s="78"/>
-      <c r="G234" s="78"/>
-      <c r="H234" s="78"/>
+      <c r="C234" s="86"/>
+      <c r="D234" s="86"/>
+      <c r="E234" s="86"/>
+      <c r="F234" s="86"/>
+      <c r="G234" s="86"/>
+      <c r="H234" s="86"/>
       <c r="I234" s="1"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="26"/>
       <c r="B235" s="26"/>
-      <c r="C235" s="78"/>
-      <c r="D235" s="78"/>
-      <c r="E235" s="78"/>
-      <c r="F235" s="78"/>
-      <c r="G235" s="78"/>
-      <c r="H235" s="78"/>
+      <c r="C235" s="86"/>
+      <c r="D235" s="86"/>
+      <c r="E235" s="86"/>
+      <c r="F235" s="86"/>
+      <c r="G235" s="86"/>
+      <c r="H235" s="86"/>
       <c r="I235" s="1"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="26"/>
       <c r="B236" s="26"/>
-      <c r="C236" s="78"/>
-      <c r="D236" s="78"/>
-      <c r="E236" s="78"/>
-      <c r="F236" s="78"/>
-      <c r="G236" s="78"/>
-      <c r="H236" s="78"/>
+      <c r="C236" s="86"/>
+      <c r="D236" s="86"/>
+      <c r="E236" s="86"/>
+      <c r="F236" s="86"/>
+      <c r="G236" s="86"/>
+      <c r="H236" s="86"/>
       <c r="I236" s="1"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="26"/>
       <c r="B237" s="26"/>
-      <c r="C237" s="78"/>
-      <c r="D237" s="78"/>
-      <c r="E237" s="78"/>
-      <c r="F237" s="78"/>
-      <c r="G237" s="78"/>
-      <c r="H237" s="78"/>
+      <c r="C237" s="86"/>
+      <c r="D237" s="86"/>
+      <c r="E237" s="86"/>
+      <c r="F237" s="86"/>
+      <c r="G237" s="86"/>
+      <c r="H237" s="86"/>
       <c r="I237" s="1"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="26"/>
       <c r="B238" s="26"/>
-      <c r="C238" s="78"/>
-      <c r="D238" s="78"/>
-      <c r="E238" s="78"/>
-      <c r="F238" s="78"/>
-      <c r="G238" s="78"/>
-      <c r="H238" s="78"/>
+      <c r="C238" s="86"/>
+      <c r="D238" s="86"/>
+      <c r="E238" s="86"/>
+      <c r="F238" s="86"/>
+      <c r="G238" s="86"/>
+      <c r="H238" s="86"/>
       <c r="I238" s="1"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="26"/>
       <c r="B239" s="26"/>
-      <c r="C239" s="78"/>
-      <c r="D239" s="78"/>
-      <c r="E239" s="78"/>
-      <c r="F239" s="78"/>
-      <c r="G239" s="78"/>
-      <c r="H239" s="78"/>
+      <c r="C239" s="86"/>
+      <c r="D239" s="86"/>
+      <c r="E239" s="86"/>
+      <c r="F239" s="86"/>
+      <c r="G239" s="86"/>
+      <c r="H239" s="86"/>
       <c r="I239" s="1"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="26"/>
       <c r="B240" s="26"/>
-      <c r="C240" s="78"/>
-      <c r="D240" s="78"/>
-      <c r="E240" s="78"/>
-      <c r="F240" s="78"/>
-      <c r="G240" s="78"/>
-      <c r="H240" s="78"/>
+      <c r="C240" s="86"/>
+      <c r="D240" s="86"/>
+      <c r="E240" s="86"/>
+      <c r="F240" s="86"/>
+      <c r="G240" s="86"/>
+      <c r="H240" s="86"/>
       <c r="I240" s="1"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="26"/>
       <c r="B241" s="26"/>
-      <c r="C241" s="78"/>
-      <c r="D241" s="78"/>
-      <c r="E241" s="78"/>
-      <c r="F241" s="78"/>
-      <c r="G241" s="78"/>
-      <c r="H241" s="78"/>
+      <c r="C241" s="86"/>
+      <c r="D241" s="86"/>
+      <c r="E241" s="86"/>
+      <c r="F241" s="86"/>
+      <c r="G241" s="86"/>
+      <c r="H241" s="86"/>
       <c r="I241" s="1"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="26"/>
       <c r="B242" s="26"/>
-      <c r="C242" s="78"/>
-      <c r="D242" s="78"/>
-      <c r="E242" s="78"/>
-      <c r="F242" s="78"/>
-      <c r="G242" s="78"/>
-      <c r="H242" s="78"/>
+      <c r="C242" s="86"/>
+      <c r="D242" s="86"/>
+      <c r="E242" s="86"/>
+      <c r="F242" s="86"/>
+      <c r="G242" s="86"/>
+      <c r="H242" s="86"/>
       <c r="I242" s="1"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="26"/>
       <c r="B243" s="26"/>
-      <c r="C243" s="78"/>
-      <c r="D243" s="78"/>
-      <c r="E243" s="78"/>
-      <c r="F243" s="78"/>
-      <c r="G243" s="78"/>
-      <c r="H243" s="78"/>
+      <c r="C243" s="86"/>
+      <c r="D243" s="86"/>
+      <c r="E243" s="86"/>
+      <c r="F243" s="86"/>
+      <c r="G243" s="86"/>
+      <c r="H243" s="86"/>
       <c r="I243" s="1"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="26"/>
       <c r="B244" s="26"/>
-      <c r="C244" s="78"/>
-      <c r="D244" s="78"/>
-      <c r="E244" s="78"/>
-      <c r="F244" s="78"/>
-      <c r="G244" s="78"/>
-      <c r="H244" s="78"/>
+      <c r="C244" s="86"/>
+      <c r="D244" s="86"/>
+      <c r="E244" s="86"/>
+      <c r="F244" s="86"/>
+      <c r="G244" s="86"/>
+      <c r="H244" s="86"/>
       <c r="I244" s="1"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="26"/>
       <c r="B245" s="26"/>
-      <c r="C245" s="78"/>
-      <c r="D245" s="78"/>
-      <c r="E245" s="78"/>
-      <c r="F245" s="78"/>
-      <c r="G245" s="78"/>
-      <c r="H245" s="78"/>
+      <c r="C245" s="86"/>
+      <c r="D245" s="86"/>
+      <c r="E245" s="86"/>
+      <c r="F245" s="86"/>
+      <c r="G245" s="86"/>
+      <c r="H245" s="86"/>
       <c r="I245" s="1"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="26"/>
       <c r="B246" s="26"/>
-      <c r="C246" s="78"/>
-      <c r="D246" s="78"/>
-      <c r="E246" s="78"/>
-      <c r="F246" s="78"/>
-      <c r="G246" s="78"/>
-      <c r="H246" s="78"/>
+      <c r="C246" s="86"/>
+      <c r="D246" s="86"/>
+      <c r="E246" s="86"/>
+      <c r="F246" s="86"/>
+      <c r="G246" s="86"/>
+      <c r="H246" s="86"/>
       <c r="I246" s="1"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="26"/>
       <c r="B247" s="26"/>
-      <c r="C247" s="78"/>
-      <c r="D247" s="78"/>
-      <c r="E247" s="78"/>
-      <c r="F247" s="78"/>
-      <c r="G247" s="78"/>
-      <c r="H247" s="78"/>
+      <c r="C247" s="86"/>
+      <c r="D247" s="86"/>
+      <c r="E247" s="86"/>
+      <c r="F247" s="86"/>
+      <c r="G247" s="86"/>
+      <c r="H247" s="86"/>
       <c r="I247" s="1"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="26"/>
       <c r="B248" s="26"/>
-      <c r="C248" s="78"/>
-      <c r="D248" s="78"/>
-      <c r="E248" s="78"/>
-      <c r="F248" s="78"/>
-      <c r="G248" s="78"/>
-      <c r="H248" s="78"/>
+      <c r="C248" s="86"/>
+      <c r="D248" s="86"/>
+      <c r="E248" s="86"/>
+      <c r="F248" s="86"/>
+      <c r="G248" s="86"/>
+      <c r="H248" s="86"/>
       <c r="I248" s="1"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="26"/>
       <c r="B249" s="26"/>
-      <c r="C249" s="78"/>
-      <c r="D249" s="78"/>
-      <c r="E249" s="78"/>
-      <c r="F249" s="78"/>
-      <c r="G249" s="78"/>
-      <c r="H249" s="78"/>
+      <c r="C249" s="86"/>
+      <c r="D249" s="86"/>
+      <c r="E249" s="86"/>
+      <c r="F249" s="86"/>
+      <c r="G249" s="86"/>
+      <c r="H249" s="86"/>
       <c r="I249" s="1"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="26"/>
       <c r="B250" s="26"/>
-      <c r="C250" s="78"/>
-      <c r="D250" s="78"/>
-      <c r="E250" s="78"/>
-      <c r="F250" s="78"/>
-      <c r="G250" s="78"/>
-      <c r="H250" s="78"/>
+      <c r="C250" s="86"/>
+      <c r="D250" s="86"/>
+      <c r="E250" s="86"/>
+      <c r="F250" s="86"/>
+      <c r="G250" s="86"/>
+      <c r="H250" s="86"/>
       <c r="I250" s="1"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="26"/>
       <c r="B251" s="26"/>
-      <c r="C251" s="78"/>
-      <c r="D251" s="78"/>
-      <c r="E251" s="78"/>
-      <c r="F251" s="78"/>
-      <c r="G251" s="78"/>
-      <c r="H251" s="78"/>
+      <c r="C251" s="86"/>
+      <c r="D251" s="86"/>
+      <c r="E251" s="86"/>
+      <c r="F251" s="86"/>
+      <c r="G251" s="86"/>
+      <c r="H251" s="86"/>
       <c r="I251" s="1"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="26"/>
       <c r="B252" s="26"/>
-      <c r="C252" s="78"/>
-      <c r="D252" s="78"/>
-      <c r="E252" s="78"/>
-      <c r="F252" s="78"/>
-      <c r="G252" s="78"/>
-      <c r="H252" s="78"/>
+      <c r="C252" s="86"/>
+      <c r="D252" s="86"/>
+      <c r="E252" s="86"/>
+      <c r="F252" s="86"/>
+      <c r="G252" s="86"/>
+      <c r="H252" s="86"/>
       <c r="I252" s="1"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="26"/>
       <c r="B253" s="26"/>
-      <c r="C253" s="78"/>
-      <c r="D253" s="78"/>
-      <c r="E253" s="78"/>
-      <c r="F253" s="78"/>
-      <c r="G253" s="78"/>
-      <c r="H253" s="78"/>
+      <c r="C253" s="86"/>
+      <c r="D253" s="86"/>
+      <c r="E253" s="86"/>
+      <c r="F253" s="86"/>
+      <c r="G253" s="86"/>
+      <c r="H253" s="86"/>
       <c r="I253" s="1"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="26"/>
       <c r="B254" s="26"/>
-      <c r="C254" s="78"/>
-      <c r="D254" s="78"/>
-      <c r="E254" s="78"/>
-      <c r="F254" s="78"/>
-      <c r="G254" s="78"/>
-      <c r="H254" s="78"/>
+      <c r="C254" s="86"/>
+      <c r="D254" s="86"/>
+      <c r="E254" s="86"/>
+      <c r="F254" s="86"/>
+      <c r="G254" s="86"/>
+      <c r="H254" s="86"/>
       <c r="I254" s="1"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="26"/>
       <c r="B255" s="26"/>
-      <c r="C255" s="78"/>
-      <c r="D255" s="78"/>
-      <c r="E255" s="78"/>
-      <c r="F255" s="78"/>
-      <c r="G255" s="78"/>
-      <c r="H255" s="78"/>
+      <c r="C255" s="86"/>
+      <c r="D255" s="86"/>
+      <c r="E255" s="86"/>
+      <c r="F255" s="86"/>
+      <c r="G255" s="86"/>
+      <c r="H255" s="86"/>
       <c r="I255" s="1"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="26"/>
       <c r="B256" s="26"/>
-      <c r="C256" s="78"/>
-      <c r="D256" s="78"/>
-      <c r="E256" s="78"/>
-      <c r="F256" s="78"/>
-      <c r="G256" s="78"/>
-      <c r="H256" s="78"/>
+      <c r="C256" s="86"/>
+      <c r="D256" s="86"/>
+      <c r="E256" s="86"/>
+      <c r="F256" s="86"/>
+      <c r="G256" s="86"/>
+      <c r="H256" s="86"/>
       <c r="I256" s="1"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="26"/>
       <c r="B257" s="26"/>
-      <c r="C257" s="78"/>
-      <c r="D257" s="78"/>
-      <c r="E257" s="78"/>
-      <c r="F257" s="78"/>
-      <c r="G257" s="78"/>
-      <c r="H257" s="78"/>
+      <c r="C257" s="86"/>
+      <c r="D257" s="86"/>
+      <c r="E257" s="86"/>
+      <c r="F257" s="86"/>
+      <c r="G257" s="86"/>
+      <c r="H257" s="86"/>
       <c r="I257" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="H2:H129"/>
+    <mergeCell ref="H130:H257"/>
+    <mergeCell ref="F162:F193"/>
+    <mergeCell ref="F194:F225"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="G2:G65"/>
+    <mergeCell ref="G66:G129"/>
+    <mergeCell ref="G130:G193"/>
+    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="E178:E193"/>
+    <mergeCell ref="E194:E209"/>
+    <mergeCell ref="E210:E225"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="F2:F33"/>
+    <mergeCell ref="F34:F65"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="E130:E145"/>
+    <mergeCell ref="E146:E161"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="E34:E49"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="D202:D209"/>
+    <mergeCell ref="D210:D217"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="D226:D233"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="D146:D153"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="D170:D177"/>
+    <mergeCell ref="D178:D185"/>
+    <mergeCell ref="D186:D193"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="D138:D145"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="D90:D97"/>
     <mergeCell ref="C242:C245"/>
     <mergeCell ref="C246:C249"/>
     <mergeCell ref="C250:C253"/>
@@ -5196,61 +5232,52 @@
     <mergeCell ref="C170:C173"/>
     <mergeCell ref="C174:C177"/>
     <mergeCell ref="D98:D105"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="D138:D145"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="D194:D201"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="D210:D217"/>
-    <mergeCell ref="D218:D225"/>
-    <mergeCell ref="D226:D233"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="D146:D153"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="D170:D177"/>
-    <mergeCell ref="D178:D185"/>
-    <mergeCell ref="D186:D193"/>
-    <mergeCell ref="E178:E193"/>
-    <mergeCell ref="E194:E209"/>
-    <mergeCell ref="E210:E225"/>
-    <mergeCell ref="E226:E241"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="F2:F33"/>
-    <mergeCell ref="F34:F65"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="F130:F161"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="E130:E145"/>
-    <mergeCell ref="E146:E161"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="H2:H129"/>
-    <mergeCell ref="H130:H257"/>
-    <mergeCell ref="F162:F193"/>
-    <mergeCell ref="F194:F225"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="G2:G65"/>
-    <mergeCell ref="G66:G129"/>
-    <mergeCell ref="G130:G193"/>
-    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -5261,8 +5288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709A4C10-0955-4D97-86D1-D5085866A222}">
   <dimension ref="A1:AD136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5304,7 +5331,7 @@
       <c r="B1" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="93" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -5316,7 +5343,7 @@
       <c r="G1" s="3">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="95" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -5328,7 +5355,7 @@
       <c r="L1" s="3">
         <v>0</v>
       </c>
-      <c r="M1" s="96" t="s">
+      <c r="M1" s="101" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -5340,7 +5367,7 @@
       <c r="Q1" s="49">
         <v>0</v>
       </c>
-      <c r="R1" s="85" t="s">
+      <c r="R1" s="110" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -5354,7 +5381,7 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="89"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="7"/>
       <c r="F2" s="12" t="s">
         <v>74</v>
@@ -5362,7 +5389,7 @@
       <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="91"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="7"/>
       <c r="K2" s="12" t="s">
         <v>76</v>
@@ -5370,7 +5397,7 @@
       <c r="L2" s="6">
         <v>1</v>
       </c>
-      <c r="M2" s="97"/>
+      <c r="M2" s="102"/>
       <c r="N2" s="7"/>
       <c r="P2" s="12" t="s">
         <v>83</v>
@@ -5378,16 +5405,16 @@
       <c r="Q2" s="48">
         <v>1</v>
       </c>
-      <c r="R2" s="86"/>
+      <c r="R2" s="103"/>
       <c r="S2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="79" t="s">
+      <c r="AA2" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="81"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="89"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -5396,7 +5423,7 @@
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="89"/>
+      <c r="C3" s="94"/>
       <c r="D3" s="7"/>
       <c r="F3" s="12" t="s">
         <v>74</v>
@@ -5404,7 +5431,7 @@
       <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="7"/>
       <c r="K3" s="12" t="s">
         <v>76</v>
@@ -5412,7 +5439,7 @@
       <c r="L3" s="6">
         <v>2</v>
       </c>
-      <c r="M3" s="97"/>
+      <c r="M3" s="102"/>
       <c r="N3" s="7"/>
       <c r="P3" s="12" t="s">
         <v>83</v>
@@ -5420,7 +5447,7 @@
       <c r="Q3" s="48">
         <v>2</v>
       </c>
-      <c r="R3" s="86"/>
+      <c r="R3" s="103"/>
       <c r="S3" s="7" t="s">
         <v>35</v>
       </c>
@@ -5444,7 +5471,7 @@
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="89"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="7"/>
       <c r="F4" s="12" t="s">
         <v>74</v>
@@ -5452,7 +5479,7 @@
       <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="91"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="7"/>
       <c r="K4" s="12" t="s">
         <v>76</v>
@@ -5460,7 +5487,7 @@
       <c r="L4" s="6">
         <v>3</v>
       </c>
-      <c r="M4" s="97"/>
+      <c r="M4" s="102"/>
       <c r="N4" s="7"/>
       <c r="P4" s="12" t="s">
         <v>83</v>
@@ -5468,7 +5495,7 @@
       <c r="Q4" s="48">
         <v>3</v>
       </c>
-      <c r="R4" s="86"/>
+      <c r="R4" s="103"/>
       <c r="S4" s="7"/>
       <c r="AA4" s="23">
         <v>10</v>
@@ -5490,7 +5517,7 @@
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="94"/>
       <c r="D5" s="7"/>
       <c r="F5" s="12" t="s">
         <v>74</v>
@@ -5498,7 +5525,7 @@
       <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="91"/>
+      <c r="H5" s="96"/>
       <c r="I5" s="7"/>
       <c r="K5" s="12" t="s">
         <v>76</v>
@@ -5506,7 +5533,7 @@
       <c r="L5" s="6">
         <v>4</v>
       </c>
-      <c r="M5" s="97"/>
+      <c r="M5" s="102"/>
       <c r="N5" s="7"/>
       <c r="P5" s="12" t="s">
         <v>83</v>
@@ -5514,7 +5541,7 @@
       <c r="Q5" s="48">
         <v>4</v>
       </c>
-      <c r="R5" s="86"/>
+      <c r="R5" s="103"/>
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -5524,7 +5551,7 @@
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="7"/>
       <c r="F6" s="12" t="s">
         <v>74</v>
@@ -5532,7 +5559,7 @@
       <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="91"/>
+      <c r="H6" s="96"/>
       <c r="I6" s="7"/>
       <c r="K6" s="39" t="s">
         <v>76</v>
@@ -5540,24 +5567,24 @@
       <c r="L6" s="40">
         <v>254</v>
       </c>
-      <c r="M6" s="97"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="41" t="s">
         <v>44</v>
       </c>
       <c r="P6" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="Q6" s="117">
+      <c r="Q6" s="78">
         <v>254</v>
       </c>
-      <c r="R6" s="86"/>
+      <c r="R6" s="103"/>
       <c r="S6" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="83" t="s">
+      <c r="AA6" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="84"/>
+      <c r="AB6" s="92"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -5566,7 +5593,7 @@
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="7"/>
       <c r="F7" s="12" t="s">
         <v>74</v>
@@ -5574,7 +5601,7 @@
       <c r="G7" s="6">
         <v>6</v>
       </c>
-      <c r="H7" s="91"/>
+      <c r="H7" s="96"/>
       <c r="I7" s="7"/>
       <c r="K7" s="11" t="s">
         <v>76</v>
@@ -5582,7 +5609,7 @@
       <c r="L7" s="3">
         <v>255</v>
       </c>
-      <c r="M7" s="97"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5592,7 +5619,7 @@
       <c r="Q7" s="49">
         <v>255</v>
       </c>
-      <c r="R7" s="87"/>
+      <c r="R7" s="104"/>
       <c r="S7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5610,7 +5637,7 @@
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="89"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="7"/>
       <c r="F8" s="12" t="s">
         <v>74</v>
@@ -5618,7 +5645,7 @@
       <c r="G8" s="6">
         <v>7</v>
       </c>
-      <c r="H8" s="91"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="7"/>
       <c r="K8" s="11" t="s">
         <v>77</v>
@@ -5626,17 +5653,17 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="102"/>
       <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P8" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="Q8" s="118">
+      <c r="Q8" s="79">
         <v>0</v>
       </c>
-      <c r="R8" s="86" t="s">
+      <c r="R8" s="103" t="s">
         <v>20</v>
       </c>
       <c r="S8" s="68" t="s">
@@ -5656,7 +5683,7 @@
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="89"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="7"/>
       <c r="F9" s="12" t="s">
         <v>74</v>
@@ -5664,7 +5691,7 @@
       <c r="G9" s="6">
         <v>8</v>
       </c>
-      <c r="H9" s="91"/>
+      <c r="H9" s="96"/>
       <c r="I9" s="7"/>
       <c r="K9" s="12" t="s">
         <v>77</v>
@@ -5672,7 +5699,7 @@
       <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="102"/>
       <c r="N9" s="7"/>
       <c r="P9" s="12" t="s">
         <v>107</v>
@@ -5680,7 +5707,7 @@
       <c r="Q9" s="48">
         <v>1</v>
       </c>
-      <c r="R9" s="86"/>
+      <c r="R9" s="103"/>
       <c r="S9" s="7" t="s">
         <v>21</v>
       </c>
@@ -5698,7 +5725,7 @@
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="89"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="7"/>
       <c r="F10" s="12" t="s">
         <v>74</v>
@@ -5706,7 +5733,7 @@
       <c r="G10" s="6">
         <v>9</v>
       </c>
-      <c r="H10" s="91"/>
+      <c r="H10" s="96"/>
       <c r="I10" s="7"/>
       <c r="K10" s="12" t="s">
         <v>77</v>
@@ -5714,7 +5741,7 @@
       <c r="L10" s="6">
         <v>2</v>
       </c>
-      <c r="M10" s="97"/>
+      <c r="M10" s="102"/>
       <c r="N10" s="7"/>
       <c r="P10" s="12" t="s">
         <v>107</v>
@@ -5722,7 +5749,7 @@
       <c r="Q10" s="48">
         <v>2</v>
       </c>
-      <c r="R10" s="86"/>
+      <c r="R10" s="103"/>
       <c r="S10" s="7" t="s">
         <v>22</v>
       </c>
@@ -5740,7 +5767,7 @@
       <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="7"/>
       <c r="F11" s="12" t="s">
         <v>74</v>
@@ -5748,7 +5775,7 @@
       <c r="G11" s="6">
         <v>10</v>
       </c>
-      <c r="H11" s="91"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="7"/>
       <c r="K11" s="12" t="s">
         <v>77</v>
@@ -5756,7 +5783,7 @@
       <c r="L11" s="6">
         <v>3</v>
       </c>
-      <c r="M11" s="97"/>
+      <c r="M11" s="102"/>
       <c r="N11" s="7"/>
       <c r="P11" s="42" t="s">
         <v>107</v>
@@ -5764,7 +5791,7 @@
       <c r="Q11" s="50">
         <v>254</v>
       </c>
-      <c r="R11" s="86"/>
+      <c r="R11" s="103"/>
       <c r="S11" s="44" t="s">
         <v>44</v>
       </c>
@@ -5776,7 +5803,7 @@
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="89"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="7"/>
       <c r="F12" s="12" t="s">
         <v>74</v>
@@ -5784,7 +5811,7 @@
       <c r="G12" s="6">
         <v>11</v>
       </c>
-      <c r="H12" s="91"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="7"/>
       <c r="K12" s="12" t="s">
         <v>77</v>
@@ -5792,7 +5819,7 @@
       <c r="L12" s="6">
         <v>4</v>
       </c>
-      <c r="M12" s="97"/>
+      <c r="M12" s="102"/>
       <c r="N12" s="7"/>
       <c r="P12" s="11" t="s">
         <v>107</v>
@@ -5800,7 +5827,7 @@
       <c r="Q12" s="49">
         <v>255</v>
       </c>
-      <c r="R12" s="87"/>
+      <c r="R12" s="104"/>
       <c r="S12" s="4" t="s">
         <v>19</v>
       </c>
@@ -5816,7 +5843,7 @@
       <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="89"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="7"/>
       <c r="F13" s="12" t="s">
         <v>74</v>
@@ -5824,7 +5851,7 @@
       <c r="G13" s="6">
         <v>12</v>
       </c>
-      <c r="H13" s="91"/>
+      <c r="H13" s="96"/>
       <c r="I13" s="7"/>
       <c r="K13" s="39" t="s">
         <v>77</v>
@@ -5832,7 +5859,7 @@
       <c r="L13" s="40">
         <v>254</v>
       </c>
-      <c r="M13" s="97"/>
+      <c r="M13" s="102"/>
       <c r="N13" s="41" t="s">
         <v>44</v>
       </c>
@@ -5842,13 +5869,13 @@
       <c r="Q13" s="77">
         <v>0</v>
       </c>
-      <c r="R13" s="101" t="s">
+      <c r="R13" s="108" t="s">
         <v>73</v>
       </c>
       <c r="S13" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="T13" s="121" t="s">
+      <c r="T13" s="82" t="s">
         <v>1</v>
       </c>
       <c r="AA13" s="52"/>
@@ -5863,7 +5890,7 @@
       <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="89"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="7"/>
       <c r="F14" s="12" t="s">
         <v>74</v>
@@ -5871,7 +5898,7 @@
       <c r="G14" s="6">
         <v>13</v>
       </c>
-      <c r="H14" s="91"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="7"/>
       <c r="K14" s="11" t="s">
         <v>77</v>
@@ -5879,23 +5906,19 @@
       <c r="L14" s="3">
         <v>255</v>
       </c>
-      <c r="M14" s="97"/>
+      <c r="M14" s="102"/>
       <c r="N14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="120" t="s">
+      <c r="P14" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="Q14" s="120">
+      <c r="Q14" s="128">
         <v>1</v>
       </c>
-      <c r="R14" s="102"/>
-      <c r="S14" s="120" t="s">
-        <v>67</v>
-      </c>
-      <c r="T14" s="120" t="s">
-        <v>118</v>
-      </c>
+      <c r="R14" s="109"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="132"/>
       <c r="AA14" s="54"/>
       <c r="AB14" s="54"/>
       <c r="AC14" s="54"/>
@@ -5908,7 +5931,7 @@
       <c r="B15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="7"/>
       <c r="F15" s="12" t="s">
         <v>74</v>
@@ -5916,7 +5939,7 @@
       <c r="G15" s="6">
         <v>14</v>
       </c>
-      <c r="H15" s="91"/>
+      <c r="H15" s="96"/>
       <c r="I15" s="7"/>
       <c r="K15" s="11" t="s">
         <v>78</v>
@@ -5924,23 +5947,19 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="97"/>
+      <c r="M15" s="102"/>
       <c r="N15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="120" t="s">
+      <c r="P15" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="Q15" s="120">
+      <c r="Q15" s="128">
         <v>2</v>
       </c>
-      <c r="R15" s="102"/>
-      <c r="S15" s="120" t="s">
-        <v>66</v>
-      </c>
-      <c r="T15" s="120" t="s">
-        <v>118</v>
-      </c>
+      <c r="R15" s="109"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="132"/>
       <c r="AA15" s="54"/>
       <c r="AB15" s="54"/>
       <c r="AC15" s="54"/>
@@ -5953,7 +5972,7 @@
       <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="89"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="7"/>
       <c r="F16" s="12" t="s">
         <v>74</v>
@@ -5961,7 +5980,7 @@
       <c r="G16" s="6">
         <v>15</v>
       </c>
-      <c r="H16" s="91"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="7"/>
       <c r="K16" s="12" t="s">
         <v>78</v>
@@ -5969,19 +5988,19 @@
       <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="M16" s="97"/>
+      <c r="M16" s="102"/>
       <c r="N16" s="7"/>
-      <c r="P16" s="124" t="s">
+      <c r="P16" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="Q16" s="124">
+      <c r="Q16" s="85">
         <v>3</v>
       </c>
-      <c r="R16" s="102"/>
+      <c r="R16" s="109"/>
       <c r="S16" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="T16" s="122"/>
+      <c r="T16" s="83"/>
       <c r="AA16" s="54"/>
       <c r="AB16" s="54"/>
       <c r="AC16" s="54"/>
@@ -5994,7 +6013,7 @@
       <c r="B17" s="6">
         <v>16</v>
       </c>
-      <c r="C17" s="89"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="7"/>
       <c r="F17" s="12" t="s">
         <v>74</v>
@@ -6002,7 +6021,7 @@
       <c r="G17" s="6">
         <v>16</v>
       </c>
-      <c r="H17" s="91"/>
+      <c r="H17" s="96"/>
       <c r="I17" s="7"/>
       <c r="K17" s="12" t="s">
         <v>78</v>
@@ -6010,17 +6029,19 @@
       <c r="L17" s="6">
         <v>2</v>
       </c>
-      <c r="M17" s="97"/>
+      <c r="M17" s="102"/>
       <c r="N17" s="7"/>
-      <c r="P17" s="124" t="s">
+      <c r="P17" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="124">
+      <c r="Q17" s="85">
         <v>4</v>
       </c>
-      <c r="R17" s="102"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="122"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="125" t="s">
+        <v>119</v>
+      </c>
+      <c r="T17" s="83"/>
       <c r="AA17" s="52"/>
       <c r="AB17" s="53"/>
       <c r="AC17" s="53"/>
@@ -6033,7 +6054,7 @@
       <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="89"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="7"/>
       <c r="F18" s="12" t="s">
         <v>74</v>
@@ -6041,7 +6062,7 @@
       <c r="G18" s="6">
         <v>17</v>
       </c>
-      <c r="H18" s="91"/>
+      <c r="H18" s="96"/>
       <c r="I18" s="7"/>
       <c r="K18" s="12" t="s">
         <v>78</v>
@@ -6049,7 +6070,7 @@
       <c r="L18" s="6">
         <v>3</v>
       </c>
-      <c r="M18" s="97"/>
+      <c r="M18" s="102"/>
       <c r="N18" s="7"/>
       <c r="P18" s="48" t="s">
         <v>64</v>
@@ -6057,8 +6078,9 @@
       <c r="Q18" s="48">
         <v>5</v>
       </c>
-      <c r="R18" s="102"/>
-      <c r="T18" s="122"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="126"/>
+      <c r="T18" s="83"/>
       <c r="AA18" s="29"/>
       <c r="AB18" s="29"/>
       <c r="AC18" s="29"/>
@@ -6071,7 +6093,7 @@
       <c r="B19" s="6">
         <v>18</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="7"/>
       <c r="F19" s="12" t="s">
         <v>74</v>
@@ -6079,7 +6101,7 @@
       <c r="G19" s="6">
         <v>18</v>
       </c>
-      <c r="H19" s="91"/>
+      <c r="H19" s="96"/>
       <c r="I19" s="7"/>
       <c r="K19" s="12" t="s">
         <v>78</v>
@@ -6087,7 +6109,7 @@
       <c r="L19" s="6">
         <v>4</v>
       </c>
-      <c r="M19" s="97"/>
+      <c r="M19" s="102"/>
       <c r="N19" s="7"/>
       <c r="P19" s="48" t="s">
         <v>64</v>
@@ -6095,9 +6117,9 @@
       <c r="Q19" s="48">
         <v>6</v>
       </c>
-      <c r="R19" s="102"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="122"/>
+      <c r="R19" s="109"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="83"/>
       <c r="AA19" s="29"/>
       <c r="AB19" s="29"/>
       <c r="AC19" s="29"/>
@@ -6110,7 +6132,7 @@
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="89"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="7"/>
       <c r="F20" s="12" t="s">
         <v>74</v>
@@ -6118,7 +6140,7 @@
       <c r="G20" s="6">
         <v>19</v>
       </c>
-      <c r="H20" s="91"/>
+      <c r="H20" s="96"/>
       <c r="I20" s="7"/>
       <c r="K20" s="39" t="s">
         <v>78</v>
@@ -6126,7 +6148,7 @@
       <c r="L20" s="40">
         <v>254</v>
       </c>
-      <c r="M20" s="97"/>
+      <c r="M20" s="102"/>
       <c r="N20" s="41" t="s">
         <v>44</v>
       </c>
@@ -6136,11 +6158,11 @@
       <c r="Q20" s="77">
         <v>7</v>
       </c>
-      <c r="R20" s="102"/>
+      <c r="R20" s="109"/>
       <c r="S20" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="T20" s="122"/>
+      <c r="T20" s="83"/>
       <c r="AA20" s="29"/>
       <c r="AB20" s="29"/>
       <c r="AC20" s="29"/>
@@ -6153,7 +6175,7 @@
       <c r="B21" s="6">
         <v>20</v>
       </c>
-      <c r="C21" s="89"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="7"/>
       <c r="F21" s="12" t="s">
         <v>74</v>
@@ -6161,7 +6183,7 @@
       <c r="G21" s="6">
         <v>20</v>
       </c>
-      <c r="H21" s="91"/>
+      <c r="H21" s="96"/>
       <c r="I21" s="7"/>
       <c r="K21" s="11" t="s">
         <v>78</v>
@@ -6169,7 +6191,7 @@
       <c r="L21" s="3">
         <v>255</v>
       </c>
-      <c r="M21" s="97"/>
+      <c r="M21" s="102"/>
       <c r="N21" s="4" t="s">
         <v>19</v>
       </c>
@@ -6179,11 +6201,11 @@
       <c r="Q21" s="77">
         <v>8</v>
       </c>
-      <c r="R21" s="102"/>
+      <c r="R21" s="109"/>
       <c r="S21" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="T21" s="121" t="s">
+      <c r="T21" s="82" t="s">
         <v>0</v>
       </c>
       <c r="AA21" s="29"/>
@@ -6198,7 +6220,7 @@
       <c r="B22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="89"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="7"/>
       <c r="F22" s="12" t="s">
         <v>74</v>
@@ -6206,7 +6228,7 @@
       <c r="G22" s="6">
         <v>21</v>
       </c>
-      <c r="H22" s="91"/>
+      <c r="H22" s="96"/>
       <c r="I22" s="7"/>
       <c r="P22" s="48" t="s">
         <v>64</v>
@@ -6214,11 +6236,11 @@
       <c r="Q22" s="48">
         <v>9</v>
       </c>
-      <c r="R22" s="102"/>
+      <c r="R22" s="109"/>
       <c r="S22" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="T22" s="122"/>
+      <c r="T22" s="83"/>
       <c r="AA22" s="29"/>
       <c r="AB22" s="29"/>
       <c r="AC22" s="29"/>
@@ -6231,7 +6253,7 @@
       <c r="B23" s="6">
         <v>22</v>
       </c>
-      <c r="C23" s="89"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="7"/>
       <c r="F23" s="12" t="s">
         <v>74</v>
@@ -6239,7 +6261,7 @@
       <c r="G23" s="6">
         <v>22</v>
       </c>
-      <c r="H23" s="91"/>
+      <c r="H23" s="96"/>
       <c r="I23" s="7"/>
       <c r="K23" s="11" t="s">
         <v>79</v>
@@ -6247,7 +6269,7 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="82" t="s">
+      <c r="M23" s="90" t="s">
         <v>16</v>
       </c>
       <c r="N23" s="4" t="s">
@@ -6259,11 +6281,11 @@
       <c r="Q23" s="48">
         <v>10</v>
       </c>
-      <c r="R23" s="102"/>
+      <c r="R23" s="109"/>
       <c r="S23" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="T23" s="122"/>
+      <c r="T23" s="83"/>
       <c r="AA23" s="29"/>
       <c r="AB23" s="29"/>
       <c r="AC23" s="29"/>
@@ -6276,7 +6298,7 @@
       <c r="B24" s="6">
         <v>23</v>
       </c>
-      <c r="C24" s="89"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="7"/>
       <c r="F24" s="12" t="s">
         <v>74</v>
@@ -6284,7 +6306,7 @@
       <c r="G24" s="6">
         <v>23</v>
       </c>
-      <c r="H24" s="91"/>
+      <c r="H24" s="96"/>
       <c r="I24" s="7"/>
       <c r="K24" s="12" t="s">
         <v>79</v>
@@ -6292,7 +6314,7 @@
       <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="M24" s="82"/>
+      <c r="M24" s="90"/>
       <c r="N24" s="7"/>
       <c r="P24" s="77" t="s">
         <v>64</v>
@@ -6300,11 +6322,11 @@
       <c r="Q24" s="77">
         <v>11</v>
       </c>
-      <c r="R24" s="102"/>
+      <c r="R24" s="109"/>
       <c r="S24" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="T24" s="122"/>
+      <c r="T24" s="83"/>
       <c r="AA24" s="29"/>
       <c r="AB24" s="29"/>
       <c r="AC24" s="29"/>
@@ -6317,7 +6339,7 @@
       <c r="B25" s="6">
         <v>24</v>
       </c>
-      <c r="C25" s="89"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="7"/>
       <c r="F25" s="12" t="s">
         <v>74</v>
@@ -6325,7 +6347,7 @@
       <c r="G25" s="6">
         <v>24</v>
       </c>
-      <c r="H25" s="91"/>
+      <c r="H25" s="96"/>
       <c r="I25" s="7"/>
       <c r="K25" s="12" t="s">
         <v>79</v>
@@ -6333,7 +6355,7 @@
       <c r="L25" s="6">
         <v>2</v>
       </c>
-      <c r="M25" s="82"/>
+      <c r="M25" s="90"/>
       <c r="N25" s="7"/>
       <c r="P25" s="77" t="s">
         <v>64</v>
@@ -6341,11 +6363,11 @@
       <c r="Q25" s="77">
         <v>12</v>
       </c>
-      <c r="R25" s="102"/>
+      <c r="R25" s="109"/>
       <c r="S25" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="T25" s="121" t="s">
+      <c r="T25" s="82" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6356,7 +6378,7 @@
       <c r="B26" s="6">
         <v>25</v>
       </c>
-      <c r="C26" s="89"/>
+      <c r="C26" s="94"/>
       <c r="D26" s="7"/>
       <c r="F26" s="12" t="s">
         <v>74</v>
@@ -6364,7 +6386,7 @@
       <c r="G26" s="6">
         <v>25</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="96"/>
       <c r="I26" s="7"/>
       <c r="K26" s="12" t="s">
         <v>79</v>
@@ -6372,7 +6394,7 @@
       <c r="L26" s="6">
         <v>3</v>
       </c>
-      <c r="M26" s="82"/>
+      <c r="M26" s="90"/>
       <c r="N26" s="7"/>
       <c r="P26" s="48" t="s">
         <v>64</v>
@@ -6380,11 +6402,11 @@
       <c r="Q26" s="48">
         <v>13</v>
       </c>
-      <c r="R26" s="102"/>
+      <c r="R26" s="109"/>
       <c r="S26" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="T26" s="122"/>
+      <c r="T26" s="83"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
@@ -6393,7 +6415,7 @@
       <c r="B27" s="6">
         <v>26</v>
       </c>
-      <c r="C27" s="89"/>
+      <c r="C27" s="94"/>
       <c r="D27" s="7"/>
       <c r="F27" s="12" t="s">
         <v>74</v>
@@ -6401,7 +6423,7 @@
       <c r="G27" s="6">
         <v>26</v>
       </c>
-      <c r="H27" s="91"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="7"/>
       <c r="K27" s="12" t="s">
         <v>79</v>
@@ -6409,7 +6431,7 @@
       <c r="L27" s="6">
         <v>4</v>
       </c>
-      <c r="M27" s="82"/>
+      <c r="M27" s="90"/>
       <c r="N27" s="7"/>
       <c r="P27" s="48" t="s">
         <v>64</v>
@@ -6417,11 +6439,11 @@
       <c r="Q27" s="48">
         <v>14</v>
       </c>
-      <c r="R27" s="102"/>
+      <c r="R27" s="109"/>
       <c r="S27" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="T27" s="122"/>
+      <c r="T27" s="83"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -6430,7 +6452,7 @@
       <c r="B28" s="6">
         <v>27</v>
       </c>
-      <c r="C28" s="89"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="7"/>
       <c r="F28" s="12" t="s">
         <v>74</v>
@@ -6438,7 +6460,7 @@
       <c r="G28" s="6">
         <v>27</v>
       </c>
-      <c r="H28" s="91"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="7"/>
       <c r="K28" s="12" t="s">
         <v>79</v>
@@ -6446,7 +6468,7 @@
       <c r="L28" s="6">
         <v>5</v>
       </c>
-      <c r="M28" s="82"/>
+      <c r="M28" s="90"/>
       <c r="N28" s="7"/>
       <c r="P28" s="48" t="s">
         <v>64</v>
@@ -6454,11 +6476,11 @@
       <c r="Q28" s="48">
         <v>15</v>
       </c>
-      <c r="R28" s="102"/>
+      <c r="R28" s="109"/>
       <c r="S28" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="T28" s="122"/>
+      <c r="T28" s="83"/>
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
@@ -6467,7 +6489,7 @@
       <c r="B29" s="6">
         <v>28</v>
       </c>
-      <c r="C29" s="89"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="7"/>
       <c r="F29" s="12" t="s">
         <v>74</v>
@@ -6475,7 +6497,7 @@
       <c r="G29" s="6">
         <v>28</v>
       </c>
-      <c r="H29" s="91"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="7"/>
       <c r="K29" s="42" t="s">
         <v>79</v>
@@ -6483,7 +6505,7 @@
       <c r="L29" s="43">
         <v>254</v>
       </c>
-      <c r="M29" s="82"/>
+      <c r="M29" s="90"/>
       <c r="N29" s="44" t="s">
         <v>44</v>
       </c>
@@ -6493,9 +6515,9 @@
       <c r="Q29" s="48">
         <v>16</v>
       </c>
-      <c r="R29" s="102"/>
+      <c r="R29" s="109"/>
       <c r="S29" s="48"/>
-      <c r="T29" s="122"/>
+      <c r="T29" s="83"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
@@ -6504,7 +6526,7 @@
       <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="89"/>
+      <c r="C30" s="94"/>
       <c r="D30" s="7"/>
       <c r="F30" s="12" t="s">
         <v>74</v>
@@ -6512,7 +6534,7 @@
       <c r="G30" s="6">
         <v>29</v>
       </c>
-      <c r="H30" s="91"/>
+      <c r="H30" s="96"/>
       <c r="I30" s="7"/>
       <c r="K30" s="11" t="s">
         <v>79</v>
@@ -6520,7 +6542,7 @@
       <c r="L30" s="3">
         <v>255</v>
       </c>
-      <c r="M30" s="82"/>
+      <c r="M30" s="90"/>
       <c r="N30" s="4" t="s">
         <v>19</v>
       </c>
@@ -6530,9 +6552,9 @@
       <c r="Q30" s="48">
         <v>17</v>
       </c>
-      <c r="R30" s="102"/>
+      <c r="R30" s="109"/>
       <c r="S30" s="48"/>
-      <c r="T30" s="122"/>
+      <c r="T30" s="83"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
@@ -6541,7 +6563,7 @@
       <c r="B31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="89"/>
+      <c r="C31" s="94"/>
       <c r="D31" s="7"/>
       <c r="F31" s="12" t="s">
         <v>74</v>
@@ -6549,7 +6571,7 @@
       <c r="G31" s="6">
         <v>30</v>
       </c>
-      <c r="H31" s="91"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="7"/>
       <c r="P31" s="75" t="s">
         <v>64</v>
@@ -6557,9 +6579,9 @@
       <c r="Q31" s="75">
         <v>18</v>
       </c>
-      <c r="R31" s="102"/>
-      <c r="S31" s="119"/>
-      <c r="T31" s="122"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="80"/>
+      <c r="T31" s="83"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
@@ -6568,7 +6590,7 @@
       <c r="B32" s="6">
         <v>31</v>
       </c>
-      <c r="C32" s="89"/>
+      <c r="C32" s="94"/>
       <c r="D32" s="7"/>
       <c r="F32" s="39" t="s">
         <v>74</v>
@@ -6576,7 +6598,7 @@
       <c r="G32" s="40">
         <v>254</v>
       </c>
-      <c r="H32" s="91"/>
+      <c r="H32" s="96"/>
       <c r="I32" s="41" t="s">
         <v>94</v>
       </c>
@@ -6586,7 +6608,7 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="98" t="s">
+      <c r="M32" s="105" t="s">
         <v>24</v>
       </c>
       <c r="N32" s="4" t="s">
@@ -6598,9 +6620,9 @@
       <c r="Q32" s="75">
         <v>19</v>
       </c>
-      <c r="R32" s="102"/>
-      <c r="S32" s="119"/>
-      <c r="T32" s="122"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="83"/>
       <c r="AA32" s="13"/>
       <c r="AB32" s="13"/>
       <c r="AC32" s="13"/>
@@ -6612,7 +6634,7 @@
       <c r="B33" s="6">
         <v>32</v>
       </c>
-      <c r="C33" s="89"/>
+      <c r="C33" s="94"/>
       <c r="D33" s="7"/>
       <c r="F33" s="11" t="s">
         <v>74</v>
@@ -6620,7 +6642,7 @@
       <c r="G33" s="3">
         <v>255</v>
       </c>
-      <c r="H33" s="92"/>
+      <c r="H33" s="97"/>
       <c r="I33" s="4" t="s">
         <v>19</v>
       </c>
@@ -6630,7 +6652,7 @@
       <c r="L33" s="6">
         <v>1</v>
       </c>
-      <c r="M33" s="99"/>
+      <c r="M33" s="106"/>
       <c r="N33" s="7"/>
       <c r="P33" s="77" t="s">
         <v>64</v>
@@ -6638,11 +6660,11 @@
       <c r="Q33" s="77">
         <v>20</v>
       </c>
-      <c r="R33" s="102"/>
+      <c r="R33" s="109"/>
       <c r="S33" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="T33" s="123"/>
+      <c r="T33" s="84"/>
       <c r="AA33" s="13"/>
       <c r="AB33" s="13"/>
       <c r="AC33" s="13"/>
@@ -6654,7 +6676,7 @@
       <c r="B34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="89"/>
+      <c r="C34" s="94"/>
       <c r="D34" s="7"/>
       <c r="K34" s="12" t="s">
         <v>80</v>
@@ -6662,7 +6684,7 @@
       <c r="L34" s="6">
         <v>2</v>
       </c>
-      <c r="M34" s="99"/>
+      <c r="M34" s="106"/>
       <c r="N34" s="7"/>
       <c r="P34" s="49" t="s">
         <v>65</v>
@@ -6670,7 +6692,7 @@
       <c r="Q34" s="49">
         <v>0</v>
       </c>
-      <c r="R34" s="102"/>
+      <c r="R34" s="109"/>
       <c r="S34" s="4" t="s">
         <v>23</v>
       </c>
@@ -6682,7 +6704,7 @@
       <c r="B35" s="6">
         <v>34</v>
       </c>
-      <c r="C35" s="89"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="7"/>
       <c r="F35" s="11" t="s">
         <v>75</v>
@@ -6690,7 +6712,7 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="93" t="s">
+      <c r="H35" s="98" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -6702,23 +6724,19 @@
       <c r="L35" s="43">
         <v>254</v>
       </c>
-      <c r="M35" s="99"/>
+      <c r="M35" s="106"/>
       <c r="N35" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="P35" s="120" t="s">
+      <c r="P35" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="Q35" s="120">
+      <c r="Q35" s="128">
         <v>1</v>
       </c>
-      <c r="R35" s="102"/>
-      <c r="S35" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="T35" s="120" t="s">
-        <v>118</v>
-      </c>
+      <c r="R35" s="109"/>
+      <c r="S35" s="130"/>
+      <c r="T35" s="131"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
@@ -6727,7 +6745,7 @@
       <c r="B36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="89"/>
+      <c r="C36" s="94"/>
       <c r="D36" s="7"/>
       <c r="F36" s="12" t="s">
         <v>75</v>
@@ -6735,7 +6753,7 @@
       <c r="G36" s="6">
         <v>1</v>
       </c>
-      <c r="H36" s="94"/>
+      <c r="H36" s="99"/>
       <c r="I36" s="7"/>
       <c r="K36" s="11" t="s">
         <v>80</v>
@@ -6743,7 +6761,7 @@
       <c r="L36" s="3">
         <v>255</v>
       </c>
-      <c r="M36" s="99"/>
+      <c r="M36" s="106"/>
       <c r="N36" s="4" t="s">
         <v>19</v>
       </c>
@@ -6753,7 +6771,7 @@
       <c r="Q36" s="48">
         <v>2</v>
       </c>
-      <c r="R36" s="102"/>
+      <c r="R36" s="109"/>
       <c r="S36" s="48" t="s">
         <v>45</v>
       </c>
@@ -6765,7 +6783,7 @@
       <c r="B37" s="6">
         <v>36</v>
       </c>
-      <c r="C37" s="89"/>
+      <c r="C37" s="94"/>
       <c r="D37" s="7"/>
       <c r="F37" s="12" t="s">
         <v>75</v>
@@ -6773,7 +6791,7 @@
       <c r="G37" s="6">
         <v>2</v>
       </c>
-      <c r="H37" s="94"/>
+      <c r="H37" s="99"/>
       <c r="I37" s="7"/>
       <c r="K37" s="11" t="s">
         <v>81</v>
@@ -6781,7 +6799,7 @@
       <c r="L37" s="3">
         <v>0</v>
       </c>
-      <c r="M37" s="99"/>
+      <c r="M37" s="106"/>
       <c r="N37" s="4" t="s">
         <v>23</v>
       </c>
@@ -6791,7 +6809,7 @@
       <c r="Q37" s="48">
         <v>3</v>
       </c>
-      <c r="R37" s="102"/>
+      <c r="R37" s="109"/>
       <c r="S37" s="48" t="s">
         <v>54</v>
       </c>
@@ -6803,7 +6821,7 @@
       <c r="B38" s="6">
         <v>37</v>
       </c>
-      <c r="C38" s="89"/>
+      <c r="C38" s="94"/>
       <c r="D38" s="7"/>
       <c r="F38" s="12" t="s">
         <v>75</v>
@@ -6811,7 +6829,7 @@
       <c r="G38" s="6">
         <v>3</v>
       </c>
-      <c r="H38" s="94"/>
+      <c r="H38" s="99"/>
       <c r="I38" s="7"/>
       <c r="K38" s="12" t="s">
         <v>81</v>
@@ -6819,7 +6837,7 @@
       <c r="L38" s="6">
         <v>1</v>
       </c>
-      <c r="M38" s="99"/>
+      <c r="M38" s="106"/>
       <c r="N38" s="7"/>
       <c r="P38" s="50" t="s">
         <v>65</v>
@@ -6827,7 +6845,7 @@
       <c r="Q38" s="50">
         <v>4</v>
       </c>
-      <c r="R38" s="102"/>
+      <c r="R38" s="109"/>
       <c r="S38" s="44" t="s">
         <v>44</v>
       </c>
@@ -6839,7 +6857,7 @@
       <c r="B39" s="6">
         <v>38</v>
       </c>
-      <c r="C39" s="89"/>
+      <c r="C39" s="94"/>
       <c r="D39" s="7"/>
       <c r="F39" s="12" t="s">
         <v>75</v>
@@ -6847,7 +6865,7 @@
       <c r="G39" s="6">
         <v>4</v>
       </c>
-      <c r="H39" s="94"/>
+      <c r="H39" s="99"/>
       <c r="I39" s="7"/>
       <c r="K39" s="12" t="s">
         <v>81</v>
@@ -6855,7 +6873,7 @@
       <c r="L39" s="6">
         <v>2</v>
       </c>
-      <c r="M39" s="99"/>
+      <c r="M39" s="106"/>
       <c r="N39" s="7"/>
       <c r="P39" s="49" t="s">
         <v>65</v>
@@ -6863,7 +6881,7 @@
       <c r="Q39" s="49">
         <v>5</v>
       </c>
-      <c r="R39" s="102"/>
+      <c r="R39" s="109"/>
       <c r="S39" s="4" t="s">
         <v>19</v>
       </c>
@@ -6875,7 +6893,7 @@
       <c r="B40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="89"/>
+      <c r="C40" s="94"/>
       <c r="D40" s="7"/>
       <c r="F40" s="12" t="s">
         <v>75</v>
@@ -6883,7 +6901,7 @@
       <c r="G40" s="6">
         <v>5</v>
       </c>
-      <c r="H40" s="94"/>
+      <c r="H40" s="99"/>
       <c r="I40" s="7"/>
       <c r="K40" s="42" t="s">
         <v>81</v>
@@ -6891,7 +6909,7 @@
       <c r="L40" s="43">
         <v>254</v>
       </c>
-      <c r="M40" s="99"/>
+      <c r="M40" s="106"/>
       <c r="N40" s="44" t="s">
         <v>44</v>
       </c>
@@ -6901,7 +6919,7 @@
       <c r="Q40" s="49">
         <v>0</v>
       </c>
-      <c r="R40" s="102"/>
+      <c r="R40" s="109"/>
       <c r="S40" s="4" t="s">
         <v>23</v>
       </c>
@@ -6916,7 +6934,7 @@
       <c r="B41" s="6">
         <v>40</v>
       </c>
-      <c r="C41" s="89"/>
+      <c r="C41" s="94"/>
       <c r="D41" s="7"/>
       <c r="F41" s="12" t="s">
         <v>75</v>
@@ -6924,7 +6942,7 @@
       <c r="G41" s="6">
         <v>6</v>
       </c>
-      <c r="H41" s="94"/>
+      <c r="H41" s="99"/>
       <c r="I41" s="7"/>
       <c r="K41" s="11" t="s">
         <v>81</v>
@@ -6932,23 +6950,19 @@
       <c r="L41" s="3">
         <v>255</v>
       </c>
-      <c r="M41" s="99"/>
+      <c r="M41" s="106"/>
       <c r="N41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P41" s="120" t="s">
+      <c r="P41" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="Q41" s="120">
+      <c r="Q41" s="128">
         <v>1</v>
       </c>
-      <c r="R41" s="102"/>
-      <c r="S41" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="T41" s="120" t="s">
-        <v>118</v>
-      </c>
+      <c r="R41" s="109"/>
+      <c r="S41" s="128"/>
+      <c r="T41" s="133"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
@@ -6957,7 +6971,7 @@
       <c r="B42" s="6">
         <v>41</v>
       </c>
-      <c r="C42" s="89"/>
+      <c r="C42" s="94"/>
       <c r="D42" s="7"/>
       <c r="F42" s="12" t="s">
         <v>75</v>
@@ -6965,7 +6979,7 @@
       <c r="G42" s="6">
         <v>7</v>
       </c>
-      <c r="H42" s="94"/>
+      <c r="H42" s="99"/>
       <c r="I42" s="7"/>
       <c r="K42" s="11" t="s">
         <v>82</v>
@@ -6973,21 +6987,19 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="99"/>
+      <c r="M42" s="106"/>
       <c r="N42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P42" s="75" t="s">
+      <c r="P42" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="Q42" s="75">
+      <c r="Q42" s="128">
         <v>2</v>
       </c>
-      <c r="R42" s="102"/>
-      <c r="S42" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="T42" s="121"/>
+      <c r="R42" s="109"/>
+      <c r="S42" s="130"/>
+      <c r="T42" s="132"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
@@ -6996,7 +7008,7 @@
       <c r="B43" s="6">
         <v>42</v>
       </c>
-      <c r="C43" s="89"/>
+      <c r="C43" s="94"/>
       <c r="D43" s="7"/>
       <c r="F43" s="12" t="s">
         <v>75</v>
@@ -7004,7 +7016,7 @@
       <c r="G43" s="6">
         <v>8</v>
       </c>
-      <c r="H43" s="94"/>
+      <c r="H43" s="99"/>
       <c r="I43" s="7"/>
       <c r="K43" s="12" t="s">
         <v>82</v>
@@ -7012,7 +7024,7 @@
       <c r="L43" s="6">
         <v>1</v>
       </c>
-      <c r="M43" s="99"/>
+      <c r="M43" s="106"/>
       <c r="N43" s="7"/>
       <c r="P43" s="75" t="s">
         <v>112</v>
@@ -7020,11 +7032,11 @@
       <c r="Q43" s="75">
         <v>3</v>
       </c>
-      <c r="R43" s="102"/>
+      <c r="R43" s="109"/>
       <c r="S43" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="T43" s="122"/>
+      <c r="T43" s="83"/>
     </row>
     <row r="44" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
@@ -7033,7 +7045,7 @@
       <c r="B44" s="6">
         <v>43</v>
       </c>
-      <c r="C44" s="89"/>
+      <c r="C44" s="94"/>
       <c r="D44" s="7"/>
       <c r="F44" s="12" t="s">
         <v>75</v>
@@ -7041,7 +7053,7 @@
       <c r="G44" s="6">
         <v>9</v>
       </c>
-      <c r="H44" s="94"/>
+      <c r="H44" s="99"/>
       <c r="I44" s="7"/>
       <c r="K44" s="12" t="s">
         <v>82</v>
@@ -7049,7 +7061,7 @@
       <c r="L44" s="6">
         <v>2</v>
       </c>
-      <c r="M44" s="99"/>
+      <c r="M44" s="106"/>
       <c r="N44" s="7"/>
       <c r="P44" s="75" t="s">
         <v>69</v>
@@ -7057,11 +7069,11 @@
       <c r="Q44" s="75">
         <v>4</v>
       </c>
-      <c r="R44" s="102"/>
+      <c r="R44" s="109"/>
       <c r="S44" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="T44" s="122"/>
+      <c r="T44" s="83"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
@@ -7070,7 +7082,7 @@
       <c r="B45" s="6">
         <v>44</v>
       </c>
-      <c r="C45" s="89"/>
+      <c r="C45" s="94"/>
       <c r="D45" s="7"/>
       <c r="F45" s="12" t="s">
         <v>75</v>
@@ -7078,7 +7090,7 @@
       <c r="G45" s="6">
         <v>10</v>
       </c>
-      <c r="H45" s="94"/>
+      <c r="H45" s="99"/>
       <c r="I45" s="7"/>
       <c r="K45" s="42" t="s">
         <v>82</v>
@@ -7086,7 +7098,7 @@
       <c r="L45" s="43">
         <v>254</v>
       </c>
-      <c r="M45" s="99"/>
+      <c r="M45" s="106"/>
       <c r="N45" s="44" t="s">
         <v>44</v>
       </c>
@@ -7096,9 +7108,9 @@
       <c r="Q45" s="75">
         <v>5</v>
       </c>
-      <c r="R45" s="102"/>
+      <c r="R45" s="109"/>
       <c r="S45" s="75"/>
-      <c r="T45" s="122"/>
+      <c r="T45" s="83"/>
     </row>
     <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
@@ -7107,7 +7119,7 @@
       <c r="B46" s="6">
         <v>45</v>
       </c>
-      <c r="C46" s="89"/>
+      <c r="C46" s="94"/>
       <c r="D46" s="7"/>
       <c r="F46" s="42" t="s">
         <v>75</v>
@@ -7115,7 +7127,7 @@
       <c r="G46" s="40">
         <v>254</v>
       </c>
-      <c r="H46" s="94"/>
+      <c r="H46" s="99"/>
       <c r="I46" s="41" t="s">
         <v>95</v>
       </c>
@@ -7125,7 +7137,7 @@
       <c r="L46" s="3">
         <v>255</v>
       </c>
-      <c r="M46" s="100"/>
+      <c r="M46" s="107"/>
       <c r="N46" s="4" t="s">
         <v>19</v>
       </c>
@@ -7135,9 +7147,9 @@
       <c r="Q46" s="75">
         <v>6</v>
       </c>
-      <c r="R46" s="102"/>
-      <c r="S46" s="119"/>
-      <c r="T46" s="122"/>
+      <c r="R46" s="109"/>
+      <c r="S46" s="80"/>
+      <c r="T46" s="83"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
@@ -7146,7 +7158,7 @@
       <c r="B47" s="6">
         <v>46</v>
       </c>
-      <c r="C47" s="89"/>
+      <c r="C47" s="94"/>
       <c r="D47" s="7"/>
       <c r="F47" s="11" t="s">
         <v>75</v>
@@ -7154,7 +7166,7 @@
       <c r="G47" s="3">
         <v>255</v>
       </c>
-      <c r="H47" s="95"/>
+      <c r="H47" s="100"/>
       <c r="I47" s="4" t="s">
         <v>19</v>
       </c>
@@ -7164,11 +7176,11 @@
       <c r="Q47" s="49">
         <v>7</v>
       </c>
-      <c r="R47" s="102"/>
+      <c r="R47" s="109"/>
       <c r="S47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T47" s="122"/>
+      <c r="T47" s="83"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
@@ -7177,7 +7189,7 @@
       <c r="B48" s="6">
         <v>47</v>
       </c>
-      <c r="C48" s="89"/>
+      <c r="C48" s="94"/>
       <c r="D48" s="7"/>
       <c r="P48" s="77" t="s">
         <v>69</v>
@@ -7185,11 +7197,11 @@
       <c r="Q48" s="77">
         <v>8</v>
       </c>
-      <c r="R48" s="102"/>
+      <c r="R48" s="109"/>
       <c r="S48" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="T48" s="121" t="s">
+      <c r="T48" s="82" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7200,7 +7212,7 @@
       <c r="B49" s="6">
         <v>48</v>
       </c>
-      <c r="C49" s="89"/>
+      <c r="C49" s="94"/>
       <c r="D49" s="7"/>
       <c r="P49" s="75" t="s">
         <v>69</v>
@@ -7208,11 +7220,11 @@
       <c r="Q49" s="75">
         <v>9</v>
       </c>
-      <c r="R49" s="102"/>
+      <c r="R49" s="109"/>
       <c r="S49" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="T49" s="122"/>
+      <c r="T49" s="83"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
@@ -7221,7 +7233,7 @@
       <c r="B50" s="6">
         <v>49</v>
       </c>
-      <c r="C50" s="89"/>
+      <c r="C50" s="94"/>
       <c r="D50" s="7"/>
       <c r="P50" s="75" t="s">
         <v>69</v>
@@ -7229,11 +7241,11 @@
       <c r="Q50" s="75">
         <v>10</v>
       </c>
-      <c r="R50" s="102"/>
+      <c r="R50" s="109"/>
       <c r="S50" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="T50" s="122"/>
+      <c r="T50" s="83"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
@@ -7242,7 +7254,7 @@
       <c r="B51" s="6">
         <v>50</v>
       </c>
-      <c r="C51" s="89"/>
+      <c r="C51" s="94"/>
       <c r="D51" s="7"/>
       <c r="P51" s="77" t="s">
         <v>69</v>
@@ -7250,11 +7262,11 @@
       <c r="Q51" s="77">
         <v>11</v>
       </c>
-      <c r="R51" s="102"/>
+      <c r="R51" s="109"/>
       <c r="S51" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="T51" s="123"/>
+      <c r="T51" s="84"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
@@ -7263,7 +7275,7 @@
       <c r="B52" s="40">
         <v>254</v>
       </c>
-      <c r="C52" s="89"/>
+      <c r="C52" s="94"/>
       <c r="D52" s="41" t="s">
         <v>91</v>
       </c>
@@ -7273,11 +7285,11 @@
       <c r="Q52" s="77">
         <v>12</v>
       </c>
-      <c r="R52" s="102"/>
+      <c r="R52" s="109"/>
       <c r="S52" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="T52" s="122" t="s">
+      <c r="T52" s="83" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7288,7 +7300,7 @@
       <c r="B53" s="3">
         <v>255</v>
       </c>
-      <c r="C53" s="89"/>
+      <c r="C53" s="94"/>
       <c r="D53" s="4" t="s">
         <v>19</v>
       </c>
@@ -7298,11 +7310,11 @@
       <c r="Q53" s="75">
         <v>13</v>
       </c>
-      <c r="R53" s="102"/>
+      <c r="R53" s="109"/>
       <c r="S53" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="T53" s="122"/>
+      <c r="T53" s="83"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
@@ -7311,7 +7323,7 @@
       <c r="B54" s="3">
         <v>0</v>
       </c>
-      <c r="C54" s="89"/>
+      <c r="C54" s="94"/>
       <c r="D54" s="4" t="s">
         <v>23</v>
       </c>
@@ -7321,11 +7333,11 @@
       <c r="Q54" s="75">
         <v>14</v>
       </c>
-      <c r="R54" s="102"/>
+      <c r="R54" s="109"/>
       <c r="S54" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="T54" s="122"/>
+      <c r="T54" s="83"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
@@ -7334,7 +7346,7 @@
       <c r="B55" s="6">
         <v>1</v>
       </c>
-      <c r="C55" s="89"/>
+      <c r="C55" s="94"/>
       <c r="D55" s="7"/>
       <c r="P55" s="77" t="s">
         <v>69</v>
@@ -7342,11 +7354,11 @@
       <c r="Q55" s="77">
         <v>15</v>
       </c>
-      <c r="R55" s="102"/>
+      <c r="R55" s="109"/>
       <c r="S55" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="T55" s="123"/>
+      <c r="T55" s="84"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
@@ -7355,7 +7367,7 @@
       <c r="B56" s="6">
         <v>2</v>
       </c>
-      <c r="C56" s="89"/>
+      <c r="C56" s="94"/>
       <c r="D56" s="7"/>
       <c r="P56" s="49" t="s">
         <v>72</v>
@@ -7363,7 +7375,7 @@
       <c r="Q56" s="49">
         <v>0</v>
       </c>
-      <c r="R56" s="102"/>
+      <c r="R56" s="109"/>
       <c r="S56" s="4" t="s">
         <v>23</v>
       </c>
@@ -7375,21 +7387,17 @@
       <c r="B57" s="6">
         <v>3</v>
       </c>
-      <c r="C57" s="89"/>
+      <c r="C57" s="94"/>
       <c r="D57" s="7"/>
-      <c r="P57" s="120" t="s">
+      <c r="P57" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="Q57" s="120">
+      <c r="Q57" s="128">
         <v>1</v>
       </c>
-      <c r="R57" s="102"/>
-      <c r="S57" s="120" t="s">
-        <v>117</v>
-      </c>
-      <c r="T57" s="120" t="s">
-        <v>118</v>
-      </c>
+      <c r="R57" s="109"/>
+      <c r="S57" s="130"/>
+      <c r="T57" s="131"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -7398,7 +7406,7 @@
       <c r="B58" s="6">
         <v>4</v>
       </c>
-      <c r="C58" s="89"/>
+      <c r="C58" s="94"/>
       <c r="D58" s="7"/>
       <c r="P58" s="48" t="s">
         <v>72</v>
@@ -7406,7 +7414,7 @@
       <c r="Q58" s="48">
         <v>2</v>
       </c>
-      <c r="R58" s="102"/>
+      <c r="R58" s="109"/>
       <c r="S58" s="48" t="s">
         <v>46</v>
       </c>
@@ -7418,7 +7426,7 @@
       <c r="B59" s="6">
         <v>5</v>
       </c>
-      <c r="C59" s="89"/>
+      <c r="C59" s="94"/>
       <c r="D59" s="7"/>
       <c r="P59" s="48" t="s">
         <v>72</v>
@@ -7426,7 +7434,7 @@
       <c r="Q59" s="48">
         <v>3</v>
       </c>
-      <c r="R59" s="102"/>
+      <c r="R59" s="109"/>
       <c r="S59" s="48" t="s">
         <v>55</v>
       </c>
@@ -7438,7 +7446,7 @@
       <c r="B60" s="6">
         <v>6</v>
       </c>
-      <c r="C60" s="89"/>
+      <c r="C60" s="94"/>
       <c r="D60" s="7"/>
       <c r="P60" s="50" t="s">
         <v>72</v>
@@ -7446,7 +7454,7 @@
       <c r="Q60" s="50">
         <v>254</v>
       </c>
-      <c r="R60" s="102"/>
+      <c r="R60" s="109"/>
       <c r="S60" s="44" t="s">
         <v>44</v>
       </c>
@@ -7458,7 +7466,7 @@
       <c r="B61" s="6">
         <v>7</v>
       </c>
-      <c r="C61" s="89"/>
+      <c r="C61" s="94"/>
       <c r="D61" s="7"/>
       <c r="P61" s="49" t="s">
         <v>72</v>
@@ -7466,7 +7474,7 @@
       <c r="Q61" s="49">
         <v>255</v>
       </c>
-      <c r="R61" s="102"/>
+      <c r="R61" s="109"/>
       <c r="S61" s="4" t="s">
         <v>19</v>
       </c>
@@ -7478,7 +7486,7 @@
       <c r="B62" s="6">
         <v>8</v>
       </c>
-      <c r="C62" s="89"/>
+      <c r="C62" s="94"/>
       <c r="D62" s="7"/>
       <c r="P62" s="49" t="s">
         <v>113</v>
@@ -7486,7 +7494,7 @@
       <c r="Q62" s="49">
         <v>0</v>
       </c>
-      <c r="R62" s="102"/>
+      <c r="R62" s="109"/>
       <c r="S62" s="4" t="s">
         <v>23</v>
       </c>
@@ -7499,7 +7507,7 @@
       <c r="B63" s="6">
         <v>9</v>
       </c>
-      <c r="C63" s="89"/>
+      <c r="C63" s="94"/>
       <c r="D63" s="7"/>
       <c r="P63" s="48" t="s">
         <v>113</v>
@@ -7507,7 +7515,7 @@
       <c r="Q63" s="48">
         <v>1</v>
       </c>
-      <c r="R63" s="102"/>
+      <c r="R63" s="109"/>
       <c r="S63" s="48" t="s">
         <v>114</v>
       </c>
@@ -7522,7 +7530,7 @@
       <c r="B64" s="6">
         <v>10</v>
       </c>
-      <c r="C64" s="89"/>
+      <c r="C64" s="94"/>
       <c r="D64" s="7"/>
       <c r="P64" s="48" t="s">
         <v>113</v>
@@ -7530,7 +7538,7 @@
       <c r="Q64" s="48">
         <v>2</v>
       </c>
-      <c r="R64" s="102"/>
+      <c r="R64" s="109"/>
       <c r="S64" s="48" t="s">
         <v>115</v>
       </c>
@@ -7543,7 +7551,7 @@
       <c r="B65" s="6">
         <v>11</v>
       </c>
-      <c r="C65" s="89"/>
+      <c r="C65" s="94"/>
       <c r="D65" s="7"/>
       <c r="P65" s="49" t="s">
         <v>113</v>
@@ -7551,7 +7559,7 @@
       <c r="Q65" s="49">
         <v>3</v>
       </c>
-      <c r="R65" s="102"/>
+      <c r="R65" s="109"/>
       <c r="S65" s="4" t="s">
         <v>19</v>
       </c>
@@ -7564,8 +7572,21 @@
       <c r="B66" s="6">
         <v>12</v>
       </c>
-      <c r="C66" s="89"/>
+      <c r="C66" s="94"/>
       <c r="D66" s="7"/>
+      <c r="P66" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q66" s="129">
+        <v>1</v>
+      </c>
+      <c r="R66" s="109"/>
+      <c r="S66" s="129" t="s">
+        <v>67</v>
+      </c>
+      <c r="T66" s="129" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
@@ -7574,8 +7595,21 @@
       <c r="B67" s="6">
         <v>13</v>
       </c>
-      <c r="C67" s="89"/>
+      <c r="C67" s="94"/>
       <c r="D67" s="7"/>
+      <c r="P67" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q67" s="129">
+        <v>2</v>
+      </c>
+      <c r="R67" s="109"/>
+      <c r="S67" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="T67" s="129" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
@@ -7584,8 +7618,21 @@
       <c r="B68" s="6">
         <v>14</v>
       </c>
-      <c r="C68" s="89"/>
+      <c r="C68" s="94"/>
       <c r="D68" s="7"/>
+      <c r="P68" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q68" s="81">
+        <v>1</v>
+      </c>
+      <c r="R68" s="109"/>
+      <c r="S68" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="T68" s="81" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
@@ -7594,8 +7641,21 @@
       <c r="B69" s="6">
         <v>15</v>
       </c>
-      <c r="C69" s="89"/>
+      <c r="C69" s="94"/>
       <c r="D69" s="7"/>
+      <c r="P69" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q69" s="81">
+        <v>1</v>
+      </c>
+      <c r="R69" s="109"/>
+      <c r="S69" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="T69" s="81" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
@@ -7604,8 +7664,21 @@
       <c r="B70" s="6">
         <v>16</v>
       </c>
-      <c r="C70" s="89"/>
+      <c r="C70" s="94"/>
       <c r="D70" s="7"/>
+      <c r="P70" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q70" s="81">
+        <v>2</v>
+      </c>
+      <c r="R70" s="109"/>
+      <c r="S70" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="T70" s="81" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
@@ -7614,10 +7687,23 @@
       <c r="B71" s="6">
         <v>17</v>
       </c>
-      <c r="C71" s="89"/>
+      <c r="C71" s="94"/>
       <c r="D71" s="7"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
+      <c r="P71" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q71" s="81">
+        <v>1</v>
+      </c>
+      <c r="R71" s="109"/>
+      <c r="S71" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="T71" s="81" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
@@ -7626,7 +7712,7 @@
       <c r="B72" s="6">
         <v>18</v>
       </c>
-      <c r="C72" s="89"/>
+      <c r="C72" s="94"/>
       <c r="D72" s="7"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -7638,7 +7724,7 @@
       <c r="B73" s="6">
         <v>19</v>
       </c>
-      <c r="C73" s="89"/>
+      <c r="C73" s="94"/>
       <c r="D73" s="7"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -7650,7 +7736,7 @@
       <c r="B74" s="6">
         <v>20</v>
       </c>
-      <c r="C74" s="89"/>
+      <c r="C74" s="94"/>
       <c r="D74" s="7"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -7662,7 +7748,7 @@
       <c r="B75" s="6">
         <v>21</v>
       </c>
-      <c r="C75" s="89"/>
+      <c r="C75" s="94"/>
       <c r="D75" s="7"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -7674,7 +7760,7 @@
       <c r="B76" s="6">
         <v>22</v>
       </c>
-      <c r="C76" s="89"/>
+      <c r="C76" s="94"/>
       <c r="D76" s="7"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -7686,7 +7772,7 @@
       <c r="B77" s="6">
         <v>23</v>
       </c>
-      <c r="C77" s="89"/>
+      <c r="C77" s="94"/>
       <c r="D77" s="7"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -7698,7 +7784,7 @@
       <c r="B78" s="6">
         <v>24</v>
       </c>
-      <c r="C78" s="89"/>
+      <c r="C78" s="94"/>
       <c r="D78" s="7"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -7710,7 +7796,7 @@
       <c r="B79" s="6">
         <v>25</v>
       </c>
-      <c r="C79" s="89"/>
+      <c r="C79" s="94"/>
       <c r="D79" s="7"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -7722,7 +7808,7 @@
       <c r="B80" s="6">
         <v>26</v>
       </c>
-      <c r="C80" s="89"/>
+      <c r="C80" s="94"/>
       <c r="D80" s="7"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -7734,7 +7820,7 @@
       <c r="B81" s="6">
         <v>27</v>
       </c>
-      <c r="C81" s="89"/>
+      <c r="C81" s="94"/>
       <c r="D81" s="7"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -7746,7 +7832,7 @@
       <c r="B82" s="6">
         <v>28</v>
       </c>
-      <c r="C82" s="89"/>
+      <c r="C82" s="94"/>
       <c r="D82" s="7"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -7758,7 +7844,7 @@
       <c r="B83" s="6">
         <v>29</v>
       </c>
-      <c r="C83" s="89"/>
+      <c r="C83" s="94"/>
       <c r="D83" s="7"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -7770,7 +7856,7 @@
       <c r="B84" s="6">
         <v>30</v>
       </c>
-      <c r="C84" s="89"/>
+      <c r="C84" s="94"/>
       <c r="D84" s="7"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
@@ -7782,7 +7868,7 @@
       <c r="B85" s="22">
         <v>31</v>
       </c>
-      <c r="C85" s="89"/>
+      <c r="C85" s="94"/>
       <c r="D85" s="7"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
@@ -7794,7 +7880,7 @@
       <c r="B86" s="6">
         <v>32</v>
       </c>
-      <c r="C86" s="89"/>
+      <c r="C86" s="94"/>
       <c r="D86" s="7"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -7806,7 +7892,7 @@
       <c r="B87" s="6">
         <v>33</v>
       </c>
-      <c r="C87" s="89"/>
+      <c r="C87" s="94"/>
       <c r="D87" s="7"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
@@ -7818,7 +7904,7 @@
       <c r="B88" s="22">
         <v>34</v>
       </c>
-      <c r="C88" s="89"/>
+      <c r="C88" s="94"/>
       <c r="D88" s="7"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -7830,7 +7916,7 @@
       <c r="B89" s="6">
         <v>35</v>
       </c>
-      <c r="C89" s="89"/>
+      <c r="C89" s="94"/>
       <c r="D89" s="7"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -7842,7 +7928,7 @@
       <c r="B90" s="6">
         <v>36</v>
       </c>
-      <c r="C90" s="89"/>
+      <c r="C90" s="94"/>
       <c r="D90" s="7"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -7854,7 +7940,7 @@
       <c r="B91" s="22">
         <v>37</v>
       </c>
-      <c r="C91" s="89"/>
+      <c r="C91" s="94"/>
       <c r="D91" s="7"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -7866,7 +7952,7 @@
       <c r="B92" s="6">
         <v>38</v>
       </c>
-      <c r="C92" s="89"/>
+      <c r="C92" s="94"/>
       <c r="D92" s="7"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -7878,7 +7964,7 @@
       <c r="B93" s="6">
         <v>39</v>
       </c>
-      <c r="C93" s="89"/>
+      <c r="C93" s="94"/>
       <c r="D93" s="7"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
@@ -7890,7 +7976,7 @@
       <c r="B94" s="22">
         <v>40</v>
       </c>
-      <c r="C94" s="89"/>
+      <c r="C94" s="94"/>
       <c r="D94" s="7"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -7902,7 +7988,7 @@
       <c r="B95" s="40">
         <v>254</v>
       </c>
-      <c r="C95" s="89"/>
+      <c r="C95" s="94"/>
       <c r="D95" s="41" t="s">
         <v>92</v>
       </c>
@@ -7916,7 +8002,7 @@
       <c r="B96" s="3">
         <v>255</v>
       </c>
-      <c r="C96" s="89"/>
+      <c r="C96" s="94"/>
       <c r="D96" s="4" t="s">
         <v>19</v>
       </c>
@@ -7930,7 +8016,7 @@
       <c r="B97" s="3">
         <v>0</v>
       </c>
-      <c r="C97" s="89"/>
+      <c r="C97" s="94"/>
       <c r="D97" s="4" t="s">
         <v>23</v>
       </c>
@@ -7944,7 +8030,7 @@
       <c r="B98" s="6">
         <v>1</v>
       </c>
-      <c r="C98" s="89"/>
+      <c r="C98" s="94"/>
       <c r="D98" s="7"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
@@ -7956,7 +8042,7 @@
       <c r="B99" s="6">
         <v>2</v>
       </c>
-      <c r="C99" s="89"/>
+      <c r="C99" s="94"/>
       <c r="D99" s="7"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
@@ -7968,7 +8054,7 @@
       <c r="B100" s="6">
         <v>3</v>
       </c>
-      <c r="C100" s="89"/>
+      <c r="C100" s="94"/>
       <c r="D100" s="7"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -7980,7 +8066,7 @@
       <c r="B101" s="6">
         <v>4</v>
       </c>
-      <c r="C101" s="89"/>
+      <c r="C101" s="94"/>
       <c r="D101" s="7"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
@@ -7992,7 +8078,7 @@
       <c r="B102" s="6">
         <v>5</v>
       </c>
-      <c r="C102" s="89"/>
+      <c r="C102" s="94"/>
       <c r="D102" s="7"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
@@ -8004,7 +8090,7 @@
       <c r="B103" s="6">
         <v>6</v>
       </c>
-      <c r="C103" s="89"/>
+      <c r="C103" s="94"/>
       <c r="D103" s="7"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
@@ -8016,7 +8102,7 @@
       <c r="B104" s="40">
         <v>254</v>
       </c>
-      <c r="C104" s="89"/>
+      <c r="C104" s="94"/>
       <c r="D104" s="41" t="s">
         <v>93</v>
       </c>
@@ -8030,7 +8116,7 @@
       <c r="B105" s="31">
         <v>255</v>
       </c>
-      <c r="C105" s="89"/>
+      <c r="C105" s="94"/>
       <c r="D105" s="32" t="s">
         <v>19</v>
       </c>
@@ -8280,8 +8366,8 @@
     <mergeCell ref="M1:M21"/>
     <mergeCell ref="R8:R12"/>
     <mergeCell ref="M32:M46"/>
-    <mergeCell ref="R13:R65"/>
     <mergeCell ref="R1:R7"/>
+    <mergeCell ref="R13:R71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8333,7 +8419,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="93" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -8343,7 +8429,7 @@
         <v>40</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="95" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -8353,7 +8439,7 @@
         <v>87</v>
       </c>
       <c r="L1" s="3"/>
-      <c r="M1" s="104" t="s">
+      <c r="M1" s="112" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -8363,7 +8449,7 @@
         <v>102</v>
       </c>
       <c r="Q1" s="3"/>
-      <c r="R1" s="85" t="s">
+      <c r="R1" s="110" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -8378,7 +8464,7 @@
         <f>DEC2HEX('ipv4'!B2)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="89"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="73"/>
       <c r="F2" s="12" t="s">
         <v>40</v>
@@ -8387,7 +8473,7 @@
         <f>DEC2HEX('ipv4'!G2)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="91"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="73"/>
       <c r="K2" s="12" t="s">
         <v>87</v>
@@ -8396,7 +8482,7 @@
         <f>DEC2HEX('ipv4'!L2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="105"/>
+      <c r="M2" s="113"/>
       <c r="N2" s="73"/>
       <c r="P2" s="12" t="s">
         <v>102</v>
@@ -8405,18 +8491,18 @@
         <f>DEC2HEX('ipv4'!Q2)</f>
         <v>1</v>
       </c>
-      <c r="R2" s="86"/>
+      <c r="R2" s="103"/>
       <c r="S2" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="79" t="s">
+      <c r="AA2" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="81"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="89"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -8426,7 +8512,7 @@
         <f>DEC2HEX('ipv4'!B3)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="89"/>
+      <c r="C3" s="94"/>
       <c r="D3" s="73"/>
       <c r="F3" s="12" t="s">
         <v>40</v>
@@ -8435,7 +8521,7 @@
         <f>DEC2HEX('ipv4'!G3)</f>
         <v>2</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="73"/>
       <c r="K3" s="12" t="s">
         <v>87</v>
@@ -8444,7 +8530,7 @@
         <f>DEC2HEX('ipv4'!L3)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="105"/>
+      <c r="M3" s="113"/>
       <c r="N3" s="73"/>
       <c r="P3" s="12" t="s">
         <v>102</v>
@@ -8453,7 +8539,7 @@
         <f>DEC2HEX('ipv4'!Q3)</f>
         <v>2</v>
       </c>
-      <c r="R3" s="86"/>
+      <c r="R3" s="103"/>
       <c r="S3" s="73" t="s">
         <v>35</v>
       </c>
@@ -8484,7 +8570,7 @@
         <f>DEC2HEX('ipv4'!B4)</f>
         <v>3</v>
       </c>
-      <c r="C4" s="89"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="73"/>
       <c r="F4" s="12" t="s">
         <v>40</v>
@@ -8493,7 +8579,7 @@
         <f>DEC2HEX('ipv4'!G4)</f>
         <v>3</v>
       </c>
-      <c r="H4" s="91"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="73"/>
       <c r="K4" s="12" t="s">
         <v>87</v>
@@ -8502,7 +8588,7 @@
         <f>DEC2HEX('ipv4'!L4)</f>
         <v>3</v>
       </c>
-      <c r="M4" s="105"/>
+      <c r="M4" s="113"/>
       <c r="N4" s="73"/>
       <c r="P4" s="12" t="s">
         <v>102</v>
@@ -8511,7 +8597,7 @@
         <f>DEC2HEX('ipv4'!Q4)</f>
         <v>3</v>
       </c>
-      <c r="R4" s="86"/>
+      <c r="R4" s="103"/>
       <c r="S4" s="73"/>
       <c r="AA4" s="57">
         <v>2001</v>
@@ -8540,7 +8626,7 @@
         <f>DEC2HEX('ipv4'!B5)</f>
         <v>4</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="94"/>
       <c r="D5" s="73"/>
       <c r="F5" s="12" t="s">
         <v>40</v>
@@ -8549,7 +8635,7 @@
         <f>DEC2HEX('ipv4'!G5)</f>
         <v>4</v>
       </c>
-      <c r="H5" s="91"/>
+      <c r="H5" s="96"/>
       <c r="I5" s="73"/>
       <c r="K5" s="12" t="s">
         <v>87</v>
@@ -8558,7 +8644,7 @@
         <f>DEC2HEX('ipv4'!L5)</f>
         <v>4</v>
       </c>
-      <c r="M5" s="105"/>
+      <c r="M5" s="113"/>
       <c r="N5" s="73"/>
       <c r="P5" s="12" t="s">
         <v>102</v>
@@ -8567,7 +8653,7 @@
         <f>DEC2HEX('ipv4'!Q5)</f>
         <v>4</v>
       </c>
-      <c r="R5" s="86"/>
+      <c r="R5" s="103"/>
       <c r="S5" s="73"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -8578,7 +8664,7 @@
         <f>DEC2HEX('ipv4'!B6)</f>
         <v>5</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="73"/>
       <c r="F6" s="12" t="s">
         <v>40</v>
@@ -8587,13 +8673,13 @@
         <f>DEC2HEX('ipv4'!G6)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="91"/>
+      <c r="H6" s="96"/>
       <c r="I6" s="73"/>
       <c r="K6" s="11" t="s">
         <v>96</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="105"/>
+      <c r="M6" s="113"/>
       <c r="N6" s="4" t="s">
         <v>23</v>
       </c>
@@ -8601,14 +8687,14 @@
         <v>103</v>
       </c>
       <c r="Q6" s="67"/>
-      <c r="R6" s="86"/>
+      <c r="R6" s="103"/>
       <c r="S6" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="83" t="s">
+      <c r="AA6" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="84"/>
+      <c r="AB6" s="92"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -8618,7 +8704,7 @@
         <f>DEC2HEX('ipv4'!B7)</f>
         <v>6</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="73"/>
       <c r="F7" s="12" t="s">
         <v>40</v>
@@ -8627,7 +8713,7 @@
         <f>DEC2HEX('ipv4'!G7)</f>
         <v>6</v>
       </c>
-      <c r="H7" s="91"/>
+      <c r="H7" s="96"/>
       <c r="I7" s="73"/>
       <c r="K7" s="12" t="s">
         <v>96</v>
@@ -8636,7 +8722,7 @@
         <f>DEC2HEX('ipv4'!L9)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="105"/>
+      <c r="M7" s="113"/>
       <c r="N7" s="73"/>
       <c r="P7" s="12" t="s">
         <v>103</v>
@@ -8645,7 +8731,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R7" s="86"/>
+      <c r="R7" s="103"/>
       <c r="S7" s="73"/>
       <c r="AA7" s="55" t="s">
         <v>42</v>
@@ -8662,7 +8748,7 @@
         <f>DEC2HEX('ipv4'!B8)</f>
         <v>7</v>
       </c>
-      <c r="C8" s="89"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="73"/>
       <c r="F8" s="12" t="s">
         <v>40</v>
@@ -8671,7 +8757,7 @@
         <f>DEC2HEX('ipv4'!G8)</f>
         <v>7</v>
       </c>
-      <c r="H8" s="91"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="73"/>
       <c r="K8" s="12" t="s">
         <v>96</v>
@@ -8680,7 +8766,7 @@
         <f>DEC2HEX('ipv4'!L10)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="105"/>
+      <c r="M8" s="113"/>
       <c r="N8" s="73"/>
       <c r="P8" s="12" t="s">
         <v>103</v>
@@ -8689,7 +8775,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R8" s="86"/>
+      <c r="R8" s="103"/>
       <c r="S8" s="73"/>
       <c r="AA8" s="55" t="s">
         <v>43</v>
@@ -8706,7 +8792,7 @@
         <f>DEC2HEX('ipv4'!B9)</f>
         <v>8</v>
       </c>
-      <c r="C9" s="89"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="73"/>
       <c r="F9" s="12" t="s">
         <v>40</v>
@@ -8715,7 +8801,7 @@
         <f>DEC2HEX('ipv4'!G9)</f>
         <v>8</v>
       </c>
-      <c r="H9" s="91"/>
+      <c r="H9" s="96"/>
       <c r="I9" s="73"/>
       <c r="K9" s="12" t="s">
         <v>96</v>
@@ -8724,13 +8810,13 @@
         <f>DEC2HEX('ipv4'!L11)</f>
         <v>3</v>
       </c>
-      <c r="M9" s="105"/>
+      <c r="M9" s="113"/>
       <c r="N9" s="73"/>
       <c r="P9" s="66" t="s">
         <v>104</v>
       </c>
       <c r="Q9" s="67"/>
-      <c r="R9" s="86"/>
+      <c r="R9" s="103"/>
       <c r="S9" s="68" t="s">
         <v>23</v>
       </c>
@@ -8749,7 +8835,7 @@
         <f>DEC2HEX('ipv4'!B10)</f>
         <v>9</v>
       </c>
-      <c r="C10" s="89"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="73"/>
       <c r="F10" s="12" t="s">
         <v>40</v>
@@ -8758,7 +8844,7 @@
         <f>DEC2HEX('ipv4'!G10)</f>
         <v>9</v>
       </c>
-      <c r="H10" s="91"/>
+      <c r="H10" s="96"/>
       <c r="I10" s="73"/>
       <c r="K10" s="12" t="s">
         <v>96</v>
@@ -8767,7 +8853,7 @@
         <f>DEC2HEX('ipv4'!L12)</f>
         <v>4</v>
       </c>
-      <c r="M10" s="105"/>
+      <c r="M10" s="113"/>
       <c r="N10" s="73"/>
       <c r="P10" s="12" t="s">
         <v>104</v>
@@ -8776,7 +8862,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R10" s="86"/>
+      <c r="R10" s="103"/>
       <c r="S10" s="73"/>
       <c r="AA10" s="56" t="s">
         <v>85</v>
@@ -8793,7 +8879,7 @@
         <f>DEC2HEX('ipv4'!B11)</f>
         <v>A</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="73"/>
       <c r="F11" s="12" t="s">
         <v>40</v>
@@ -8802,13 +8888,13 @@
         <f>DEC2HEX('ipv4'!G11)</f>
         <v>A</v>
       </c>
-      <c r="H11" s="91"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="73"/>
       <c r="K11" s="11" t="s">
         <v>97</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="105"/>
+      <c r="M11" s="113"/>
       <c r="N11" s="4" t="s">
         <v>23</v>
       </c>
@@ -8819,7 +8905,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R11" s="86"/>
+      <c r="R11" s="103"/>
       <c r="S11" s="73"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -8830,7 +8916,7 @@
         <f>DEC2HEX('ipv4'!B12)</f>
         <v>B</v>
       </c>
-      <c r="C12" s="89"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="73"/>
       <c r="F12" s="12" t="s">
         <v>40</v>
@@ -8839,7 +8925,7 @@
         <f>DEC2HEX('ipv4'!G12)</f>
         <v>B</v>
       </c>
-      <c r="H12" s="91"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="73"/>
       <c r="K12" s="12" t="s">
         <v>97</v>
@@ -8848,13 +8934,13 @@
         <f>DEC2HEX('ipv4'!L16)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="105"/>
+      <c r="M12" s="113"/>
       <c r="N12" s="73"/>
       <c r="P12" s="66" t="s">
         <v>105</v>
       </c>
       <c r="Q12" s="67"/>
-      <c r="R12" s="86"/>
+      <c r="R12" s="103"/>
       <c r="S12" s="68" t="s">
         <v>23</v>
       </c>
@@ -8871,7 +8957,7 @@
         <f>DEC2HEX('ipv4'!B13)</f>
         <v>C</v>
       </c>
-      <c r="C13" s="89"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="73"/>
       <c r="F13" s="12" t="s">
         <v>40</v>
@@ -8880,7 +8966,7 @@
         <f>DEC2HEX('ipv4'!G13)</f>
         <v>C</v>
       </c>
-      <c r="H13" s="91"/>
+      <c r="H13" s="96"/>
       <c r="I13" s="73"/>
       <c r="K13" s="12" t="s">
         <v>97</v>
@@ -8889,7 +8975,7 @@
         <f>DEC2HEX('ipv4'!L17)</f>
         <v>2</v>
       </c>
-      <c r="M13" s="105"/>
+      <c r="M13" s="113"/>
       <c r="N13" s="73"/>
       <c r="P13" s="12" t="s">
         <v>105</v>
@@ -8898,7 +8984,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R13" s="86"/>
+      <c r="R13" s="103"/>
       <c r="S13" s="73"/>
       <c r="AA13" s="52"/>
       <c r="AB13" s="53"/>
@@ -8913,7 +8999,7 @@
         <f>DEC2HEX('ipv4'!B14)</f>
         <v>D</v>
       </c>
-      <c r="C14" s="89"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="73"/>
       <c r="F14" s="12" t="s">
         <v>40</v>
@@ -8922,7 +9008,7 @@
         <f>DEC2HEX('ipv4'!G14)</f>
         <v>D</v>
       </c>
-      <c r="H14" s="91"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="73"/>
       <c r="K14" s="12" t="s">
         <v>97</v>
@@ -8931,7 +9017,7 @@
         <f>DEC2HEX('ipv4'!L18)</f>
         <v>3</v>
       </c>
-      <c r="M14" s="105"/>
+      <c r="M14" s="113"/>
       <c r="N14" s="73"/>
       <c r="P14" s="12" t="s">
         <v>105</v>
@@ -8940,7 +9026,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R14" s="87"/>
+      <c r="R14" s="104"/>
       <c r="S14" s="73"/>
       <c r="AA14" s="54"/>
       <c r="AB14" s="54"/>
@@ -8955,7 +9041,7 @@
         <f>DEC2HEX('ipv4'!B15)</f>
         <v>E</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="73"/>
       <c r="F15" s="12" t="s">
         <v>40</v>
@@ -8964,7 +9050,7 @@
         <f>DEC2HEX('ipv4'!G15)</f>
         <v>E</v>
       </c>
-      <c r="H15" s="91"/>
+      <c r="H15" s="96"/>
       <c r="I15" s="73"/>
       <c r="K15" s="12" t="s">
         <v>97</v>
@@ -8973,13 +9059,13 @@
         <f>DEC2HEX('ipv4'!L19)</f>
         <v>4</v>
       </c>
-      <c r="M15" s="106"/>
+      <c r="M15" s="114"/>
       <c r="N15" s="73"/>
       <c r="P15" s="66" t="s">
         <v>106</v>
       </c>
       <c r="Q15" s="67"/>
-      <c r="R15" s="86" t="s">
+      <c r="R15" s="103" t="s">
         <v>20</v>
       </c>
       <c r="S15" s="68" t="s">
@@ -8998,7 +9084,7 @@
         <f>DEC2HEX('ipv4'!B16)</f>
         <v>F</v>
       </c>
-      <c r="C16" s="89"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="73"/>
       <c r="F16" s="12" t="s">
         <v>40</v>
@@ -9007,7 +9093,7 @@
         <f>DEC2HEX('ipv4'!G16)</f>
         <v>F</v>
       </c>
-      <c r="H16" s="91"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="73"/>
       <c r="M16" s="45"/>
       <c r="P16" s="12" t="s">
@@ -9017,7 +9103,7 @@
         <f>DEC2HEX('ipv4'!Q9)</f>
         <v>1</v>
       </c>
-      <c r="R16" s="86"/>
+      <c r="R16" s="103"/>
       <c r="S16" s="73" t="s">
         <v>21</v>
       </c>
@@ -9034,7 +9120,7 @@
         <f>DEC2HEX('ipv4'!B17)</f>
         <v>10</v>
       </c>
-      <c r="C17" s="89"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="73"/>
       <c r="F17" s="12" t="s">
         <v>40</v>
@@ -9043,13 +9129,13 @@
         <f>DEC2HEX('ipv4'!G17)</f>
         <v>10</v>
       </c>
-      <c r="H17" s="91"/>
+      <c r="H17" s="96"/>
       <c r="I17" s="73"/>
       <c r="K17" s="11" t="s">
         <v>98</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="111" t="s">
+      <c r="M17" s="119" t="s">
         <v>16</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -9062,7 +9148,7 @@
         <f>DEC2HEX('ipv4'!Q10)</f>
         <v>2</v>
       </c>
-      <c r="R17" s="87"/>
+      <c r="R17" s="104"/>
       <c r="S17" s="73" t="s">
         <v>22</v>
       </c>
@@ -9079,7 +9165,7 @@
         <f>DEC2HEX('ipv4'!B18)</f>
         <v>11</v>
       </c>
-      <c r="C18" s="89"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="73"/>
       <c r="F18" s="12" t="s">
         <v>40</v>
@@ -9088,7 +9174,7 @@
         <f>DEC2HEX('ipv4'!G18)</f>
         <v>11</v>
       </c>
-      <c r="H18" s="91"/>
+      <c r="H18" s="96"/>
       <c r="I18" s="73"/>
       <c r="K18" s="12" t="s">
         <v>98</v>
@@ -9097,7 +9183,7 @@
         <f>DEC2HEX('ipv4'!L24)</f>
         <v>1</v>
       </c>
-      <c r="M18" s="112"/>
+      <c r="M18" s="120"/>
       <c r="N18" s="73"/>
       <c r="R18" s="69"/>
       <c r="AA18" s="29"/>
@@ -9113,7 +9199,7 @@
         <f>DEC2HEX('ipv4'!B19)</f>
         <v>12</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="73"/>
       <c r="F19" s="12" t="s">
         <v>40</v>
@@ -9122,7 +9208,7 @@
         <f>DEC2HEX('ipv4'!G19)</f>
         <v>12</v>
       </c>
-      <c r="H19" s="91"/>
+      <c r="H19" s="96"/>
       <c r="I19" s="73"/>
       <c r="K19" s="12" t="s">
         <v>98</v>
@@ -9131,13 +9217,13 @@
         <f>DEC2HEX('ipv4'!L25)</f>
         <v>2</v>
       </c>
-      <c r="M19" s="112"/>
+      <c r="M19" s="120"/>
       <c r="N19" s="73"/>
       <c r="P19" s="71" t="s">
         <v>108</v>
       </c>
       <c r="Q19" s="49"/>
-      <c r="R19" s="101" t="s">
+      <c r="R19" s="108" t="s">
         <v>73</v>
       </c>
       <c r="S19" s="4" t="s">
@@ -9156,7 +9242,7 @@
         <f>DEC2HEX('ipv4'!B20)</f>
         <v>13</v>
       </c>
-      <c r="C20" s="89"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="73"/>
       <c r="F20" s="12" t="s">
         <v>40</v>
@@ -9165,7 +9251,7 @@
         <f>DEC2HEX('ipv4'!G20)</f>
         <v>13</v>
       </c>
-      <c r="H20" s="91"/>
+      <c r="H20" s="96"/>
       <c r="I20" s="73"/>
       <c r="K20" s="12" t="s">
         <v>98</v>
@@ -9174,7 +9260,7 @@
         <f>DEC2HEX('ipv4'!L26)</f>
         <v>3</v>
       </c>
-      <c r="M20" s="112"/>
+      <c r="M20" s="120"/>
       <c r="N20" s="73"/>
       <c r="P20" s="72" t="s">
         <v>108</v>
@@ -9183,7 +9269,7 @@
         <f>DEC2HEX('ipv4'!Q14)</f>
         <v>1</v>
       </c>
-      <c r="R20" s="102"/>
+      <c r="R20" s="109"/>
       <c r="S20" s="48" t="s">
         <v>67</v>
       </c>
@@ -9200,7 +9286,7 @@
         <f>DEC2HEX('ipv4'!B21)</f>
         <v>14</v>
       </c>
-      <c r="C21" s="89"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="73"/>
       <c r="F21" s="12" t="s">
         <v>40</v>
@@ -9209,7 +9295,7 @@
         <f>DEC2HEX('ipv4'!G21)</f>
         <v>14</v>
       </c>
-      <c r="H21" s="91"/>
+      <c r="H21" s="96"/>
       <c r="I21" s="73"/>
       <c r="K21" s="12" t="s">
         <v>98</v>
@@ -9218,7 +9304,7 @@
         <f>DEC2HEX('ipv4'!L27)</f>
         <v>4</v>
       </c>
-      <c r="M21" s="112"/>
+      <c r="M21" s="120"/>
       <c r="N21" s="73"/>
       <c r="P21" s="72" t="s">
         <v>108</v>
@@ -9227,7 +9313,7 @@
         <f>DEC2HEX('ipv4'!Q15)</f>
         <v>2</v>
       </c>
-      <c r="R21" s="102"/>
+      <c r="R21" s="109"/>
       <c r="S21" s="48" t="s">
         <v>66</v>
       </c>
@@ -9244,7 +9330,7 @@
         <f>DEC2HEX('ipv4'!B22)</f>
         <v>15</v>
       </c>
-      <c r="C22" s="89"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="73"/>
       <c r="F22" s="12" t="s">
         <v>40</v>
@@ -9253,7 +9339,7 @@
         <f>DEC2HEX('ipv4'!G22)</f>
         <v>15</v>
       </c>
-      <c r="H22" s="91"/>
+      <c r="H22" s="96"/>
       <c r="I22" s="73"/>
       <c r="K22" s="12" t="s">
         <v>98</v>
@@ -9262,7 +9348,7 @@
         <f>DEC2HEX('ipv4'!L28)</f>
         <v>5</v>
       </c>
-      <c r="M22" s="113"/>
+      <c r="M22" s="121"/>
       <c r="N22" s="73"/>
       <c r="P22" s="72" t="s">
         <v>108</v>
@@ -9271,7 +9357,7 @@
         <f>DEC2HEX('ipv4'!Q18)</f>
         <v>5</v>
       </c>
-      <c r="R22" s="102"/>
+      <c r="R22" s="109"/>
       <c r="S22" s="48" t="s">
         <v>51</v>
       </c>
@@ -9288,7 +9374,7 @@
         <f>DEC2HEX('ipv4'!B23)</f>
         <v>16</v>
       </c>
-      <c r="C23" s="89"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="73"/>
       <c r="F23" s="12" t="s">
         <v>40</v>
@@ -9297,7 +9383,7 @@
         <f>DEC2HEX('ipv4'!G23)</f>
         <v>16</v>
       </c>
-      <c r="H23" s="91"/>
+      <c r="H23" s="96"/>
       <c r="I23" s="73"/>
       <c r="M23" s="65"/>
       <c r="P23" s="72" t="s">
@@ -9307,7 +9393,7 @@
         <f>DEC2HEX('ipv4'!Q19)</f>
         <v>6</v>
       </c>
-      <c r="R23" s="102"/>
+      <c r="R23" s="109"/>
       <c r="S23" s="48" t="s">
         <v>52</v>
       </c>
@@ -9324,7 +9410,7 @@
         <f>DEC2HEX('ipv4'!B24)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="89"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="73"/>
       <c r="F24" s="12" t="s">
         <v>40</v>
@@ -9333,13 +9419,13 @@
         <f>DEC2HEX('ipv4'!G24)</f>
         <v>17</v>
       </c>
-      <c r="H24" s="91"/>
+      <c r="H24" s="96"/>
       <c r="I24" s="73"/>
       <c r="K24" s="11" t="s">
         <v>99</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="114" t="s">
+      <c r="M24" s="122" t="s">
         <v>24</v>
       </c>
       <c r="N24" s="4" t="s">
@@ -9352,7 +9438,7 @@
         <f>DEC2HEX('ipv4'!Q23)</f>
         <v>A</v>
       </c>
-      <c r="R24" s="102"/>
+      <c r="R24" s="109"/>
       <c r="S24" s="48" t="s">
         <v>53</v>
       </c>
@@ -9369,7 +9455,7 @@
         <f>DEC2HEX('ipv4'!B25)</f>
         <v>18</v>
       </c>
-      <c r="C25" s="89"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="73"/>
       <c r="F25" s="12" t="s">
         <v>40</v>
@@ -9378,7 +9464,7 @@
         <f>DEC2HEX('ipv4'!G25)</f>
         <v>18</v>
       </c>
-      <c r="H25" s="91"/>
+      <c r="H25" s="96"/>
       <c r="I25" s="73"/>
       <c r="K25" s="12" t="s">
         <v>99</v>
@@ -9387,7 +9473,7 @@
         <f>DEC2HEX('ipv4'!L33)</f>
         <v>1</v>
       </c>
-      <c r="M25" s="115"/>
+      <c r="M25" s="123"/>
       <c r="N25" s="73"/>
       <c r="P25" s="72" t="s">
         <v>108</v>
@@ -9396,7 +9482,7 @@
         <f>DEC2HEX('ipv4'!Q26)</f>
         <v>D</v>
       </c>
-      <c r="R25" s="102"/>
+      <c r="R25" s="109"/>
       <c r="S25" s="48" t="s">
         <v>58</v>
       </c>
@@ -9409,7 +9495,7 @@
         <f>DEC2HEX('ipv4'!B26)</f>
         <v>19</v>
       </c>
-      <c r="C26" s="89"/>
+      <c r="C26" s="94"/>
       <c r="D26" s="73"/>
       <c r="F26" s="12" t="s">
         <v>40</v>
@@ -9418,7 +9504,7 @@
         <f>DEC2HEX('ipv4'!G26)</f>
         <v>19</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="96"/>
       <c r="I26" s="73"/>
       <c r="K26" s="12" t="s">
         <v>99</v>
@@ -9427,7 +9513,7 @@
         <f>DEC2HEX('ipv4'!L34)</f>
         <v>2</v>
       </c>
-      <c r="M26" s="115"/>
+      <c r="M26" s="123"/>
       <c r="N26" s="74"/>
       <c r="P26" s="72" t="s">
         <v>108</v>
@@ -9436,7 +9522,7 @@
         <f>DEC2HEX('ipv4'!Q27)</f>
         <v>E</v>
       </c>
-      <c r="R26" s="102"/>
+      <c r="R26" s="109"/>
       <c r="S26" s="48" t="s">
         <v>59</v>
       </c>
@@ -9449,7 +9535,7 @@
         <f>DEC2HEX('ipv4'!B27)</f>
         <v>1A</v>
       </c>
-      <c r="C27" s="89"/>
+      <c r="C27" s="94"/>
       <c r="D27" s="73"/>
       <c r="F27" s="12" t="s">
         <v>40</v>
@@ -9458,13 +9544,13 @@
         <f>DEC2HEX('ipv4'!G27)</f>
         <v>1A</v>
       </c>
-      <c r="H27" s="91"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="73"/>
       <c r="K27" s="11" t="s">
         <v>100</v>
       </c>
       <c r="L27" s="3"/>
-      <c r="M27" s="115"/>
+      <c r="M27" s="123"/>
       <c r="N27" s="4" t="s">
         <v>23</v>
       </c>
@@ -9475,7 +9561,7 @@
         <f>DEC2HEX('ipv4'!Q28)</f>
         <v>F</v>
       </c>
-      <c r="R27" s="102"/>
+      <c r="R27" s="109"/>
       <c r="S27" s="48" t="s">
         <v>60</v>
       </c>
@@ -9488,7 +9574,7 @@
         <f>DEC2HEX('ipv4'!B28)</f>
         <v>1B</v>
       </c>
-      <c r="C28" s="89"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="73"/>
       <c r="F28" s="12" t="s">
         <v>40</v>
@@ -9497,7 +9583,7 @@
         <f>DEC2HEX('ipv4'!G28)</f>
         <v>1B</v>
       </c>
-      <c r="H28" s="91"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="73"/>
       <c r="K28" s="12" t="s">
         <v>100</v>
@@ -9506,13 +9592,13 @@
         <f>DEC2HEX('ipv4'!L38)</f>
         <v>1</v>
       </c>
-      <c r="M28" s="115"/>
+      <c r="M28" s="123"/>
       <c r="N28" s="73"/>
       <c r="P28" s="71" t="s">
         <v>109</v>
       </c>
       <c r="Q28" s="49"/>
-      <c r="R28" s="102"/>
+      <c r="R28" s="109"/>
       <c r="S28" s="4" t="s">
         <v>23</v>
       </c>
@@ -9525,7 +9611,7 @@
         <f>DEC2HEX('ipv4'!B29)</f>
         <v>1C</v>
       </c>
-      <c r="C29" s="89"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="73"/>
       <c r="F29" s="12" t="s">
         <v>40</v>
@@ -9534,7 +9620,7 @@
         <f>DEC2HEX('ipv4'!G29)</f>
         <v>1C</v>
       </c>
-      <c r="H29" s="91"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="73"/>
       <c r="K29" s="12" t="s">
         <v>100</v>
@@ -9543,7 +9629,7 @@
         <f>DEC2HEX('ipv4'!L39)</f>
         <v>2</v>
       </c>
-      <c r="M29" s="115"/>
+      <c r="M29" s="123"/>
       <c r="N29" s="73"/>
       <c r="P29" s="72" t="s">
         <v>109</v>
@@ -9552,7 +9638,7 @@
         <f>DEC2HEX('ipv4'!Q35)</f>
         <v>1</v>
       </c>
-      <c r="R29" s="102"/>
+      <c r="R29" s="109"/>
       <c r="S29" s="48" t="s">
         <v>68</v>
       </c>
@@ -9565,7 +9651,7 @@
         <f>DEC2HEX('ipv4'!B30)</f>
         <v>1D</v>
       </c>
-      <c r="C30" s="89"/>
+      <c r="C30" s="94"/>
       <c r="D30" s="73"/>
       <c r="F30" s="12" t="s">
         <v>40</v>
@@ -9574,13 +9660,13 @@
         <f>DEC2HEX('ipv4'!G30)</f>
         <v>1D</v>
       </c>
-      <c r="H30" s="91"/>
+      <c r="H30" s="96"/>
       <c r="I30" s="73"/>
       <c r="K30" s="66" t="s">
         <v>101</v>
       </c>
       <c r="L30" s="67"/>
-      <c r="M30" s="115"/>
+      <c r="M30" s="123"/>
       <c r="N30" s="68" t="s">
         <v>23</v>
       </c>
@@ -9591,7 +9677,7 @@
         <f>DEC2HEX('ipv4'!Q36)</f>
         <v>2</v>
       </c>
-      <c r="R30" s="102"/>
+      <c r="R30" s="109"/>
       <c r="S30" s="48" t="s">
         <v>45</v>
       </c>
@@ -9604,7 +9690,7 @@
         <f>DEC2HEX('ipv4'!B31)</f>
         <v>1E</v>
       </c>
-      <c r="C31" s="89"/>
+      <c r="C31" s="94"/>
       <c r="D31" s="73"/>
       <c r="F31" s="12" t="s">
         <v>40</v>
@@ -9613,7 +9699,7 @@
         <f>DEC2HEX('ipv4'!G31)</f>
         <v>1E</v>
       </c>
-      <c r="H31" s="92"/>
+      <c r="H31" s="97"/>
       <c r="I31" s="73"/>
       <c r="K31" s="12" t="s">
         <v>101</v>
@@ -9622,7 +9708,7 @@
         <f>DEC2HEX('ipv4'!L43)</f>
         <v>1</v>
       </c>
-      <c r="M31" s="115"/>
+      <c r="M31" s="123"/>
       <c r="N31" s="73"/>
       <c r="P31" s="72" t="s">
         <v>109</v>
@@ -9631,7 +9717,7 @@
         <f>DEC2HEX('ipv4'!Q37)</f>
         <v>3</v>
       </c>
-      <c r="R31" s="102"/>
+      <c r="R31" s="109"/>
       <c r="S31" s="48" t="s">
         <v>54</v>
       </c>
@@ -9644,7 +9730,7 @@
         <f>DEC2HEX('ipv4'!B32)</f>
         <v>1F</v>
       </c>
-      <c r="C32" s="89"/>
+      <c r="C32" s="94"/>
       <c r="D32" s="73"/>
       <c r="F32" s="33"/>
       <c r="G32" s="13"/>
@@ -9657,13 +9743,13 @@
         <f>DEC2HEX('ipv4'!L44)</f>
         <v>2</v>
       </c>
-      <c r="M32" s="116"/>
+      <c r="M32" s="124"/>
       <c r="N32" s="73"/>
       <c r="P32" s="71" t="s">
         <v>110</v>
       </c>
       <c r="Q32" s="49"/>
-      <c r="R32" s="102"/>
+      <c r="R32" s="109"/>
       <c r="S32" s="4" t="s">
         <v>23</v>
       </c>
@@ -9676,13 +9762,13 @@
         <f>DEC2HEX('ipv4'!B33)</f>
         <v>20</v>
       </c>
-      <c r="C33" s="89"/>
+      <c r="C33" s="94"/>
       <c r="D33" s="73"/>
       <c r="F33" s="11" t="s">
         <v>86</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="108" t="s">
+      <c r="H33" s="116" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -9699,7 +9785,7 @@
         <f>DEC2HEX('ipv4'!Q41)</f>
         <v>1</v>
       </c>
-      <c r="R33" s="102"/>
+      <c r="R33" s="109"/>
       <c r="S33" s="48" t="s">
         <v>70</v>
       </c>
@@ -9712,7 +9798,7 @@
         <f>DEC2HEX('ipv4'!B34)</f>
         <v>21</v>
       </c>
-      <c r="C34" s="89"/>
+      <c r="C34" s="94"/>
       <c r="D34" s="73"/>
       <c r="F34" s="12" t="s">
         <v>86</v>
@@ -9721,7 +9807,7 @@
         <f>DEC2HEX('ipv4'!G36)</f>
         <v>1</v>
       </c>
-      <c r="H34" s="109"/>
+      <c r="H34" s="117"/>
       <c r="I34" s="73"/>
       <c r="P34" s="72" t="s">
         <v>110</v>
@@ -9730,7 +9816,7 @@
         <f>DEC2HEX('ipv4'!Q42)</f>
         <v>2</v>
       </c>
-      <c r="R34" s="102"/>
+      <c r="R34" s="109"/>
       <c r="S34" s="48" t="s">
         <v>71</v>
       </c>
@@ -9743,7 +9829,7 @@
         <f>DEC2HEX('ipv4'!B35)</f>
         <v>22</v>
       </c>
-      <c r="C35" s="89"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="73"/>
       <c r="F35" s="12" t="s">
         <v>86</v>
@@ -9752,7 +9838,7 @@
         <f>DEC2HEX('ipv4'!G37)</f>
         <v>2</v>
       </c>
-      <c r="H35" s="109"/>
+      <c r="H35" s="117"/>
       <c r="I35" s="73"/>
       <c r="P35" s="72" t="s">
         <v>110</v>
@@ -9761,7 +9847,7 @@
         <f>DEC2HEX('ipv4'!Q43)</f>
         <v>3</v>
       </c>
-      <c r="R35" s="102"/>
+      <c r="R35" s="109"/>
       <c r="S35" s="48" t="s">
         <v>47</v>
       </c>
@@ -9774,7 +9860,7 @@
         <f>DEC2HEX('ipv4'!B36)</f>
         <v>23</v>
       </c>
-      <c r="C36" s="89"/>
+      <c r="C36" s="94"/>
       <c r="D36" s="73"/>
       <c r="F36" s="12" t="s">
         <v>86</v>
@@ -9783,7 +9869,7 @@
         <f>DEC2HEX('ipv4'!G38)</f>
         <v>3</v>
       </c>
-      <c r="H36" s="109"/>
+      <c r="H36" s="117"/>
       <c r="I36" s="73"/>
       <c r="P36" s="72" t="s">
         <v>110</v>
@@ -9792,7 +9878,7 @@
         <f>DEC2HEX('ipv4'!Q44)</f>
         <v>4</v>
       </c>
-      <c r="R36" s="102"/>
+      <c r="R36" s="109"/>
       <c r="S36" s="48" t="s">
         <v>48</v>
       </c>
@@ -9805,7 +9891,7 @@
         <f>DEC2HEX('ipv4'!B37)</f>
         <v>24</v>
       </c>
-      <c r="C37" s="89"/>
+      <c r="C37" s="94"/>
       <c r="D37" s="73"/>
       <c r="F37" s="12" t="s">
         <v>86</v>
@@ -9814,7 +9900,7 @@
         <f>DEC2HEX('ipv4'!G39)</f>
         <v>4</v>
       </c>
-      <c r="H37" s="109"/>
+      <c r="H37" s="117"/>
       <c r="I37" s="73"/>
       <c r="P37" s="72" t="s">
         <v>110</v>
@@ -9823,7 +9909,7 @@
         <f>DEC2HEX('ipv4'!Q45)</f>
         <v>5</v>
       </c>
-      <c r="R37" s="102"/>
+      <c r="R37" s="109"/>
       <c r="S37" s="48" t="s">
         <v>49</v>
       </c>
@@ -9836,7 +9922,7 @@
         <f>DEC2HEX('ipv4'!B38)</f>
         <v>25</v>
       </c>
-      <c r="C38" s="89"/>
+      <c r="C38" s="94"/>
       <c r="D38" s="73"/>
       <c r="F38" s="12" t="s">
         <v>86</v>
@@ -9845,7 +9931,7 @@
         <f>DEC2HEX('ipv4'!G40)</f>
         <v>5</v>
       </c>
-      <c r="H38" s="109"/>
+      <c r="H38" s="117"/>
       <c r="I38" s="73"/>
       <c r="P38" s="72" t="s">
         <v>110</v>
@@ -9854,7 +9940,7 @@
         <f>DEC2HEX('ipv4'!Q46)</f>
         <v>6</v>
       </c>
-      <c r="R38" s="102"/>
+      <c r="R38" s="109"/>
       <c r="S38" s="48" t="s">
         <v>50</v>
       </c>
@@ -9867,7 +9953,7 @@
         <f>DEC2HEX('ipv4'!B39)</f>
         <v>26</v>
       </c>
-      <c r="C39" s="89"/>
+      <c r="C39" s="94"/>
       <c r="D39" s="73"/>
       <c r="F39" s="12" t="s">
         <v>86</v>
@@ -9876,7 +9962,7 @@
         <f>DEC2HEX('ipv4'!G41)</f>
         <v>6</v>
       </c>
-      <c r="H39" s="109"/>
+      <c r="H39" s="117"/>
       <c r="I39" s="73"/>
       <c r="P39" s="72" t="s">
         <v>110</v>
@@ -9885,7 +9971,7 @@
         <f>DEC2HEX('ipv4'!Q47)</f>
         <v>7</v>
       </c>
-      <c r="R39" s="102"/>
+      <c r="R39" s="109"/>
       <c r="S39" s="48" t="s">
         <v>57</v>
       </c>
@@ -9898,7 +9984,7 @@
         <f>DEC2HEX('ipv4'!B40)</f>
         <v>27</v>
       </c>
-      <c r="C40" s="89"/>
+      <c r="C40" s="94"/>
       <c r="D40" s="73"/>
       <c r="F40" s="12" t="s">
         <v>86</v>
@@ -9907,7 +9993,7 @@
         <f>DEC2HEX('ipv4'!G42)</f>
         <v>7</v>
       </c>
-      <c r="H40" s="109"/>
+      <c r="H40" s="117"/>
       <c r="I40" s="73"/>
       <c r="P40" s="72" t="s">
         <v>110</v>
@@ -9916,7 +10002,7 @@
         <f>DEC2HEX('ipv4'!Q48)</f>
         <v>8</v>
       </c>
-      <c r="R40" s="102"/>
+      <c r="R40" s="109"/>
       <c r="S40" s="48" t="s">
         <v>56</v>
       </c>
@@ -9929,7 +10015,7 @@
         <f>DEC2HEX('ipv4'!B41)</f>
         <v>28</v>
       </c>
-      <c r="C41" s="89"/>
+      <c r="C41" s="94"/>
       <c r="D41" s="73"/>
       <c r="F41" s="12" t="s">
         <v>86</v>
@@ -9938,13 +10024,13 @@
         <f>DEC2HEX('ipv4'!G43)</f>
         <v>8</v>
       </c>
-      <c r="H41" s="109"/>
+      <c r="H41" s="117"/>
       <c r="I41" s="73"/>
       <c r="P41" s="71" t="s">
         <v>111</v>
       </c>
       <c r="Q41" s="49"/>
-      <c r="R41" s="102"/>
+      <c r="R41" s="109"/>
       <c r="S41" s="4" t="s">
         <v>23</v>
       </c>
@@ -9957,7 +10043,7 @@
         <f>DEC2HEX('ipv4'!B42)</f>
         <v>29</v>
       </c>
-      <c r="C42" s="89"/>
+      <c r="C42" s="94"/>
       <c r="D42" s="73"/>
       <c r="F42" s="12" t="s">
         <v>86</v>
@@ -9966,7 +10052,7 @@
         <f>DEC2HEX('ipv4'!G44)</f>
         <v>9</v>
       </c>
-      <c r="H42" s="109"/>
+      <c r="H42" s="117"/>
       <c r="I42" s="73"/>
       <c r="P42" s="72" t="s">
         <v>111</v>
@@ -9975,7 +10061,7 @@
         <f>DEC2HEX('ipv4'!Q57)</f>
         <v>1</v>
       </c>
-      <c r="R42" s="102"/>
+      <c r="R42" s="109"/>
       <c r="S42" s="48" t="s">
         <v>46</v>
       </c>
@@ -9988,7 +10074,7 @@
         <f>DEC2HEX('ipv4'!B43)</f>
         <v>2A</v>
       </c>
-      <c r="C43" s="89"/>
+      <c r="C43" s="94"/>
       <c r="D43" s="73"/>
       <c r="F43" s="12" t="s">
         <v>86</v>
@@ -9997,7 +10083,7 @@
         <f>DEC2HEX('ipv4'!G45)</f>
         <v>A</v>
       </c>
-      <c r="H43" s="110"/>
+      <c r="H43" s="118"/>
       <c r="I43" s="73"/>
       <c r="P43" s="72" t="s">
         <v>111</v>
@@ -10006,7 +10092,7 @@
         <f>DEC2HEX('ipv4'!Q58)</f>
         <v>2</v>
       </c>
-      <c r="R43" s="103"/>
+      <c r="R43" s="111"/>
       <c r="S43" s="48" t="s">
         <v>55</v>
       </c>
@@ -10019,7 +10105,7 @@
         <f>DEC2HEX('ipv4'!B44)</f>
         <v>2B</v>
       </c>
-      <c r="C44" s="89"/>
+      <c r="C44" s="94"/>
       <c r="D44" s="73"/>
       <c r="R44" s="70"/>
     </row>
@@ -10031,7 +10117,7 @@
         <f>DEC2HEX('ipv4'!B45)</f>
         <v>2C</v>
       </c>
-      <c r="C45" s="89"/>
+      <c r="C45" s="94"/>
       <c r="D45" s="73"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
@@ -10046,7 +10132,7 @@
         <f>DEC2HEX('ipv4'!B46)</f>
         <v>2D</v>
       </c>
-      <c r="C46" s="89"/>
+      <c r="C46" s="94"/>
       <c r="D46" s="73"/>
       <c r="P46" s="64"/>
       <c r="Q46" s="64"/>
@@ -10061,7 +10147,7 @@
         <f>DEC2HEX('ipv4'!B47)</f>
         <v>2E</v>
       </c>
-      <c r="C47" s="89"/>
+      <c r="C47" s="94"/>
       <c r="D47" s="73"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
@@ -10076,7 +10162,7 @@
         <f>DEC2HEX('ipv4'!B48)</f>
         <v>2F</v>
       </c>
-      <c r="C48" s="89"/>
+      <c r="C48" s="94"/>
       <c r="D48" s="73"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
@@ -10091,7 +10177,7 @@
         <f>DEC2HEX('ipv4'!B49)</f>
         <v>30</v>
       </c>
-      <c r="C49" s="89"/>
+      <c r="C49" s="94"/>
       <c r="D49" s="73"/>
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
@@ -10106,7 +10192,7 @@
         <f>DEC2HEX('ipv4'!B50)</f>
         <v>31</v>
       </c>
-      <c r="C50" s="89"/>
+      <c r="C50" s="94"/>
       <c r="D50" s="73"/>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
@@ -10121,7 +10207,7 @@
         <f>DEC2HEX('ipv4'!B51)</f>
         <v>32</v>
       </c>
-      <c r="C51" s="89"/>
+      <c r="C51" s="94"/>
       <c r="D51" s="73"/>
       <c r="P51" s="64"/>
       <c r="Q51" s="64"/>
@@ -10133,7 +10219,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="89"/>
+      <c r="C52" s="94"/>
       <c r="D52" s="4" t="s">
         <v>23</v>
       </c>
@@ -10147,7 +10233,7 @@
         <f>DEC2HEX('ipv4'!B55)</f>
         <v>1</v>
       </c>
-      <c r="C53" s="89"/>
+      <c r="C53" s="94"/>
       <c r="D53" s="73"/>
       <c r="R53" s="70"/>
     </row>
@@ -10159,7 +10245,7 @@
         <f>DEC2HEX('ipv4'!B56)</f>
         <v>2</v>
       </c>
-      <c r="C54" s="89"/>
+      <c r="C54" s="94"/>
       <c r="D54" s="73"/>
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
@@ -10174,7 +10260,7 @@
         <f>DEC2HEX('ipv4'!B57)</f>
         <v>3</v>
       </c>
-      <c r="C55" s="89"/>
+      <c r="C55" s="94"/>
       <c r="D55" s="73"/>
       <c r="P55" s="64"/>
       <c r="Q55" s="64"/>
@@ -10189,7 +10275,7 @@
         <f>DEC2HEX('ipv4'!B58)</f>
         <v>4</v>
       </c>
-      <c r="C56" s="89"/>
+      <c r="C56" s="94"/>
       <c r="D56" s="73"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -10200,7 +10286,7 @@
         <f>DEC2HEX('ipv4'!B59)</f>
         <v>5</v>
       </c>
-      <c r="C57" s="89"/>
+      <c r="C57" s="94"/>
       <c r="D57" s="73"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -10211,7 +10297,7 @@
         <f>DEC2HEX('ipv4'!B60)</f>
         <v>6</v>
       </c>
-      <c r="C58" s="89"/>
+      <c r="C58" s="94"/>
       <c r="D58" s="73"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -10222,7 +10308,7 @@
         <f>DEC2HEX('ipv4'!B61)</f>
         <v>7</v>
       </c>
-      <c r="C59" s="89"/>
+      <c r="C59" s="94"/>
       <c r="D59" s="73"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -10233,7 +10319,7 @@
         <f>DEC2HEX('ipv4'!B62)</f>
         <v>8</v>
       </c>
-      <c r="C60" s="89"/>
+      <c r="C60" s="94"/>
       <c r="D60" s="73"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -10244,7 +10330,7 @@
         <f>DEC2HEX('ipv4'!B63)</f>
         <v>9</v>
       </c>
-      <c r="C61" s="89"/>
+      <c r="C61" s="94"/>
       <c r="D61" s="73"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -10255,7 +10341,7 @@
         <f>DEC2HEX('ipv4'!B64)</f>
         <v>A</v>
       </c>
-      <c r="C62" s="89"/>
+      <c r="C62" s="94"/>
       <c r="D62" s="73"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -10266,7 +10352,7 @@
         <f>DEC2HEX('ipv4'!B65)</f>
         <v>B</v>
       </c>
-      <c r="C63" s="89"/>
+      <c r="C63" s="94"/>
       <c r="D63" s="73"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -10277,7 +10363,7 @@
         <f>DEC2HEX('ipv4'!B66)</f>
         <v>C</v>
       </c>
-      <c r="C64" s="89"/>
+      <c r="C64" s="94"/>
       <c r="D64" s="73"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -10288,7 +10374,7 @@
         <f>DEC2HEX('ipv4'!B67)</f>
         <v>D</v>
       </c>
-      <c r="C65" s="89"/>
+      <c r="C65" s="94"/>
       <c r="D65" s="73"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -10299,7 +10385,7 @@
         <f>DEC2HEX('ipv4'!B68)</f>
         <v>E</v>
       </c>
-      <c r="C66" s="89"/>
+      <c r="C66" s="94"/>
       <c r="D66" s="73"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -10310,7 +10396,7 @@
         <f>DEC2HEX('ipv4'!B69)</f>
         <v>F</v>
       </c>
-      <c r="C67" s="89"/>
+      <c r="C67" s="94"/>
       <c r="D67" s="73"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -10321,7 +10407,7 @@
         <f>DEC2HEX('ipv4'!B70)</f>
         <v>10</v>
       </c>
-      <c r="C68" s="89"/>
+      <c r="C68" s="94"/>
       <c r="D68" s="73"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -10332,7 +10418,7 @@
         <f>DEC2HEX('ipv4'!B71)</f>
         <v>11</v>
       </c>
-      <c r="C69" s="89"/>
+      <c r="C69" s="94"/>
       <c r="D69" s="73"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -10343,7 +10429,7 @@
         <f>DEC2HEX('ipv4'!B72)</f>
         <v>12</v>
       </c>
-      <c r="C70" s="89"/>
+      <c r="C70" s="94"/>
       <c r="D70" s="73"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -10354,7 +10440,7 @@
         <f>DEC2HEX('ipv4'!B73)</f>
         <v>13</v>
       </c>
-      <c r="C71" s="89"/>
+      <c r="C71" s="94"/>
       <c r="D71" s="73"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -10367,7 +10453,7 @@
         <f>DEC2HEX('ipv4'!B74)</f>
         <v>14</v>
       </c>
-      <c r="C72" s="89"/>
+      <c r="C72" s="94"/>
       <c r="D72" s="73"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -10380,7 +10466,7 @@
         <f>DEC2HEX('ipv4'!B75)</f>
         <v>15</v>
       </c>
-      <c r="C73" s="89"/>
+      <c r="C73" s="94"/>
       <c r="D73" s="73"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -10393,7 +10479,7 @@
         <f>DEC2HEX('ipv4'!B76)</f>
         <v>16</v>
       </c>
-      <c r="C74" s="89"/>
+      <c r="C74" s="94"/>
       <c r="D74" s="73"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -10406,7 +10492,7 @@
         <f>DEC2HEX('ipv4'!B77)</f>
         <v>17</v>
       </c>
-      <c r="C75" s="89"/>
+      <c r="C75" s="94"/>
       <c r="D75" s="73"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -10419,7 +10505,7 @@
         <f>DEC2HEX('ipv4'!B78)</f>
         <v>18</v>
       </c>
-      <c r="C76" s="89"/>
+      <c r="C76" s="94"/>
       <c r="D76" s="73"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -10432,7 +10518,7 @@
         <f>DEC2HEX('ipv4'!B79)</f>
         <v>19</v>
       </c>
-      <c r="C77" s="89"/>
+      <c r="C77" s="94"/>
       <c r="D77" s="73"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -10445,7 +10531,7 @@
         <f>DEC2HEX('ipv4'!B80)</f>
         <v>1A</v>
       </c>
-      <c r="C78" s="89"/>
+      <c r="C78" s="94"/>
       <c r="D78" s="73"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -10458,7 +10544,7 @@
         <f>DEC2HEX('ipv4'!B81)</f>
         <v>1B</v>
       </c>
-      <c r="C79" s="89"/>
+      <c r="C79" s="94"/>
       <c r="D79" s="73"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -10471,7 +10557,7 @@
         <f>DEC2HEX('ipv4'!B82)</f>
         <v>1C</v>
       </c>
-      <c r="C80" s="89"/>
+      <c r="C80" s="94"/>
       <c r="D80" s="73"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -10484,7 +10570,7 @@
         <f>DEC2HEX('ipv4'!B83)</f>
         <v>1D</v>
       </c>
-      <c r="C81" s="89"/>
+      <c r="C81" s="94"/>
       <c r="D81" s="73"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -10497,7 +10583,7 @@
         <f>DEC2HEX('ipv4'!B84)</f>
         <v>1E</v>
       </c>
-      <c r="C82" s="89"/>
+      <c r="C82" s="94"/>
       <c r="D82" s="73"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -10510,7 +10596,7 @@
         <f>DEC2HEX('ipv4'!B85)</f>
         <v>1F</v>
       </c>
-      <c r="C83" s="89"/>
+      <c r="C83" s="94"/>
       <c r="D83" s="73"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -10523,7 +10609,7 @@
         <f>DEC2HEX('ipv4'!B86)</f>
         <v>20</v>
       </c>
-      <c r="C84" s="89"/>
+      <c r="C84" s="94"/>
       <c r="D84" s="73"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
@@ -10536,7 +10622,7 @@
         <f>DEC2HEX('ipv4'!B87)</f>
         <v>21</v>
       </c>
-      <c r="C85" s="89"/>
+      <c r="C85" s="94"/>
       <c r="D85" s="73"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
@@ -10549,7 +10635,7 @@
         <f>DEC2HEX('ipv4'!B88)</f>
         <v>22</v>
       </c>
-      <c r="C86" s="89"/>
+      <c r="C86" s="94"/>
       <c r="D86" s="73"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -10562,7 +10648,7 @@
         <f>DEC2HEX('ipv4'!B89)</f>
         <v>23</v>
       </c>
-      <c r="C87" s="89"/>
+      <c r="C87" s="94"/>
       <c r="D87" s="73"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
@@ -10575,7 +10661,7 @@
         <f>DEC2HEX('ipv4'!B90)</f>
         <v>24</v>
       </c>
-      <c r="C88" s="89"/>
+      <c r="C88" s="94"/>
       <c r="D88" s="73"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -10588,7 +10674,7 @@
         <f>DEC2HEX('ipv4'!B91)</f>
         <v>25</v>
       </c>
-      <c r="C89" s="89"/>
+      <c r="C89" s="94"/>
       <c r="D89" s="73"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -10601,7 +10687,7 @@
         <f>DEC2HEX('ipv4'!B92)</f>
         <v>26</v>
       </c>
-      <c r="C90" s="89"/>
+      <c r="C90" s="94"/>
       <c r="D90" s="73"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -10614,7 +10700,7 @@
         <f>DEC2HEX('ipv4'!B93)</f>
         <v>27</v>
       </c>
-      <c r="C91" s="89"/>
+      <c r="C91" s="94"/>
       <c r="D91" s="73"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -10627,7 +10713,7 @@
         <f>DEC2HEX('ipv4'!B94)</f>
         <v>28</v>
       </c>
-      <c r="C92" s="89"/>
+      <c r="C92" s="94"/>
       <c r="D92" s="73"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -10637,7 +10723,7 @@
         <v>39</v>
       </c>
       <c r="B93" s="3"/>
-      <c r="C93" s="89"/>
+      <c r="C93" s="94"/>
       <c r="D93" s="4" t="s">
         <v>23</v>
       </c>
@@ -10652,7 +10738,7 @@
         <f>DEC2HEX('ipv4'!B98)</f>
         <v>1</v>
       </c>
-      <c r="C94" s="89"/>
+      <c r="C94" s="94"/>
       <c r="D94" s="73"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -10665,7 +10751,7 @@
         <f>DEC2HEX('ipv4'!B99)</f>
         <v>2</v>
       </c>
-      <c r="C95" s="89"/>
+      <c r="C95" s="94"/>
       <c r="D95" s="73"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
@@ -10678,7 +10764,7 @@
         <f>DEC2HEX('ipv4'!B100)</f>
         <v>3</v>
       </c>
-      <c r="C96" s="89"/>
+      <c r="C96" s="94"/>
       <c r="D96" s="73"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -10691,7 +10777,7 @@
         <f>DEC2HEX('ipv4'!B101)</f>
         <v>4</v>
       </c>
-      <c r="C97" s="89"/>
+      <c r="C97" s="94"/>
       <c r="D97" s="73"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
@@ -10704,7 +10790,7 @@
         <f>DEC2HEX('ipv4'!B102)</f>
         <v>5</v>
       </c>
-      <c r="C98" s="89"/>
+      <c r="C98" s="94"/>
       <c r="D98" s="73"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
@@ -10717,7 +10803,7 @@
         <f>DEC2HEX('ipv4'!B103)</f>
         <v>6</v>
       </c>
-      <c r="C99" s="107"/>
+      <c r="C99" s="115"/>
       <c r="D99" s="73"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
